--- a/Predictions/timestamps_typical_lstm.xlsx
+++ b/Predictions/timestamps_typical_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42.4399528503418</v>
+        <v>36.03894805908203</v>
       </c>
       <c r="B2" t="n">
-        <v>42.4637336730957</v>
+        <v>0.6142757534980774</v>
       </c>
       <c r="C2" t="n">
-        <v>15.05264854431152</v>
+        <v>8.037221908569336</v>
       </c>
       <c r="D2" t="n">
-        <v>16.81018447875977</v>
+        <v>23.58102798461914</v>
       </c>
       <c r="E2" t="n">
-        <v>-22.13852310180664</v>
+        <v>-18.15736198425293</v>
       </c>
       <c r="F2" t="n">
-        <v>-22.37231254577637</v>
+        <v>2.997123241424561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42.801025390625</v>
+        <v>36.03894805908203</v>
       </c>
       <c r="B3" t="n">
-        <v>43.40211868286133</v>
+        <v>1.714654684066772</v>
       </c>
       <c r="C3" t="n">
-        <v>18.33971786499023</v>
+        <v>6.997380256652832</v>
       </c>
       <c r="D3" t="n">
-        <v>20.82016754150391</v>
+        <v>26.12835311889648</v>
       </c>
       <c r="E3" t="n">
-        <v>-25.37261581420898</v>
+        <v>-21.45382308959961</v>
       </c>
       <c r="F3" t="n">
-        <v>-24.29883193969727</v>
+        <v>-5.958991050720215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.19009399414062</v>
+        <v>35.20375823974609</v>
       </c>
       <c r="B4" t="n">
-        <v>43.85645294189453</v>
+        <v>3.546465396881104</v>
       </c>
       <c r="C4" t="n">
-        <v>21.75828552246094</v>
+        <v>5.717835426330566</v>
       </c>
       <c r="D4" t="n">
-        <v>23.95306777954102</v>
+        <v>30.15257453918457</v>
       </c>
       <c r="E4" t="n">
-        <v>-25.37261581420898</v>
+        <v>-24.44829177856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-22.99103164672852</v>
+        <v>-15.00921249389648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.77148056030273</v>
+        <v>33.54740142822266</v>
       </c>
       <c r="B5" t="n">
-        <v>41.5675048828125</v>
+        <v>5.91053581237793</v>
       </c>
       <c r="C5" t="n">
-        <v>24.65049743652344</v>
+        <v>5.14775562286377</v>
       </c>
       <c r="D5" t="n">
-        <v>25.86449813842773</v>
+        <v>35.52682495117188</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.70149612426758</v>
+        <v>-26.15268325805664</v>
       </c>
       <c r="F5" t="n">
-        <v>-20.47036170959473</v>
+        <v>-22.87570953369141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42.76420211791992</v>
+        <v>31.80204391479492</v>
       </c>
       <c r="B6" t="n">
-        <v>40.15359497070312</v>
+        <v>8.702297210693359</v>
       </c>
       <c r="C6" t="n">
-        <v>26.55404281616211</v>
+        <v>5.409798622131348</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2473258972168</v>
+        <v>41.73285675048828</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.40187072753906</v>
+        <v>-26.15268325805664</v>
       </c>
       <c r="F6" t="n">
-        <v>-15.68712902069092</v>
+        <v>-28.29871368408203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40.52523040771484</v>
+        <v>29.93843078613281</v>
       </c>
       <c r="B7" t="n">
-        <v>38.32120132446289</v>
+        <v>12.00015449523926</v>
       </c>
       <c r="C7" t="n">
-        <v>26.55404281616211</v>
+        <v>5.729128837585449</v>
       </c>
       <c r="D7" t="n">
-        <v>27.2473258972168</v>
+        <v>48.23101806640625</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.53896522521973</v>
+        <v>-25.56162643432617</v>
       </c>
       <c r="F7" t="n">
-        <v>-12.2117395401001</v>
+        <v>-30.95992279052734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38.52841949462891</v>
+        <v>27.95167541503906</v>
       </c>
       <c r="B8" t="n">
-        <v>36.12946319580078</v>
+        <v>15.75363540649414</v>
       </c>
       <c r="C8" t="n">
-        <v>28.16069984436035</v>
+        <v>5.916924476623535</v>
       </c>
       <c r="D8" t="n">
-        <v>28.16550064086914</v>
+        <v>54.452392578125</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.17723560333252</v>
+        <v>-23.54184341430664</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.905364036560059</v>
+        <v>-30.95992279052734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36.14986419677734</v>
+        <v>25.86536407470703</v>
       </c>
       <c r="B9" t="n">
-        <v>33.53231430053711</v>
+        <v>19.86633682250977</v>
       </c>
       <c r="C9" t="n">
-        <v>25.15301132202148</v>
+        <v>5.88090991973877</v>
       </c>
       <c r="D9" t="n">
-        <v>26.84366989135742</v>
+        <v>59.92965316772461</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.706831932067871</v>
+        <v>-20.75468635559082</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.655396938323975</v>
+        <v>-28.0081901550293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33.52587509155273</v>
+        <v>23.75477409362793</v>
       </c>
       <c r="B10" t="n">
-        <v>30.05132675170898</v>
+        <v>24.14369964599609</v>
       </c>
       <c r="C10" t="n">
-        <v>23.70846557617188</v>
+        <v>5.947474479675293</v>
       </c>
       <c r="D10" t="n">
-        <v>23.54548263549805</v>
+        <v>64.19496154785156</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.523316860198975</v>
+        <v>-17.34037780761719</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.751362085342407</v>
+        <v>-23.43742752075195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30.83016014099121</v>
+        <v>21.73808097839355</v>
       </c>
       <c r="B11" t="n">
-        <v>26.69569778442383</v>
+        <v>28.39494132995605</v>
       </c>
       <c r="C11" t="n">
-        <v>21.44862365722656</v>
+        <v>6.119256019592285</v>
       </c>
       <c r="D11" t="n">
-        <v>20.93741798400879</v>
+        <v>66.92414855957031</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.230974674224854</v>
+        <v>-13.70459365844727</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.751362085342407</v>
+        <v>-18.07406234741211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.48011779785156</v>
+        <v>19.80633544921875</v>
       </c>
       <c r="B12" t="n">
-        <v>23.47845840454102</v>
+        <v>32.46023941040039</v>
       </c>
       <c r="C12" t="n">
-        <v>18.14480400085449</v>
+        <v>6.243670463562012</v>
       </c>
       <c r="D12" t="n">
-        <v>17.71946334838867</v>
+        <v>68.00417327880859</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.731164932250977</v>
+        <v>-10.19233894348145</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.998213529586792</v>
+        <v>-12.70380210876465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24.27348709106445</v>
+        <v>17.95169067382812</v>
       </c>
       <c r="B13" t="n">
-        <v>20.03205490112305</v>
+        <v>36.32928085327148</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7271556854248</v>
+        <v>6.336995124816895</v>
       </c>
       <c r="D13" t="n">
-        <v>14.36955833435059</v>
+        <v>68.00417327880859</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.731164932250977</v>
+        <v>-6.489086151123047</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.137492418289185</v>
+        <v>-8.030544281005859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.20764923095703</v>
+        <v>16.15594291687012</v>
       </c>
       <c r="B14" t="n">
-        <v>16.89798736572266</v>
+        <v>39.8616943359375</v>
       </c>
       <c r="C14" t="n">
-        <v>12.17469692230225</v>
+        <v>6.601866722106934</v>
       </c>
       <c r="D14" t="n">
-        <v>12.01897811889648</v>
+        <v>65.27773284912109</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.509981155395508</v>
+        <v>-2.80544900894165</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9340780377388</v>
+        <v>-4.089874744415283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18.61808776855469</v>
+        <v>14.48120498657227</v>
       </c>
       <c r="B15" t="n">
-        <v>14.01210975646973</v>
+        <v>42.90612030029297</v>
       </c>
       <c r="C15" t="n">
-        <v>10.53535842895508</v>
+        <v>6.782666206359863</v>
       </c>
       <c r="D15" t="n">
-        <v>10.21969795227051</v>
+        <v>62.11005020141602</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.126571655273438</v>
+        <v>0.6930758953094482</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.008119821548462</v>
+        <v>-0.9942739009857178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.91241550445557</v>
+        <v>12.89150428771973</v>
       </c>
       <c r="B16" t="n">
-        <v>11.70247650146484</v>
+        <v>45.37401580810547</v>
       </c>
       <c r="C16" t="n">
-        <v>9.113540649414062</v>
+        <v>7.020255088806152</v>
       </c>
       <c r="D16" t="n">
-        <v>10.21969795227051</v>
+        <v>57.67936706542969</v>
       </c>
       <c r="E16" t="n">
-        <v>1.044344425201416</v>
+        <v>4.113767623901367</v>
       </c>
       <c r="F16" t="n">
-        <v>1.870403051376343</v>
+        <v>1.113238930702209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13.55528831481934</v>
+        <v>11.33214473724365</v>
       </c>
       <c r="B17" t="n">
-        <v>9.093019485473633</v>
+        <v>47.26784515380859</v>
       </c>
       <c r="C17" t="n">
-        <v>9.113540649414062</v>
+        <v>7.474247932434082</v>
       </c>
       <c r="D17" t="n">
-        <v>8.251255989074707</v>
+        <v>52.18336486816406</v>
       </c>
       <c r="E17" t="n">
-        <v>3.963648319244385</v>
+        <v>7.282259464263916</v>
       </c>
       <c r="F17" t="n">
-        <v>4.126551151275635</v>
+        <v>1.113238930702209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.39117240905762</v>
+        <v>9.865818977355957</v>
       </c>
       <c r="B18" t="n">
-        <v>6.172917366027832</v>
+        <v>48.56900787353516</v>
       </c>
       <c r="C18" t="n">
-        <v>8.081110954284668</v>
+        <v>7.981310844421387</v>
       </c>
       <c r="D18" t="n">
-        <v>7.652609825134277</v>
+        <v>46.0108642578125</v>
       </c>
       <c r="E18" t="n">
-        <v>5.757357597351074</v>
+        <v>10.16807270050049</v>
       </c>
       <c r="F18" t="n">
-        <v>6.082290649414062</v>
+        <v>2.864996910095215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.943806648254395</v>
+        <v>8.455141067504883</v>
       </c>
       <c r="B19" t="n">
-        <v>3.509794473648071</v>
+        <v>48.56900787353516</v>
       </c>
       <c r="C19" t="n">
-        <v>7.398894309997559</v>
+        <v>8.585824012756348</v>
       </c>
       <c r="D19" t="n">
-        <v>6.00563907623291</v>
+        <v>39.49019622802734</v>
       </c>
       <c r="E19" t="n">
-        <v>7.882859706878662</v>
+        <v>13.11595916748047</v>
       </c>
       <c r="F19" t="n">
-        <v>8.140724182128906</v>
+        <v>1.858780741691589</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.442889213562012</v>
+        <v>7.08048152923584</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6733092069625854</v>
+        <v>50.02639770507812</v>
       </c>
       <c r="C20" t="n">
-        <v>6.792315483093262</v>
+        <v>9.336857795715332</v>
       </c>
       <c r="D20" t="n">
-        <v>5.133227348327637</v>
+        <v>32.94969940185547</v>
       </c>
       <c r="E20" t="n">
-        <v>9.796755790710449</v>
+        <v>15.6789379119873</v>
       </c>
       <c r="F20" t="n">
-        <v>9.657716751098633</v>
+        <v>0.7478241324424744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.326401710510254</v>
+        <v>5.769618988037109</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.891059160232544</v>
+        <v>49.70098114013672</v>
       </c>
       <c r="C21" t="n">
-        <v>6.924965858459473</v>
+        <v>10.01262760162354</v>
       </c>
       <c r="D21" t="n">
-        <v>4.647067070007324</v>
+        <v>26.88773727416992</v>
       </c>
       <c r="E21" t="n">
-        <v>12.50854873657227</v>
+        <v>17.92512702941895</v>
       </c>
       <c r="F21" t="n">
-        <v>11.47486686706543</v>
+        <v>-2.10061240196228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.337639570236206</v>
+        <v>4.437374114990234</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.330924034118652</v>
+        <v>49.05825424194336</v>
       </c>
       <c r="C22" t="n">
-        <v>7.187150001525879</v>
+        <v>10.83799839019775</v>
       </c>
       <c r="D22" t="n">
-        <v>4.193058967590332</v>
+        <v>21.72886276245117</v>
       </c>
       <c r="E22" t="n">
-        <v>13.99074554443359</v>
+        <v>19.91787338256836</v>
       </c>
       <c r="F22" t="n">
-        <v>12.76913642883301</v>
+        <v>-4.399372100830078</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8115451335906982</v>
+        <v>3.09443211555481</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.450045585632324</v>
+        <v>48.27727890014648</v>
       </c>
       <c r="C23" t="n">
-        <v>9.165336608886719</v>
+        <v>11.87949275970459</v>
       </c>
       <c r="D23" t="n">
-        <v>4.679434776306152</v>
+        <v>17.71634292602539</v>
       </c>
       <c r="E23" t="n">
-        <v>13.99074554443359</v>
+        <v>21.42509078979492</v>
       </c>
       <c r="F23" t="n">
-        <v>14.12663269042969</v>
+        <v>-6.556490898132324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.3781082630157471</v>
+        <v>1.782447695732117</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.084795951843262</v>
+        <v>47.08718872070312</v>
       </c>
       <c r="C24" t="n">
-        <v>10.92358875274658</v>
+        <v>12.85127544403076</v>
       </c>
       <c r="D24" t="n">
-        <v>6.873908996582031</v>
+        <v>14.94254493713379</v>
       </c>
       <c r="E24" t="n">
-        <v>17.11462783813477</v>
+        <v>21.42509078979492</v>
       </c>
       <c r="F24" t="n">
-        <v>15.75180530548096</v>
+        <v>-8.393856048583984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.3781082630157471</v>
+        <v>0.5386288166046143</v>
       </c>
       <c r="B25" t="n">
-        <v>-9.399258613586426</v>
+        <v>45.59277725219727</v>
       </c>
       <c r="C25" t="n">
-        <v>13.67278099060059</v>
+        <v>13.91864395141602</v>
       </c>
       <c r="D25" t="n">
-        <v>8.682025909423828</v>
+        <v>13.27206897735596</v>
       </c>
       <c r="E25" t="n">
-        <v>17.11462783813477</v>
+        <v>22.74353218078613</v>
       </c>
       <c r="F25" t="n">
-        <v>15.75180530548096</v>
+        <v>-10.38177299499512</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2.066285371780396</v>
+        <v>-0.5971089601516724</v>
       </c>
       <c r="B26" t="n">
-        <v>-9.399258613586426</v>
+        <v>43.88796234130859</v>
       </c>
       <c r="C26" t="n">
-        <v>17.45349502563477</v>
+        <v>15.25716876983643</v>
       </c>
       <c r="D26" t="n">
-        <v>11.28199195861816</v>
+        <v>13.27206897735596</v>
       </c>
       <c r="E26" t="n">
-        <v>15.03251838684082</v>
+        <v>19.27075958251953</v>
       </c>
       <c r="F26" t="n">
-        <v>13.26672172546387</v>
+        <v>-12.93849849700928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.963095903396606</v>
+        <v>-0.5971089601516724</v>
       </c>
       <c r="B27" t="n">
-        <v>-11.28663158416748</v>
+        <v>42.13195037841797</v>
       </c>
       <c r="C27" t="n">
-        <v>22.13356781005859</v>
+        <v>17.91800308227539</v>
       </c>
       <c r="D27" t="n">
-        <v>14.89642143249512</v>
+        <v>11.95859813690186</v>
       </c>
       <c r="E27" t="n">
-        <v>9.879104614257812</v>
+        <v>15.36045455932617</v>
       </c>
       <c r="F27" t="n">
-        <v>7.786394596099854</v>
+        <v>-15.64029312133789</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.149873018264771</v>
+        <v>-2.494269847869873</v>
       </c>
       <c r="B28" t="n">
-        <v>-10.34076976776123</v>
+        <v>39.15771484375</v>
       </c>
       <c r="C28" t="n">
-        <v>27.4522819519043</v>
+        <v>19.98942375183105</v>
       </c>
       <c r="D28" t="n">
-        <v>19.279541015625</v>
+        <v>13.00138378143311</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03944301605224609</v>
+        <v>9.00689697265625</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.067414522171021</v>
+        <v>-17.70508766174316</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.23526930809021</v>
+        <v>-2.711242198944092</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.999985694885254</v>
+        <v>37.47114562988281</v>
       </c>
       <c r="C29" t="n">
-        <v>32.75479507446289</v>
+        <v>23.07848358154297</v>
       </c>
       <c r="D29" t="n">
-        <v>24.33889007568359</v>
+        <v>14.17453670501709</v>
       </c>
       <c r="E29" t="n">
-        <v>-13.4971866607666</v>
+        <v>0.1791954040527344</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.39165019989014</v>
+        <v>-17.70508766174316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.048887252807617</v>
+        <v>-2.14215612411499</v>
       </c>
       <c r="B30" t="n">
-        <v>-4.514742851257324</v>
+        <v>35.59181976318359</v>
       </c>
       <c r="C30" t="n">
-        <v>38.166748046875</v>
+        <v>27.31316184997559</v>
       </c>
       <c r="D30" t="n">
-        <v>29.80432891845703</v>
+        <v>15.31420803070068</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.57899475097656</v>
+        <v>-10.02322483062744</v>
       </c>
       <c r="F30" t="n">
-        <v>-27.7527027130127</v>
+        <v>-18.65726852416992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.368005752563477</v>
+        <v>0.7421431541442871</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.021048307418823</v>
+        <v>33.72786712646484</v>
       </c>
       <c r="C31" t="n">
-        <v>43.87571334838867</v>
+        <v>32.77052307128906</v>
       </c>
       <c r="D31" t="n">
-        <v>36.22944259643555</v>
+        <v>16.18461799621582</v>
       </c>
       <c r="E31" t="n">
-        <v>-37.09022521972656</v>
+        <v>-19.93718528747559</v>
       </c>
       <c r="F31" t="n">
-        <v>-34.58795166015625</v>
+        <v>-17.83665657043457</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.734231948852539</v>
+        <v>3.118407249450684</v>
       </c>
       <c r="B32" t="n">
-        <v>3.144248485565186</v>
+        <v>31.81982421875</v>
       </c>
       <c r="C32" t="n">
-        <v>50.41316986083984</v>
+        <v>39.21832275390625</v>
       </c>
       <c r="D32" t="n">
-        <v>43.18831634521484</v>
+        <v>16.75424003601074</v>
       </c>
       <c r="E32" t="n">
-        <v>-39.43273544311523</v>
+        <v>-28.14924621582031</v>
       </c>
       <c r="F32" t="n">
-        <v>-34.58795166015625</v>
+        <v>-14.71398544311523</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.36481285095215</v>
+        <v>6.454208374023438</v>
       </c>
       <c r="B33" t="n">
-        <v>7.419147491455078</v>
+        <v>29.72602462768555</v>
       </c>
       <c r="C33" t="n">
-        <v>56.36653137207031</v>
+        <v>46.1712760925293</v>
       </c>
       <c r="D33" t="n">
-        <v>49.37047576904297</v>
+        <v>17.12908935546875</v>
       </c>
       <c r="E33" t="n">
-        <v>-36.68920135498047</v>
+        <v>-33.84451293945312</v>
       </c>
       <c r="F33" t="n">
-        <v>-29.81257247924805</v>
+        <v>-11.94758224487305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16.22490310668945</v>
+        <v>10.46527671813965</v>
       </c>
       <c r="B34" t="n">
-        <v>11.57141876220703</v>
+        <v>27.53669929504395</v>
       </c>
       <c r="C34" t="n">
-        <v>61.66806411743164</v>
+        <v>52.91572570800781</v>
       </c>
       <c r="D34" t="n">
-        <v>54.44131469726562</v>
+        <v>17.11174011230469</v>
       </c>
       <c r="E34" t="n">
-        <v>-32.16846466064453</v>
+        <v>-36.00296783447266</v>
       </c>
       <c r="F34" t="n">
-        <v>-24.09655570983887</v>
+        <v>-8.440975189208984</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20.16555976867676</v>
+        <v>14.76383781433105</v>
       </c>
       <c r="B35" t="n">
-        <v>15.65355110168457</v>
+        <v>25.39884757995605</v>
       </c>
       <c r="C35" t="n">
-        <v>65.85800170898438</v>
+        <v>58.6691780090332</v>
       </c>
       <c r="D35" t="n">
-        <v>58.09013748168945</v>
+        <v>16.99109268188477</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.38971138000488</v>
+        <v>-34.50022125244141</v>
       </c>
       <c r="F35" t="n">
-        <v>-19.00048065185547</v>
+        <v>-4.721022129058838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23.98865699768066</v>
+        <v>19.15446853637695</v>
       </c>
       <c r="B36" t="n">
-        <v>19.76658248901367</v>
+        <v>23.34489440917969</v>
       </c>
       <c r="C36" t="n">
-        <v>68.343505859375</v>
+        <v>62.94577026367188</v>
       </c>
       <c r="D36" t="n">
-        <v>60.37748336791992</v>
+        <v>16.81653594970703</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.51993942260742</v>
+        <v>-29.79604721069336</v>
       </c>
       <c r="F36" t="n">
-        <v>-14.26598453521729</v>
+        <v>-1.251790285110474</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.62114715576172</v>
+        <v>23.42005348205566</v>
       </c>
       <c r="B37" t="n">
-        <v>23.89522933959961</v>
+        <v>21.38169097900391</v>
       </c>
       <c r="C37" t="n">
-        <v>68.343505859375</v>
+        <v>65.34006500244141</v>
       </c>
       <c r="D37" t="n">
-        <v>60.37748336791992</v>
+        <v>16.68989372253418</v>
       </c>
       <c r="E37" t="n">
-        <v>-13.13395500183105</v>
+        <v>-22.75295066833496</v>
       </c>
       <c r="F37" t="n">
-        <v>-9.283089637756348</v>
+        <v>1.96791684627533</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30.76638984680176</v>
+        <v>27.34512519836426</v>
       </c>
       <c r="B38" t="n">
-        <v>27.3958740234375</v>
+        <v>19.54312324523926</v>
       </c>
       <c r="C38" t="n">
-        <v>67.98602294921875</v>
+        <v>65.34006500244141</v>
       </c>
       <c r="D38" t="n">
-        <v>59.44281005859375</v>
+        <v>16.59810829162598</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.846927642822266</v>
+        <v>-14.81731796264648</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.736914157867432</v>
+        <v>4.917727470397949</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>33.20371627807617</v>
+        <v>30.78981018066406</v>
       </c>
       <c r="B39" t="n">
-        <v>30.30306243896484</v>
+        <v>17.77256202697754</v>
       </c>
       <c r="C39" t="n">
-        <v>64.17863464355469</v>
+        <v>63.61927795410156</v>
       </c>
       <c r="D39" t="n">
-        <v>55.72671508789062</v>
+        <v>16.69516754150391</v>
       </c>
       <c r="E39" t="n">
-        <v>-4.178766250610352</v>
+        <v>-7.61473560333252</v>
       </c>
       <c r="F39" t="n">
-        <v>-4.029154300689697</v>
+        <v>7.795205593109131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35.16814422607422</v>
+        <v>33.71642303466797</v>
       </c>
       <c r="B40" t="n">
-        <v>32.60606384277344</v>
+        <v>16.02443885803223</v>
       </c>
       <c r="C40" t="n">
-        <v>58.12775421142578</v>
+        <v>59.55453109741211</v>
       </c>
       <c r="D40" t="n">
-        <v>50.16965484619141</v>
+        <v>16.90166091918945</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.574187517166138</v>
+        <v>-2.09343433380127</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.029154300689697</v>
+        <v>10.68288421630859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36.26432037353516</v>
+        <v>36.16527557373047</v>
       </c>
       <c r="B41" t="n">
-        <v>34.24253082275391</v>
+        <v>14.28197288513184</v>
       </c>
       <c r="C41" t="n">
-        <v>50.53098297119141</v>
+        <v>53.97732543945312</v>
       </c>
       <c r="D41" t="n">
-        <v>43.62101745605469</v>
+        <v>17.1624813079834</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.400446772575378</v>
+        <v>1.3609299659729</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.636609077453613</v>
+        <v>13.43583965301514</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>36.26432037353516</v>
+        <v>38.1551513671875</v>
       </c>
       <c r="B42" t="n">
-        <v>35.34080123901367</v>
+        <v>12.48591804504395</v>
       </c>
       <c r="C42" t="n">
-        <v>42.44945907592773</v>
+        <v>47.34898376464844</v>
       </c>
       <c r="D42" t="n">
-        <v>36.58418273925781</v>
+        <v>17.33042144775391</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.909839630126953</v>
+        <v>2.823069334030151</v>
       </c>
       <c r="F42" t="n">
-        <v>-6.023280620574951</v>
+        <v>16.02535820007324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38.13521575927734</v>
+        <v>39.57994079589844</v>
       </c>
       <c r="B43" t="n">
-        <v>35.34080123901367</v>
+        <v>10.72709083557129</v>
       </c>
       <c r="C43" t="n">
-        <v>33.85428619384766</v>
+        <v>40.15754318237305</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15476989746094</v>
+        <v>17.44008636474609</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.625504016876221</v>
+        <v>2.823069334030151</v>
       </c>
       <c r="F43" t="n">
-        <v>-9.644932746887207</v>
+        <v>18.46979141235352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>38.3146858215332</v>
+        <v>39.57994079589844</v>
       </c>
       <c r="B44" t="n">
-        <v>36.83556747436523</v>
+        <v>8.932518005371094</v>
       </c>
       <c r="C44" t="n">
-        <v>26.0289421081543</v>
+        <v>32.77846145629883</v>
       </c>
       <c r="D44" t="n">
-        <v>22.18782234191895</v>
+        <v>17.54800033569336</v>
       </c>
       <c r="E44" t="n">
-        <v>-11.30874919891357</v>
+        <v>1.220783948898315</v>
       </c>
       <c r="F44" t="n">
-        <v>-13.23759078979492</v>
+        <v>20.77778625488281</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>38.10987091064453</v>
+        <v>41.48111724853516</v>
       </c>
       <c r="B45" t="n">
-        <v>36.86537551879883</v>
+        <v>7.166913509368896</v>
       </c>
       <c r="C45" t="n">
-        <v>18.77412223815918</v>
+        <v>25.6973705291748</v>
       </c>
       <c r="D45" t="n">
-        <v>16.0860595703125</v>
+        <v>17.57895278930664</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.46910095214844</v>
+        <v>-1.03148877620697</v>
       </c>
       <c r="F45" t="n">
-        <v>-14.84879207611084</v>
+        <v>22.92355346679688</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36.86332702636719</v>
+        <v>41.4832649230957</v>
       </c>
       <c r="B46" t="n">
-        <v>36.31966018676758</v>
+        <v>5.386115074157715</v>
       </c>
       <c r="C46" t="n">
-        <v>12.61578941345215</v>
+        <v>19.27291297912598</v>
       </c>
       <c r="D46" t="n">
-        <v>10.55374336242676</v>
+        <v>17.58085632324219</v>
       </c>
       <c r="E46" t="n">
-        <v>-11.09523582458496</v>
+        <v>-3.776122570037842</v>
       </c>
       <c r="F46" t="n">
-        <v>-14.84879207611084</v>
+        <v>24.84303665161133</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37.30872344970703</v>
+        <v>41.44081497192383</v>
       </c>
       <c r="B47" t="n">
-        <v>36.75170516967773</v>
+        <v>3.735111236572266</v>
       </c>
       <c r="C47" t="n">
-        <v>9.021585464477539</v>
+        <v>13.82675170898438</v>
       </c>
       <c r="D47" t="n">
-        <v>7.176564693450928</v>
+        <v>17.67112922668457</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.773141860961914</v>
+        <v>-6.82591438293457</v>
       </c>
       <c r="F47" t="n">
-        <v>-15.04688930511475</v>
+        <v>26.28242874145508</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38.75217819213867</v>
+        <v>41.00300216674805</v>
       </c>
       <c r="B48" t="n">
-        <v>38.35022735595703</v>
+        <v>2.168074131011963</v>
       </c>
       <c r="C48" t="n">
-        <v>6.961828708648682</v>
+        <v>9.419933319091797</v>
       </c>
       <c r="D48" t="n">
-        <v>5.051433563232422</v>
+        <v>18.18652534484863</v>
       </c>
       <c r="E48" t="n">
-        <v>-9.773141860961914</v>
+        <v>-10.32463932037354</v>
       </c>
       <c r="F48" t="n">
-        <v>-14.01073551177979</v>
+        <v>27.28976821899414</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38.75217819213867</v>
+        <v>37.67274475097656</v>
       </c>
       <c r="B49" t="n">
-        <v>38.35022735595703</v>
+        <v>2.168074131011963</v>
       </c>
       <c r="C49" t="n">
-        <v>6.961828708648682</v>
+        <v>6.443475246429443</v>
       </c>
       <c r="D49" t="n">
-        <v>5.051433563232422</v>
+        <v>19.1325569152832</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.42297649383545</v>
+        <v>-12.32303237915039</v>
       </c>
       <c r="F49" t="n">
-        <v>-14.01073551177979</v>
+        <v>27.28976821899414</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39.77344512939453</v>
+        <v>34.02322387695312</v>
       </c>
       <c r="B50" t="n">
-        <v>38.61471557617188</v>
+        <v>0.3382022976875305</v>
       </c>
       <c r="C50" t="n">
-        <v>10.02256870269775</v>
+        <v>4.458624839782715</v>
       </c>
       <c r="D50" t="n">
-        <v>6.781563758850098</v>
+        <v>20.38516426086426</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.70370101928711</v>
+        <v>-13.5597038269043</v>
       </c>
       <c r="F50" t="n">
-        <v>-15.26133251190186</v>
+        <v>27.42975044250488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40.68575286865234</v>
+        <v>29.72359466552734</v>
       </c>
       <c r="B51" t="n">
-        <v>40.66518402099609</v>
+        <v>-1.037501573562622</v>
       </c>
       <c r="C51" t="n">
-        <v>11.52710151672363</v>
+        <v>4.458624839782715</v>
       </c>
       <c r="D51" t="n">
-        <v>8.947792053222656</v>
+        <v>23.76231384277344</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.70370101928711</v>
+        <v>-13.5597038269043</v>
       </c>
       <c r="F51" t="n">
-        <v>-17.25138473510742</v>
+        <v>21.14334869384766</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40.68575286865234</v>
+        <v>34.96250152587891</v>
       </c>
       <c r="B52" t="n">
-        <v>40.66518402099609</v>
+        <v>-0.1240207850933075</v>
       </c>
       <c r="C52" t="n">
-        <v>12.66285610198975</v>
+        <v>8.806541442871094</v>
       </c>
       <c r="D52" t="n">
-        <v>11.86462306976318</v>
+        <v>23.76231384277344</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.74227714538574</v>
+        <v>-16.26510238647461</v>
       </c>
       <c r="F52" t="n">
-        <v>-18.28484725952148</v>
+        <v>13.52364540100098</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42.6122932434082</v>
+        <v>37.43642425537109</v>
       </c>
       <c r="B53" t="n">
-        <v>41.83734512329102</v>
+        <v>-0.1240207850933075</v>
       </c>
       <c r="C53" t="n">
-        <v>14.8226203918457</v>
+        <v>8.806541442871094</v>
       </c>
       <c r="D53" t="n">
-        <v>15.27124214172363</v>
+        <v>24.78974914550781</v>
       </c>
       <c r="E53" t="n">
-        <v>-23.30271911621094</v>
+        <v>-18.57987022399902</v>
       </c>
       <c r="F53" t="n">
-        <v>-22.9711799621582</v>
+        <v>4.957842826843262</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43.10225296020508</v>
+        <v>37.43642425537109</v>
       </c>
       <c r="B54" t="n">
-        <v>43.0609016418457</v>
+        <v>0.7159850597381592</v>
       </c>
       <c r="C54" t="n">
-        <v>18.2497444152832</v>
+        <v>7.518085479736328</v>
       </c>
       <c r="D54" t="n">
-        <v>19.86219787597656</v>
+        <v>27.14251708984375</v>
       </c>
       <c r="E54" t="n">
-        <v>-25.69938087463379</v>
+        <v>-20.9980354309082</v>
       </c>
       <c r="F54" t="n">
-        <v>-24.59571838378906</v>
+        <v>-4.546494007110596</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42.90090560913086</v>
+        <v>35.61196136474609</v>
       </c>
       <c r="B55" t="n">
-        <v>43.64924621582031</v>
+        <v>2.876611709594727</v>
       </c>
       <c r="C55" t="n">
-        <v>21.59108924865723</v>
+        <v>6.23913049697876</v>
       </c>
       <c r="D55" t="n">
-        <v>23.53731727600098</v>
+        <v>30.68902206420898</v>
       </c>
       <c r="E55" t="n">
-        <v>-25.69938087463379</v>
+        <v>-23.65421485900879</v>
       </c>
       <c r="F55" t="n">
-        <v>-23.21413040161133</v>
+        <v>-13.99083518981934</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43.2487907409668</v>
+        <v>33.91867828369141</v>
       </c>
       <c r="B56" t="n">
-        <v>41.80532836914062</v>
+        <v>5.625127792358398</v>
       </c>
       <c r="C56" t="n">
-        <v>24.3764533996582</v>
+        <v>6.23913049697876</v>
       </c>
       <c r="D56" t="n">
-        <v>25.67749404907227</v>
+        <v>35.61018371582031</v>
       </c>
       <c r="E56" t="n">
-        <v>-21.43291282653809</v>
+        <v>-25.56204795837402</v>
       </c>
       <c r="F56" t="n">
-        <v>-20.52190208435059</v>
+        <v>-22.16424179077148</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>42.39955139160156</v>
+        <v>32.23036956787109</v>
       </c>
       <c r="B57" t="n">
-        <v>40.27899169921875</v>
+        <v>8.692778587341309</v>
       </c>
       <c r="C57" t="n">
-        <v>26.27562522888184</v>
+        <v>4.748011589050293</v>
       </c>
       <c r="D57" t="n">
-        <v>27.03002738952637</v>
+        <v>41.55104064941406</v>
       </c>
       <c r="E57" t="n">
-        <v>-17.20279502868652</v>
+        <v>-25.56204795837402</v>
       </c>
       <c r="F57" t="n">
-        <v>-15.70453262329102</v>
+        <v>-27.81521415710449</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41.12610626220703</v>
+        <v>30.47502899169922</v>
       </c>
       <c r="B58" t="n">
-        <v>38.32182312011719</v>
+        <v>12.07111740112305</v>
       </c>
       <c r="C58" t="n">
-        <v>26.27562522888184</v>
+        <v>5.174193382263184</v>
       </c>
       <c r="D58" t="n">
-        <v>27.03002738952637</v>
+        <v>47.90970611572266</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.48452854156494</v>
+        <v>-25.35607528686523</v>
       </c>
       <c r="F58" t="n">
-        <v>-12.15933513641357</v>
+        <v>-30.56743621826172</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>37.90012359619141</v>
+        <v>28.56722640991211</v>
       </c>
       <c r="B59" t="n">
-        <v>36.15408325195312</v>
+        <v>15.77267169952393</v>
       </c>
       <c r="C59" t="n">
-        <v>28.19815063476562</v>
+        <v>5.657816886901855</v>
       </c>
       <c r="D59" t="n">
-        <v>28.01763534545898</v>
+        <v>54.06697082519531</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.25474739074707</v>
+        <v>-23.22616577148438</v>
       </c>
       <c r="F59" t="n">
-        <v>-7.889891624450684</v>
+        <v>-30.56743621826172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>35.7753791809082</v>
+        <v>26.47723960876465</v>
       </c>
       <c r="B60" t="n">
-        <v>33.6383171081543</v>
+        <v>19.81221771240234</v>
       </c>
       <c r="C60" t="n">
-        <v>25.56325912475586</v>
+        <v>5.815703392028809</v>
       </c>
       <c r="D60" t="n">
-        <v>26.06172752380371</v>
+        <v>59.51182174682617</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.90050220489502</v>
+        <v>-20.3418025970459</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.548234462738037</v>
+        <v>-27.64575004577637</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>33.18400192260742</v>
+        <v>24.31581115722656</v>
       </c>
       <c r="B61" t="n">
-        <v>30.3528938293457</v>
+        <v>24.02511596679688</v>
       </c>
       <c r="C61" t="n">
-        <v>23.97193145751953</v>
+        <v>5.902775764465332</v>
       </c>
       <c r="D61" t="n">
-        <v>24.2373161315918</v>
+        <v>63.76287078857422</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.751917839050293</v>
+        <v>-16.85659408569336</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.61829400062561</v>
+        <v>-23.09933090209961</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30.53179931640625</v>
+        <v>22.24066543579102</v>
       </c>
       <c r="B62" t="n">
-        <v>26.93169975280762</v>
+        <v>28.19577980041504</v>
       </c>
       <c r="C62" t="n">
-        <v>21.75406265258789</v>
+        <v>6.08689022064209</v>
       </c>
       <c r="D62" t="n">
-        <v>21.49360656738281</v>
+        <v>66.45931243896484</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.509409189224243</v>
+        <v>-13.17405891418457</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.61829400062561</v>
+        <v>-17.80467414855957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>27.43438720703125</v>
+        <v>20.2789306640625</v>
       </c>
       <c r="B63" t="n">
-        <v>23.65109252929688</v>
+        <v>32.18481063842773</v>
       </c>
       <c r="C63" t="n">
-        <v>18.56914901733398</v>
+        <v>6.23684024810791</v>
       </c>
       <c r="D63" t="n">
-        <v>18.20521545410156</v>
+        <v>67.46984100341797</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.988357424736023</v>
+        <v>-9.648710250854492</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.733453273773193</v>
+        <v>-12.54338359832764</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24.22840309143066</v>
+        <v>18.3839111328125</v>
       </c>
       <c r="B64" t="n">
-        <v>20.21803092956543</v>
+        <v>35.96638488769531</v>
       </c>
       <c r="C64" t="n">
-        <v>14.98093128204346</v>
+        <v>6.316910743713379</v>
       </c>
       <c r="D64" t="n">
-        <v>14.68132400512695</v>
+        <v>67.46984100341797</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.988357424736023</v>
+        <v>-6.000851631164551</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8666670918464661</v>
+        <v>-7.995863914489746</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21.08848190307617</v>
+        <v>16.54423332214355</v>
       </c>
       <c r="B65" t="n">
-        <v>17.10071563720703</v>
+        <v>39.43624877929688</v>
       </c>
       <c r="C65" t="n">
-        <v>12.27834320068359</v>
+        <v>6.637515068054199</v>
       </c>
       <c r="D65" t="n">
-        <v>12.04806327819824</v>
+        <v>64.61004638671875</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.596117496490479</v>
+        <v>-2.36775541305542</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7474640011787415</v>
+        <v>-4.202003955841064</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>18.50100517272949</v>
+        <v>14.79922008514404</v>
       </c>
       <c r="B66" t="n">
-        <v>14.32904815673828</v>
+        <v>42.47203063964844</v>
       </c>
       <c r="C66" t="n">
-        <v>10.6072998046875</v>
+        <v>6.877503395080566</v>
       </c>
       <c r="D66" t="n">
-        <v>10.22728729248047</v>
+        <v>61.59388732910156</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.37415599822998</v>
+        <v>1.071355581283569</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.873932123184204</v>
+        <v>-1.200257301330566</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>16.03118705749512</v>
+        <v>13.13625907897949</v>
       </c>
       <c r="B67" t="n">
-        <v>12.01594066619873</v>
+        <v>44.97311401367188</v>
       </c>
       <c r="C67" t="n">
-        <v>9.359992980957031</v>
+        <v>7.03787899017334</v>
       </c>
       <c r="D67" t="n">
-        <v>9.221508026123047</v>
+        <v>57.36469650268555</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6944971084594727</v>
+        <v>4.428857326507568</v>
       </c>
       <c r="F67" t="n">
-        <v>1.914856433868408</v>
+        <v>0.8824028968811035</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13.70753860473633</v>
+        <v>11.52588081359863</v>
       </c>
       <c r="B68" t="n">
-        <v>9.597973823547363</v>
+        <v>46.90484237670898</v>
       </c>
       <c r="C68" t="n">
-        <v>9.359992980957031</v>
+        <v>7.360089302062988</v>
       </c>
       <c r="D68" t="n">
-        <v>9.221508026123047</v>
+        <v>52.04563140869141</v>
       </c>
       <c r="E68" t="n">
-        <v>3.510019063949585</v>
+        <v>7.565296173095703</v>
       </c>
       <c r="F68" t="n">
-        <v>4.1702561378479</v>
+        <v>0.8824028968811035</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.57608032226562</v>
+        <v>10.00188255310059</v>
       </c>
       <c r="B69" t="n">
-        <v>6.802403450012207</v>
+        <v>48.24234771728516</v>
       </c>
       <c r="C69" t="n">
-        <v>8.139695167541504</v>
+        <v>7.772610664367676</v>
       </c>
       <c r="D69" t="n">
-        <v>7.875250816345215</v>
+        <v>45.98204040527344</v>
       </c>
       <c r="E69" t="n">
-        <v>5.257225513458252</v>
+        <v>10.38984489440918</v>
       </c>
       <c r="F69" t="n">
-        <v>6.095952033996582</v>
+        <v>2.73575496673584</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.271982192993164</v>
+        <v>8.547159194946289</v>
       </c>
       <c r="B70" t="n">
-        <v>4.101949691772461</v>
+        <v>48.24234771728516</v>
       </c>
       <c r="C70" t="n">
-        <v>7.674189567565918</v>
+        <v>8.294070243835449</v>
       </c>
       <c r="D70" t="n">
-        <v>6.507437705993652</v>
+        <v>39.53864288330078</v>
       </c>
       <c r="E70" t="n">
-        <v>7.373872756958008</v>
+        <v>13.23904323577881</v>
       </c>
       <c r="F70" t="n">
-        <v>8.091982841491699</v>
+        <v>1.687830328941345</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.875166893005371</v>
+        <v>7.144046783447266</v>
       </c>
       <c r="B71" t="n">
-        <v>1.366135358810425</v>
+        <v>49.7016716003418</v>
       </c>
       <c r="C71" t="n">
-        <v>7.010050773620605</v>
+        <v>9.043271064758301</v>
       </c>
       <c r="D71" t="n">
-        <v>5.535731315612793</v>
+        <v>33.06739044189453</v>
       </c>
       <c r="E71" t="n">
-        <v>9.288966178894043</v>
+        <v>15.76226615905762</v>
       </c>
       <c r="F71" t="n">
-        <v>9.682794570922852</v>
+        <v>0.4896067976951599</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.637442588806152</v>
+        <v>5.800149917602539</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.163535952568054</v>
+        <v>49.34687423706055</v>
       </c>
       <c r="C72" t="n">
-        <v>6.915535926818848</v>
+        <v>9.7418212890625</v>
       </c>
       <c r="D72" t="n">
-        <v>4.942755699157715</v>
+        <v>26.99264717102051</v>
       </c>
       <c r="E72" t="n">
-        <v>11.89104270935059</v>
+        <v>17.95038604736328</v>
       </c>
       <c r="F72" t="n">
-        <v>11.53543472290039</v>
+        <v>-2.177268266677856</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.641373634338379</v>
+        <v>4.483734130859375</v>
       </c>
       <c r="B73" t="n">
-        <v>-3.591178178787231</v>
+        <v>48.67768096923828</v>
       </c>
       <c r="C73" t="n">
-        <v>7.181118965148926</v>
+        <v>10.59152030944824</v>
       </c>
       <c r="D73" t="n">
-        <v>4.602608680725098</v>
+        <v>21.7801685333252</v>
       </c>
       <c r="E73" t="n">
-        <v>13.41666316986084</v>
+        <v>19.8802604675293</v>
       </c>
       <c r="F73" t="n">
-        <v>12.86787605285645</v>
+        <v>-4.367631435394287</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.015471339225769</v>
+        <v>3.173574686050415</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.700405120849609</v>
+        <v>47.87771987915039</v>
       </c>
       <c r="C74" t="n">
-        <v>8.11855411529541</v>
+        <v>11.73991775512695</v>
       </c>
       <c r="D74" t="n">
-        <v>4.878355979919434</v>
+        <v>17.76119995117188</v>
       </c>
       <c r="E74" t="n">
-        <v>13.41666316986084</v>
+        <v>21.37071990966797</v>
       </c>
       <c r="F74" t="n">
-        <v>14.13225173950195</v>
+        <v>-6.637558937072754</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.2276250720024109</v>
+        <v>1.891979575157166</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.317376613616943</v>
+        <v>46.81541061401367</v>
       </c>
       <c r="C75" t="n">
-        <v>11.23948860168457</v>
+        <v>12.88291549682617</v>
       </c>
       <c r="D75" t="n">
-        <v>7.038944244384766</v>
+        <v>14.99477195739746</v>
       </c>
       <c r="E75" t="n">
-        <v>16.26226425170898</v>
+        <v>21.37071990966797</v>
       </c>
       <c r="F75" t="n">
-        <v>15.67125988006592</v>
+        <v>-8.515439987182617</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.2276250720024109</v>
+        <v>0.6903185844421387</v>
       </c>
       <c r="B76" t="n">
-        <v>-8.635255813598633</v>
+        <v>45.43759155273438</v>
       </c>
       <c r="C76" t="n">
-        <v>13.66035556793213</v>
+        <v>13.96463203430176</v>
       </c>
       <c r="D76" t="n">
-        <v>8.906749725341797</v>
+        <v>13.32449913024902</v>
       </c>
       <c r="E76" t="n">
-        <v>16.26226425170898</v>
+        <v>22.76534461975098</v>
       </c>
       <c r="F76" t="n">
-        <v>15.67125988006592</v>
+        <v>-10.36161613464355</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.834281206130981</v>
+        <v>-0.3808326721191406</v>
       </c>
       <c r="B77" t="n">
-        <v>-8.635255813598633</v>
+        <v>43.78339385986328</v>
       </c>
       <c r="C77" t="n">
-        <v>17.18304061889648</v>
+        <v>15.21902751922607</v>
       </c>
       <c r="D77" t="n">
-        <v>11.56804275512695</v>
+        <v>13.32449913024902</v>
       </c>
       <c r="E77" t="n">
-        <v>14.20225524902344</v>
+        <v>19.47023391723633</v>
       </c>
       <c r="F77" t="n">
-        <v>13.19903945922852</v>
+        <v>-12.74412822723389</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1.434132814407349</v>
+        <v>-0.3808326721191406</v>
       </c>
       <c r="B78" t="n">
-        <v>-10.49306392669678</v>
+        <v>42.00251007080078</v>
       </c>
       <c r="C78" t="n">
-        <v>21.72076034545898</v>
+        <v>17.81409645080566</v>
       </c>
       <c r="D78" t="n">
-        <v>15.21556377410889</v>
+        <v>11.88832664489746</v>
       </c>
       <c r="E78" t="n">
-        <v>9.131161689758301</v>
+        <v>15.65770721435547</v>
       </c>
       <c r="F78" t="n">
-        <v>7.688227653503418</v>
+        <v>-15.48114776611328</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.5206711292266846</v>
+        <v>-2.147658824920654</v>
       </c>
       <c r="B79" t="n">
-        <v>-9.94166088104248</v>
+        <v>39.05186462402344</v>
       </c>
       <c r="C79" t="n">
-        <v>27.0381908416748</v>
+        <v>19.73484420776367</v>
       </c>
       <c r="D79" t="n">
-        <v>19.70011329650879</v>
+        <v>12.86149501800537</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4723963737487793</v>
+        <v>9.385744094848633</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.15047550201416</v>
+        <v>-17.74000930786133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.067715406417847</v>
+        <v>-2.394145488739014</v>
       </c>
       <c r="B80" t="n">
-        <v>-6.661995887756348</v>
+        <v>37.34246826171875</v>
       </c>
       <c r="C80" t="n">
-        <v>32.48076629638672</v>
+        <v>22.62500381469727</v>
       </c>
       <c r="D80" t="n">
-        <v>24.84615325927734</v>
+        <v>14.14398002624512</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.70791721343994</v>
+        <v>0.5218548774719238</v>
       </c>
       <c r="F80" t="n">
-        <v>-15.50449752807617</v>
+        <v>-17.74000930786133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.240241527557373</v>
+        <v>-1.878169536590576</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.146475791931152</v>
+        <v>35.36635971069336</v>
       </c>
       <c r="C81" t="n">
-        <v>37.93508148193359</v>
+        <v>26.72721672058105</v>
       </c>
       <c r="D81" t="n">
-        <v>30.2301139831543</v>
+        <v>15.40339756011963</v>
       </c>
       <c r="E81" t="n">
-        <v>-27.68202781677246</v>
+        <v>-9.776620864868164</v>
       </c>
       <c r="F81" t="n">
-        <v>-27.77815246582031</v>
+        <v>-18.98210334777832</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6.315371513366699</v>
+        <v>1.102863788604736</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.732043981552124</v>
+        <v>33.45431137084961</v>
       </c>
       <c r="C82" t="n">
-        <v>43.67733001708984</v>
+        <v>32.17070007324219</v>
       </c>
       <c r="D82" t="n">
-        <v>36.36795806884766</v>
+        <v>16.32272338867188</v>
       </c>
       <c r="E82" t="n">
-        <v>-37.16559982299805</v>
+        <v>-19.63950157165527</v>
       </c>
       <c r="F82" t="n">
-        <v>-34.49052047729492</v>
+        <v>-17.57377433776855</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.453044891357422</v>
+        <v>3.554977893829346</v>
       </c>
       <c r="B83" t="n">
-        <v>3.374051094055176</v>
+        <v>31.59311485290527</v>
       </c>
       <c r="C83" t="n">
-        <v>50.10531616210938</v>
+        <v>38.70807647705078</v>
       </c>
       <c r="D83" t="n">
-        <v>43.08189010620117</v>
+        <v>16.9333438873291</v>
       </c>
       <c r="E83" t="n">
-        <v>-39.47224044799805</v>
+        <v>-27.69424057006836</v>
       </c>
       <c r="F83" t="n">
-        <v>-34.49052047729492</v>
+        <v>-14.47111511230469</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13.04876613616943</v>
+        <v>6.963865280151367</v>
       </c>
       <c r="B84" t="n">
-        <v>7.557318687438965</v>
+        <v>29.56785774230957</v>
       </c>
       <c r="C84" t="n">
-        <v>56.08256912231445</v>
+        <v>45.80896377563477</v>
       </c>
       <c r="D84" t="n">
-        <v>49.12682723999023</v>
+        <v>17.2138729095459</v>
       </c>
       <c r="E84" t="n">
-        <v>-36.82264709472656</v>
+        <v>-33.26915740966797</v>
       </c>
       <c r="F84" t="n">
-        <v>-29.76927185058594</v>
+        <v>-11.79143619537354</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16.84780693054199</v>
+        <v>11.03986167907715</v>
       </c>
       <c r="B85" t="n">
-        <v>11.7138557434082</v>
+        <v>27.388671875</v>
       </c>
       <c r="C85" t="n">
-        <v>61.21707153320312</v>
+        <v>52.73306274414062</v>
       </c>
       <c r="D85" t="n">
-        <v>54.08133697509766</v>
+        <v>17.03458976745605</v>
       </c>
       <c r="E85" t="n">
-        <v>-32.3266487121582</v>
+        <v>-35.3687744140625</v>
       </c>
       <c r="F85" t="n">
-        <v>-24.27242660522461</v>
+        <v>-8.325547218322754</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20.70339584350586</v>
+        <v>15.37591361999512</v>
       </c>
       <c r="B86" t="n">
-        <v>15.74690914154053</v>
+        <v>25.21841430664062</v>
       </c>
       <c r="C86" t="n">
-        <v>65.35466003417969</v>
+        <v>58.60518264770508</v>
       </c>
       <c r="D86" t="n">
-        <v>57.67416000366211</v>
+        <v>16.70759773254395</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.76034927368164</v>
+        <v>-33.83007049560547</v>
       </c>
       <c r="F86" t="n">
-        <v>-19.20282173156738</v>
+        <v>-4.63064432144165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24.44618225097656</v>
+        <v>19.68595123291016</v>
       </c>
       <c r="B87" t="n">
-        <v>19.83683395385742</v>
+        <v>23.16418647766113</v>
       </c>
       <c r="C87" t="n">
-        <v>67.99526977539062</v>
+        <v>62.85858917236328</v>
       </c>
       <c r="D87" t="n">
-        <v>59.98846817016602</v>
+        <v>16.45586776733398</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.90871047973633</v>
+        <v>-29.18831062316895</v>
       </c>
       <c r="F87" t="n">
-        <v>-14.57751941680908</v>
+        <v>-1.170259237289429</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>27.99499893188477</v>
+        <v>23.77568435668945</v>
       </c>
       <c r="B88" t="n">
-        <v>23.94219589233398</v>
+        <v>21.24973678588867</v>
       </c>
       <c r="C88" t="n">
-        <v>67.99526977539062</v>
+        <v>65.16407775878906</v>
       </c>
       <c r="D88" t="n">
-        <v>59.98846817016602</v>
+        <v>16.34430694580078</v>
       </c>
       <c r="E88" t="n">
-        <v>-13.70100402832031</v>
+        <v>-22.35043525695801</v>
       </c>
       <c r="F88" t="n">
-        <v>-9.688940048217773</v>
+        <v>1.993762135505676</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>31.07511711120605</v>
+        <v>27.49720573425293</v>
       </c>
       <c r="B89" t="n">
-        <v>27.44423675537109</v>
+        <v>19.48314666748047</v>
       </c>
       <c r="C89" t="n">
-        <v>68.06266784667969</v>
+        <v>65.16407775878906</v>
       </c>
       <c r="D89" t="n">
-        <v>59.79164886474609</v>
+        <v>16.35699844360352</v>
       </c>
       <c r="E89" t="n">
-        <v>-8.38218879699707</v>
+        <v>-14.67052841186523</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.106120109558105</v>
+        <v>4.89289665222168</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>33.47642135620117</v>
+        <v>30.79903030395508</v>
       </c>
       <c r="B90" t="n">
-        <v>30.27668571472168</v>
+        <v>17.78626251220703</v>
       </c>
       <c r="C90" t="n">
-        <v>64.2408447265625</v>
+        <v>63.40570449829102</v>
       </c>
       <c r="D90" t="n">
-        <v>56.11636352539062</v>
+        <v>16.50981712341309</v>
       </c>
       <c r="E90" t="n">
-        <v>-4.663537502288818</v>
+        <v>-7.630850315093994</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.388947486877441</v>
+        <v>7.713259696960449</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>35.33666229248047</v>
+        <v>33.67803192138672</v>
       </c>
       <c r="B91" t="n">
-        <v>32.52172470092773</v>
+        <v>16.08423805236816</v>
       </c>
       <c r="C91" t="n">
-        <v>58.2125244140625</v>
+        <v>59.35720062255859</v>
       </c>
       <c r="D91" t="n">
-        <v>50.51465606689453</v>
+        <v>16.78073501586914</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.040893077850342</v>
+        <v>-2.169487237930298</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.388947486877441</v>
+        <v>10.5698356628418</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>36.33880615234375</v>
+        <v>36.14670944213867</v>
       </c>
       <c r="B92" t="n">
-        <v>34.11241149902344</v>
+        <v>14.35716724395752</v>
       </c>
       <c r="C92" t="n">
-        <v>50.48027038574219</v>
+        <v>53.72882461547852</v>
       </c>
       <c r="D92" t="n">
-        <v>43.72486114501953</v>
+        <v>17.13466835021973</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.891271591186523</v>
+        <v>1.30232560634613</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.025839805603027</v>
+        <v>13.35014247894287</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36.33880615234375</v>
+        <v>38.20742034912109</v>
       </c>
       <c r="B93" t="n">
-        <v>35.16619873046875</v>
+        <v>12.57607078552246</v>
       </c>
       <c r="C93" t="n">
-        <v>42.09970474243164</v>
+        <v>47.01265716552734</v>
       </c>
       <c r="D93" t="n">
-        <v>36.46338272094727</v>
+        <v>17.46278953552246</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.535606384277344</v>
+        <v>2.782502889633179</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.436481952667236</v>
+        <v>15.97531509399414</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>37.92263031005859</v>
+        <v>39.72435760498047</v>
       </c>
       <c r="B94" t="n">
-        <v>35.16619873046875</v>
+        <v>10.81765747070312</v>
       </c>
       <c r="C94" t="n">
-        <v>33.60562515258789</v>
+        <v>39.73640441894531</v>
       </c>
       <c r="D94" t="n">
-        <v>28.96447372436523</v>
+        <v>17.66439437866211</v>
       </c>
       <c r="E94" t="n">
-        <v>-8.352697372436523</v>
+        <v>2.782502889633179</v>
       </c>
       <c r="F94" t="n">
-        <v>-10.25032043457031</v>
+        <v>18.42975616455078</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>38.28175735473633</v>
+        <v>40.74366760253906</v>
       </c>
       <c r="B95" t="n">
-        <v>36.56544876098633</v>
+        <v>8.98974609375</v>
       </c>
       <c r="C95" t="n">
-        <v>25.84748840332031</v>
+        <v>32.34958648681641</v>
       </c>
       <c r="D95" t="n">
-        <v>22.14958381652832</v>
+        <v>17.76383972167969</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.85380172729492</v>
+        <v>1.074833154678345</v>
       </c>
       <c r="F95" t="n">
-        <v>-13.59078598022461</v>
+        <v>20.80658721923828</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>38.01015090942383</v>
+        <v>40.74366760253906</v>
       </c>
       <c r="B96" t="n">
-        <v>36.57831954956055</v>
+        <v>7.135350704193115</v>
       </c>
       <c r="C96" t="n">
-        <v>18.80880737304688</v>
+        <v>25.32156753540039</v>
       </c>
       <c r="D96" t="n">
-        <v>16.32609939575195</v>
+        <v>17.70295906066895</v>
       </c>
       <c r="E96" t="n">
-        <v>-11.85380172729492</v>
+        <v>-1.219070434570312</v>
       </c>
       <c r="F96" t="n">
-        <v>-14.72830772399902</v>
+        <v>23.01984977722168</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>36.76991653442383</v>
+        <v>41.74348449707031</v>
       </c>
       <c r="B97" t="n">
-        <v>36.12729263305664</v>
+        <v>5.239343643188477</v>
       </c>
       <c r="C97" t="n">
-        <v>12.51712226867676</v>
+        <v>19.02398490905762</v>
       </c>
       <c r="D97" t="n">
-        <v>10.90594291687012</v>
+        <v>17.57458305358887</v>
       </c>
       <c r="E97" t="n">
-        <v>-11.26028060913086</v>
+        <v>-3.962999820709229</v>
       </c>
       <c r="F97" t="n">
-        <v>-14.72830772399902</v>
+        <v>24.97745704650879</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37.30332565307617</v>
+        <v>41.67557525634766</v>
       </c>
       <c r="B98" t="n">
-        <v>36.68591690063477</v>
+        <v>3.516367435455322</v>
       </c>
       <c r="C98" t="n">
-        <v>8.71855354309082</v>
+        <v>13.73824310302734</v>
       </c>
       <c r="D98" t="n">
-        <v>7.616843700408936</v>
+        <v>17.5985279083252</v>
       </c>
       <c r="E98" t="n">
-        <v>-9.878503799438477</v>
+        <v>-6.946037292480469</v>
       </c>
       <c r="F98" t="n">
-        <v>-14.70373344421387</v>
+        <v>26.35318374633789</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>38.93849182128906</v>
+        <v>41.25472640991211</v>
       </c>
       <c r="B99" t="n">
-        <v>38.3148193359375</v>
+        <v>1.929930329322815</v>
       </c>
       <c r="C99" t="n">
-        <v>6.525742053985596</v>
+        <v>9.451799392700195</v>
       </c>
       <c r="D99" t="n">
-        <v>5.503823280334473</v>
+        <v>18.14286994934082</v>
       </c>
       <c r="E99" t="n">
-        <v>-9.878503799438477</v>
+        <v>-10.39687728881836</v>
       </c>
       <c r="F99" t="n">
-        <v>-14.70373344421387</v>
+        <v>26.35318374633789</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>38.93849182128906</v>
+        <v>37.92892074584961</v>
       </c>
       <c r="B100" t="n">
-        <v>38.3148193359375</v>
+        <v>1.929930329322815</v>
       </c>
       <c r="C100" t="n">
-        <v>6.525742053985596</v>
+        <v>6.70844030380249</v>
       </c>
       <c r="D100" t="n">
-        <v>5.503823280334473</v>
+        <v>19.24899482727051</v>
       </c>
       <c r="E100" t="n">
-        <v>-12.62014389038086</v>
+        <v>-12.17130661010742</v>
       </c>
       <c r="F100" t="n">
-        <v>-13.98218441009521</v>
+        <v>28.23496055603027</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>39.84169387817383</v>
+        <v>34.35811996459961</v>
       </c>
       <c r="B101" t="n">
-        <v>38.22874450683594</v>
+        <v>0.8202522397041321</v>
       </c>
       <c r="C101" t="n">
-        <v>9.774944305419922</v>
+        <v>4.77109432220459</v>
       </c>
       <c r="D101" t="n">
-        <v>7.41785717010498</v>
+        <v>20.69623756408691</v>
       </c>
       <c r="E101" t="n">
-        <v>-16.86189651489258</v>
+        <v>-13.32124900817871</v>
       </c>
       <c r="F101" t="n">
-        <v>-15.25818061828613</v>
+        <v>26.74682426452637</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>40.95317077636719</v>
+        <v>29.96310043334961</v>
       </c>
       <c r="B102" t="n">
-        <v>40.80744552612305</v>
+        <v>-0.7175437808036804</v>
       </c>
       <c r="C102" t="n">
-        <v>11.35114669799805</v>
+        <v>4.77109432220459</v>
       </c>
       <c r="D102" t="n">
-        <v>9.375890731811523</v>
+        <v>23.48801040649414</v>
       </c>
       <c r="E102" t="n">
-        <v>-16.86189651489258</v>
+        <v>-13.32124900817871</v>
       </c>
       <c r="F102" t="n">
-        <v>-15.25818061828613</v>
+        <v>20.8888111114502</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>40.95317077636719</v>
+        <v>34.98986053466797</v>
       </c>
       <c r="B103" t="n">
-        <v>40.80744552612305</v>
+        <v>0.4791105091571808</v>
       </c>
       <c r="C103" t="n">
-        <v>12.61188316345215</v>
+        <v>9.32158088684082</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9310131072998</v>
+        <v>23.48801040649414</v>
       </c>
       <c r="E103" t="n">
-        <v>-17.69610977172852</v>
+        <v>-15.63601970672607</v>
       </c>
       <c r="F103" t="n">
-        <v>-17.21508026123047</v>
+        <v>13.39920520782471</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>42.54195785522461</v>
+        <v>37.97621917724609</v>
       </c>
       <c r="B104" t="n">
-        <v>41.44022369384766</v>
+        <v>-0.5337846279144287</v>
       </c>
       <c r="C104" t="n">
-        <v>14.79597663879395</v>
+        <v>9.32158088684082</v>
       </c>
       <c r="D104" t="n">
-        <v>14.81068801879883</v>
+        <v>25.54489135742188</v>
       </c>
       <c r="E104" t="n">
-        <v>-22.12426948547363</v>
+        <v>-18.22815322875977</v>
       </c>
       <c r="F104" t="n">
-        <v>-22.33820343017578</v>
+        <v>5.293516635894775</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43.49178314208984</v>
+        <v>37.97621917724609</v>
       </c>
       <c r="B105" t="n">
-        <v>42.665283203125</v>
+        <v>-0.5337846279144287</v>
       </c>
       <c r="C105" t="n">
-        <v>18.31264877319336</v>
+        <v>9.790512084960938</v>
       </c>
       <c r="D105" t="n">
-        <v>19.33082580566406</v>
+        <v>27.99622344970703</v>
       </c>
       <c r="E105" t="n">
-        <v>-24.85255241394043</v>
+        <v>-20.33593368530273</v>
       </c>
       <c r="F105" t="n">
-        <v>-24.1956901550293</v>
+        <v>-3.923072099685669</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>42.79429244995117</v>
+        <v>36.06639099121094</v>
       </c>
       <c r="B106" t="n">
-        <v>43.2138557434082</v>
+        <v>2.846355438232422</v>
       </c>
       <c r="C106" t="n">
-        <v>21.59906768798828</v>
+        <v>6.571310997009277</v>
       </c>
       <c r="D106" t="n">
-        <v>23.25820159912109</v>
+        <v>31.34703636169434</v>
       </c>
       <c r="E106" t="n">
-        <v>-24.85255241394043</v>
+        <v>-22.74987030029297</v>
       </c>
       <c r="F106" t="n">
-        <v>-23.02912139892578</v>
+        <v>-13.30622577667236</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>42.93988800048828</v>
+        <v>34.25595092773438</v>
       </c>
       <c r="B107" t="n">
-        <v>41.99676513671875</v>
+        <v>5.424885749816895</v>
       </c>
       <c r="C107" t="n">
-        <v>24.25104904174805</v>
+        <v>5.409308433532715</v>
       </c>
       <c r="D107" t="n">
-        <v>25.60239791870117</v>
+        <v>35.89553451538086</v>
       </c>
       <c r="E107" t="n">
-        <v>-21.21306037902832</v>
+        <v>-24.80614471435547</v>
       </c>
       <c r="F107" t="n">
-        <v>-20.39826583862305</v>
+        <v>-21.55237579345703</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>42.04398727416992</v>
+        <v>32.55288696289062</v>
       </c>
       <c r="B108" t="n">
-        <v>40.37992858886719</v>
+        <v>8.623968124389648</v>
       </c>
       <c r="C108" t="n">
-        <v>26.0262565612793</v>
+        <v>5.409308433532715</v>
       </c>
       <c r="D108" t="n">
-        <v>26.96010208129883</v>
+        <v>41.48123550415039</v>
       </c>
       <c r="E108" t="n">
-        <v>-17.01977729797363</v>
+        <v>-24.80614471435547</v>
       </c>
       <c r="F108" t="n">
-        <v>-15.65458106994629</v>
+        <v>-27.37198638916016</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>40.67881774902344</v>
+        <v>30.9001579284668</v>
       </c>
       <c r="B109" t="n">
-        <v>38.32421875</v>
+        <v>12.15372848510742</v>
       </c>
       <c r="C109" t="n">
-        <v>27.03694152832031</v>
+        <v>4.454367637634277</v>
       </c>
       <c r="D109" t="n">
-        <v>26.96010208129883</v>
+        <v>47.60795211791992</v>
       </c>
       <c r="E109" t="n">
-        <v>-13.41928672790527</v>
+        <v>-25.13032341003418</v>
       </c>
       <c r="F109" t="n">
-        <v>-12.08670330047607</v>
+        <v>-30.24379539489746</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>37.73779296875</v>
+        <v>29.12663650512695</v>
       </c>
       <c r="B110" t="n">
-        <v>36.16975402832031</v>
+        <v>15.88360214233398</v>
       </c>
       <c r="C110" t="n">
-        <v>27.03694152832031</v>
+        <v>5.21593189239502</v>
       </c>
       <c r="D110" t="n">
-        <v>27.89342498779297</v>
+        <v>53.66117095947266</v>
       </c>
       <c r="E110" t="n">
-        <v>-10.32181835174561</v>
+        <v>-22.9079704284668</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.860476016998291</v>
+        <v>-30.24379539489746</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>35.69490051269531</v>
+        <v>27.08738708496094</v>
       </c>
       <c r="B111" t="n">
-        <v>33.71363067626953</v>
+        <v>19.86511421203613</v>
       </c>
       <c r="C111" t="n">
-        <v>25.94829177856445</v>
+        <v>5.701106071472168</v>
       </c>
       <c r="D111" t="n">
-        <v>26.27110290527344</v>
+        <v>59.07943344116211</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.083393573760986</v>
+        <v>-19.93528747558594</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.446081638336182</v>
+        <v>-27.31547927856445</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>33.07596588134766</v>
+        <v>24.89713096618652</v>
       </c>
       <c r="B112" t="n">
-        <v>30.5697135925293</v>
+        <v>23.98430252075195</v>
       </c>
       <c r="C112" t="n">
-        <v>24.24194526672363</v>
+        <v>5.941195487976074</v>
       </c>
       <c r="D112" t="n">
-        <v>24.46402740478516</v>
+        <v>63.33121490478516</v>
       </c>
       <c r="E112" t="n">
-        <v>-4.9600830078125</v>
+        <v>-16.39278030395508</v>
       </c>
       <c r="F112" t="n">
-        <v>-2.487683296203613</v>
+        <v>-22.74819946289062</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>30.34983062744141</v>
+        <v>22.75751495361328</v>
       </c>
       <c r="B113" t="n">
-        <v>27.15643882751465</v>
+        <v>28.05010032653809</v>
       </c>
       <c r="C113" t="n">
-        <v>22.02443313598633</v>
+        <v>6.138014793395996</v>
       </c>
       <c r="D113" t="n">
-        <v>21.79463958740234</v>
+        <v>66.01637268066406</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.765902280807495</v>
+        <v>-12.6722354888916</v>
       </c>
       <c r="F113" t="n">
-        <v>-2.487683296203613</v>
+        <v>-17.49966239929199</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>27.35741996765137</v>
+        <v>20.74618148803711</v>
       </c>
       <c r="B114" t="n">
-        <v>23.85709571838379</v>
+        <v>31.93717193603516</v>
       </c>
       <c r="C114" t="n">
-        <v>18.95713806152344</v>
+        <v>6.260777473449707</v>
       </c>
       <c r="D114" t="n">
-        <v>18.5425910949707</v>
+        <v>66.01637268066406</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.242641448974609</v>
+        <v>-9.135993003845215</v>
       </c>
       <c r="F114" t="n">
-        <v>-2.490463972091675</v>
+        <v>-12.34197902679443</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>24.19243621826172</v>
+        <v>18.80860710144043</v>
       </c>
       <c r="B115" t="n">
-        <v>20.40258026123047</v>
+        <v>35.62471389770508</v>
       </c>
       <c r="C115" t="n">
-        <v>15.28011512756348</v>
+        <v>6.299376487731934</v>
       </c>
       <c r="D115" t="n">
-        <v>14.92805480957031</v>
+        <v>66.78106689453125</v>
       </c>
       <c r="E115" t="n">
-        <v>-2.242641448974609</v>
+        <v>-5.528971672058105</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.6072781682014465</v>
+        <v>-7.924115180969238</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>21.01633453369141</v>
+        <v>16.92821311950684</v>
       </c>
       <c r="B116" t="n">
-        <v>17.25789642333984</v>
+        <v>39.03159332275391</v>
       </c>
       <c r="C116" t="n">
-        <v>12.37360000610352</v>
+        <v>6.614823341369629</v>
       </c>
       <c r="D116" t="n">
-        <v>12.11101722717285</v>
+        <v>64.53750610351562</v>
       </c>
       <c r="E116" t="n">
-        <v>-2.693611145019531</v>
+        <v>-1.945206642150879</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.5710847973823547</v>
+        <v>-4.286194324493408</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>18.4057502746582</v>
+        <v>15.12800979614258</v>
       </c>
       <c r="B117" t="n">
-        <v>14.56503391265869</v>
+        <v>42.05278778076172</v>
       </c>
       <c r="C117" t="n">
-        <v>10.60246467590332</v>
+        <v>6.912714958190918</v>
       </c>
       <c r="D117" t="n">
-        <v>10.24103164672852</v>
+        <v>61.35309600830078</v>
       </c>
       <c r="E117" t="n">
-        <v>-1.580438613891602</v>
+        <v>1.423672676086426</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.746602773666382</v>
+        <v>-1.391801595687866</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>16.08691787719727</v>
+        <v>13.39995765686035</v>
       </c>
       <c r="B118" t="n">
-        <v>12.30487632751465</v>
+        <v>44.58208847045898</v>
       </c>
       <c r="C118" t="n">
-        <v>9.500938415527344</v>
+        <v>7.072592735290527</v>
       </c>
       <c r="D118" t="n">
-        <v>9.222537994384766</v>
+        <v>57.18928909301758</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3677680194377899</v>
+        <v>4.705204963684082</v>
       </c>
       <c r="F118" t="n">
-        <v>1.964690446853638</v>
+        <v>0.6616922616958618</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>13.85707473754883</v>
+        <v>11.73084831237793</v>
       </c>
       <c r="B119" t="n">
-        <v>10.03127288818359</v>
+        <v>46.55280685424805</v>
       </c>
       <c r="C119" t="n">
-        <v>9.500938415527344</v>
+        <v>7.312893867492676</v>
       </c>
       <c r="D119" t="n">
-        <v>9.222537994384766</v>
+        <v>52.00627136230469</v>
       </c>
       <c r="E119" t="n">
-        <v>3.089617729187012</v>
+        <v>7.813961982727051</v>
       </c>
       <c r="F119" t="n">
-        <v>4.207862377166748</v>
+        <v>0.6616922616958618</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.77168560028076</v>
+        <v>10.14856624603271</v>
       </c>
       <c r="B120" t="n">
-        <v>7.380281448364258</v>
+        <v>47.92677307128906</v>
       </c>
       <c r="C120" t="n">
-        <v>8.33562183380127</v>
+        <v>7.620064735412598</v>
       </c>
       <c r="D120" t="n">
-        <v>8.01830005645752</v>
+        <v>46.02934265136719</v>
       </c>
       <c r="E120" t="n">
-        <v>4.785276412963867</v>
+        <v>10.60637855529785</v>
       </c>
       <c r="F120" t="n">
-        <v>6.10234546661377</v>
+        <v>2.617891311645508</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.555919647216797</v>
+        <v>8.648438453674316</v>
       </c>
       <c r="B121" t="n">
-        <v>4.716732025146484</v>
+        <v>47.92677307128906</v>
       </c>
       <c r="C121" t="n">
-        <v>7.948332786560059</v>
+        <v>8.021498680114746</v>
       </c>
       <c r="D121" t="n">
-        <v>6.930012702941895</v>
+        <v>39.62132263183594</v>
       </c>
       <c r="E121" t="n">
-        <v>6.867127418518066</v>
+        <v>13.38124656677246</v>
       </c>
       <c r="F121" t="n">
-        <v>8.046106338500977</v>
+        <v>1.5643070936203</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.243852615356445</v>
+        <v>7.218480110168457</v>
       </c>
       <c r="B122" t="n">
-        <v>2.03204607963562</v>
+        <v>49.42332458496094</v>
       </c>
       <c r="C122" t="n">
-        <v>7.297049522399902</v>
+        <v>8.705100059509277</v>
       </c>
       <c r="D122" t="n">
-        <v>5.92880916595459</v>
+        <v>33.18175506591797</v>
       </c>
       <c r="E122" t="n">
-        <v>8.796390533447266</v>
+        <v>15.86282730102539</v>
       </c>
       <c r="F122" t="n">
-        <v>9.701457977294922</v>
+        <v>0.2618960738182068</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.986923694610596</v>
+        <v>5.853108406066895</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4669255018234253</v>
+        <v>49.03808975219727</v>
       </c>
       <c r="C123" t="n">
-        <v>6.977845191955566</v>
+        <v>9.418081283569336</v>
       </c>
       <c r="D123" t="n">
-        <v>5.229222297668457</v>
+        <v>27.10550689697266</v>
       </c>
       <c r="E123" t="n">
-        <v>11.32462978363037</v>
+        <v>17.99445724487305</v>
       </c>
       <c r="F123" t="n">
-        <v>11.58373832702637</v>
+        <v>-2.284135580062866</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.963840961456299</v>
+        <v>4.541657447814941</v>
       </c>
       <c r="B124" t="n">
-        <v>-2.887081861495972</v>
+        <v>48.32497406005859</v>
       </c>
       <c r="C124" t="n">
-        <v>7.141964912414551</v>
+        <v>10.29727268218994</v>
       </c>
       <c r="D124" t="n">
-        <v>4.964909553527832</v>
+        <v>21.85085678100586</v>
       </c>
       <c r="E124" t="n">
-        <v>12.87384033203125</v>
+        <v>19.85678863525391</v>
       </c>
       <c r="F124" t="n">
-        <v>12.96340179443359</v>
+        <v>-4.362235069274902</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.27383291721344</v>
+        <v>3.262896299362183</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.004180431365967</v>
+        <v>47.49021148681641</v>
       </c>
       <c r="C125" t="n">
-        <v>8.009821891784668</v>
+        <v>11.53335189819336</v>
       </c>
       <c r="D125" t="n">
-        <v>5.157618522644043</v>
+        <v>17.80749130249023</v>
       </c>
       <c r="E125" t="n">
-        <v>12.87384033203125</v>
+        <v>21.3064022064209</v>
       </c>
       <c r="F125" t="n">
-        <v>14.1490650177002</v>
+        <v>-6.688694477081299</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.0275300145149231</v>
+        <v>2.013892889022827</v>
       </c>
       <c r="B126" t="n">
-        <v>-6.622786521911621</v>
+        <v>46.50984954833984</v>
       </c>
       <c r="C126" t="n">
-        <v>10.99105739593506</v>
+        <v>12.87194156646729</v>
       </c>
       <c r="D126" t="n">
-        <v>6.22342586517334</v>
+        <v>15.04877662658691</v>
       </c>
       <c r="E126" t="n">
-        <v>14.63517951965332</v>
+        <v>21.3064022064209</v>
       </c>
       <c r="F126" t="n">
-        <v>15.60404586791992</v>
+        <v>-8.634142875671387</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.0275300145149231</v>
+        <v>0.8385077714920044</v>
       </c>
       <c r="B127" t="n">
-        <v>-7.924042701721191</v>
+        <v>45.26089096069336</v>
       </c>
       <c r="C127" t="n">
-        <v>13.37888717651367</v>
+        <v>14.08187198638916</v>
       </c>
       <c r="D127" t="n">
-        <v>9.557001113891602</v>
+        <v>13.38333511352539</v>
       </c>
       <c r="E127" t="n">
-        <v>16.35408592224121</v>
+        <v>22.73816871643066</v>
       </c>
       <c r="F127" t="n">
-        <v>15.60404586791992</v>
+        <v>-10.37714958190918</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.688960313796997</v>
+        <v>-0.195326030254364</v>
       </c>
       <c r="B128" t="n">
-        <v>-7.924042701721191</v>
+        <v>43.68502807617188</v>
       </c>
       <c r="C128" t="n">
-        <v>16.85195159912109</v>
+        <v>15.29690742492676</v>
       </c>
       <c r="D128" t="n">
-        <v>11.97393131256104</v>
+        <v>13.38333511352539</v>
       </c>
       <c r="E128" t="n">
-        <v>13.40064144134521</v>
+        <v>19.66776275634766</v>
       </c>
       <c r="F128" t="n">
-        <v>13.15941619873047</v>
+        <v>-12.57003784179688</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.185900926589966</v>
+        <v>-0.195326030254364</v>
       </c>
       <c r="B129" t="n">
-        <v>-9.741702079772949</v>
+        <v>41.89749145507812</v>
       </c>
       <c r="C129" t="n">
-        <v>21.35482025146484</v>
+        <v>16.76719856262207</v>
       </c>
       <c r="D129" t="n">
-        <v>15.48329925537109</v>
+        <v>11.83809280395508</v>
       </c>
       <c r="E129" t="n">
-        <v>8.405299186706543</v>
+        <v>15.95924758911133</v>
       </c>
       <c r="F129" t="n">
-        <v>7.617509365081787</v>
+        <v>-15.29500961303711</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.1137535870075226</v>
+        <v>-1.856553554534912</v>
       </c>
       <c r="B130" t="n">
-        <v>-9.314284324645996</v>
+        <v>38.94755554199219</v>
       </c>
       <c r="C130" t="n">
-        <v>26.71030235290527</v>
+        <v>20.02633285522461</v>
       </c>
       <c r="D130" t="n">
-        <v>19.96435737609863</v>
+        <v>12.6747350692749</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.9588813781738281</v>
+        <v>9.762594223022461</v>
       </c>
       <c r="F130" t="n">
-        <v>-3.214252710342407</v>
+        <v>-17.75683212280273</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.711158514022827</v>
+        <v>-2.100072383880615</v>
       </c>
       <c r="B131" t="n">
-        <v>-6.157205104827881</v>
+        <v>37.24021911621094</v>
       </c>
       <c r="C131" t="n">
-        <v>32.27615356445312</v>
+        <v>22.47590255737305</v>
       </c>
       <c r="D131" t="n">
-        <v>25.19447708129883</v>
+        <v>13.97737598419189</v>
       </c>
       <c r="E131" t="n">
-        <v>-13.85795974731445</v>
+        <v>0.8489518165588379</v>
       </c>
       <c r="F131" t="n">
-        <v>-15.59046268463135</v>
+        <v>-17.75683212280273</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.419286727905273</v>
+        <v>-1.650887966156006</v>
       </c>
       <c r="B132" t="n">
-        <v>-3.693317413330078</v>
+        <v>35.18407821655273</v>
       </c>
       <c r="C132" t="n">
-        <v>37.76598358154297</v>
+        <v>26.28425979614258</v>
       </c>
       <c r="D132" t="n">
-        <v>30.60588073730469</v>
+        <v>15.35818481445312</v>
       </c>
       <c r="E132" t="n">
-        <v>-27.72511672973633</v>
+        <v>-9.578226089477539</v>
       </c>
       <c r="F132" t="n">
-        <v>-27.80409812927246</v>
+        <v>-19.3896484375</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.743666648864746</v>
+        <v>1.389079570770264</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.3834469318389893</v>
+        <v>33.18671417236328</v>
       </c>
       <c r="C133" t="n">
-        <v>43.48977661132812</v>
+        <v>31.63075065612793</v>
       </c>
       <c r="D133" t="n">
-        <v>36.58052062988281</v>
+        <v>16.39734268188477</v>
       </c>
       <c r="E133" t="n">
-        <v>-37.19655609130859</v>
+        <v>-19.39650726318359</v>
       </c>
       <c r="F133" t="n">
-        <v>-34.41579437255859</v>
+        <v>-17.42136383056641</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.933528900146484</v>
+        <v>3.941860198974609</v>
       </c>
       <c r="B134" t="n">
-        <v>3.617790222167969</v>
+        <v>31.31946182250977</v>
       </c>
       <c r="C134" t="n">
-        <v>49.7981071472168</v>
+        <v>38.23410797119141</v>
       </c>
       <c r="D134" t="n">
-        <v>43.04285430908203</v>
+        <v>17.08673667907715</v>
       </c>
       <c r="E134" t="n">
-        <v>-39.48521423339844</v>
+        <v>-27.26425933837891</v>
       </c>
       <c r="F134" t="n">
-        <v>-34.41579437255859</v>
+        <v>-14.14705657958984</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>13.56526470184326</v>
+        <v>7.45197582244873</v>
       </c>
       <c r="B135" t="n">
-        <v>7.718888282775879</v>
+        <v>29.34388160705566</v>
       </c>
       <c r="C135" t="n">
-        <v>55.75502777099609</v>
+        <v>45.48129272460938</v>
       </c>
       <c r="D135" t="n">
-        <v>48.89899063110352</v>
+        <v>17.34975242614746</v>
       </c>
       <c r="E135" t="n">
-        <v>-36.92810821533203</v>
+        <v>-32.70111846923828</v>
       </c>
       <c r="F135" t="n">
-        <v>-29.74933624267578</v>
+        <v>-11.57832527160645</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17.36262893676758</v>
+        <v>11.61131477355957</v>
       </c>
       <c r="B136" t="n">
-        <v>11.84866142272949</v>
+        <v>27.19681549072266</v>
       </c>
       <c r="C136" t="n">
-        <v>60.83023834228516</v>
+        <v>52.57977294921875</v>
       </c>
       <c r="D136" t="n">
-        <v>53.72840118408203</v>
+        <v>17.03421974182129</v>
       </c>
       <c r="E136" t="n">
-        <v>-32.48314666748047</v>
+        <v>-34.74935913085938</v>
       </c>
       <c r="F136" t="n">
-        <v>-24.45508575439453</v>
+        <v>-8.179872512817383</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>21.18403244018555</v>
+        <v>15.99405288696289</v>
       </c>
       <c r="B137" t="n">
-        <v>15.85860538482666</v>
+        <v>25.02727508544922</v>
       </c>
       <c r="C137" t="n">
-        <v>64.89840698242188</v>
+        <v>58.58037567138672</v>
       </c>
       <c r="D137" t="n">
-        <v>57.25607299804688</v>
+        <v>16.48408889770508</v>
       </c>
       <c r="E137" t="n">
-        <v>-26.10411834716797</v>
+        <v>-33.18462371826172</v>
       </c>
       <c r="F137" t="n">
-        <v>-19.421142578125</v>
+        <v>-4.518838405609131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>24.88835144042969</v>
+        <v>20.25290679931641</v>
       </c>
       <c r="B138" t="n">
-        <v>19.91168403625488</v>
+        <v>22.99016189575195</v>
       </c>
       <c r="C138" t="n">
-        <v>67.61180114746094</v>
+        <v>62.81613922119141</v>
       </c>
       <c r="D138" t="n">
-        <v>59.60065460205078</v>
+        <v>16.06894874572754</v>
       </c>
       <c r="E138" t="n">
-        <v>-20.28730773925781</v>
+        <v>-28.59335136413574</v>
       </c>
       <c r="F138" t="n">
-        <v>-14.89170074462891</v>
+        <v>-1.070804834365845</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>28.38405990600586</v>
+        <v>24.18950080871582</v>
       </c>
       <c r="B139" t="n">
-        <v>23.99762725830078</v>
+        <v>21.13639450073242</v>
       </c>
       <c r="C139" t="n">
-        <v>68.72288513183594</v>
+        <v>64.99557495117188</v>
       </c>
       <c r="D139" t="n">
-        <v>59.60065460205078</v>
+        <v>15.92852783203125</v>
       </c>
       <c r="E139" t="n">
-        <v>-14.24787712097168</v>
+        <v>-21.93530082702637</v>
       </c>
       <c r="F139" t="n">
-        <v>-10.0936222076416</v>
+        <v>2.046253681182861</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>31.39609527587891</v>
+        <v>27.71115303039551</v>
       </c>
       <c r="B140" t="n">
-        <v>27.51939392089844</v>
+        <v>19.45066261291504</v>
       </c>
       <c r="C140" t="n">
-        <v>67.62032318115234</v>
+        <v>64.99557495117188</v>
       </c>
       <c r="D140" t="n">
-        <v>60.02655410766602</v>
+        <v>16.03210258483887</v>
       </c>
       <c r="E140" t="n">
-        <v>-8.929059028625488</v>
+        <v>-14.49678611755371</v>
       </c>
       <c r="F140" t="n">
-        <v>-6.477367401123047</v>
+        <v>4.882785797119141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>33.74661254882812</v>
+        <v>30.84261322021484</v>
       </c>
       <c r="B141" t="n">
-        <v>30.29905319213867</v>
+        <v>17.82669639587402</v>
       </c>
       <c r="C141" t="n">
-        <v>64.12220001220703</v>
+        <v>63.06858062744141</v>
       </c>
       <c r="D141" t="n">
-        <v>56.49474334716797</v>
+        <v>16.29914283752441</v>
       </c>
       <c r="E141" t="n">
-        <v>-5.159032821655273</v>
+        <v>-7.630604267120361</v>
       </c>
       <c r="F141" t="n">
-        <v>-4.744546413421631</v>
+        <v>7.63499641418457</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>35.52482604980469</v>
+        <v>33.64070129394531</v>
       </c>
       <c r="B142" t="n">
-        <v>32.45217514038086</v>
+        <v>16.15778350830078</v>
       </c>
       <c r="C142" t="n">
-        <v>58.19591522216797</v>
+        <v>59.11481857299805</v>
       </c>
       <c r="D142" t="n">
-        <v>50.90052795410156</v>
+        <v>16.66075325012207</v>
       </c>
       <c r="E142" t="n">
-        <v>-3.517530679702759</v>
+        <v>-2.241991758346558</v>
       </c>
       <c r="F142" t="n">
-        <v>-4.744546413421631</v>
+        <v>10.46092987060547</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>35.52482604980469</v>
+        <v>36.11750030517578</v>
       </c>
       <c r="B143" t="n">
-        <v>33.97316360473633</v>
+        <v>14.42677593231201</v>
       </c>
       <c r="C143" t="n">
-        <v>50.35616302490234</v>
+        <v>53.53169250488281</v>
       </c>
       <c r="D143" t="n">
-        <v>43.90338134765625</v>
+        <v>17.08634948730469</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.396006107330322</v>
+        <v>1.239407181739807</v>
       </c>
       <c r="F143" t="n">
-        <v>-4.424521446228027</v>
+        <v>13.27931594848633</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37.37488555908203</v>
+        <v>38.24696350097656</v>
       </c>
       <c r="B144" t="n">
-        <v>34.98017120361328</v>
+        <v>12.6391019821167</v>
       </c>
       <c r="C144" t="n">
-        <v>41.68264007568359</v>
+        <v>46.76811981201172</v>
       </c>
       <c r="D144" t="n">
-        <v>36.34122467041016</v>
+        <v>17.52510643005371</v>
       </c>
       <c r="E144" t="n">
-        <v>-5.191051483154297</v>
+        <v>2.743643999099731</v>
       </c>
       <c r="F144" t="n">
-        <v>-6.861400604248047</v>
+        <v>15.95776271820068</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37.73854446411133</v>
+        <v>39.86019897460938</v>
       </c>
       <c r="B145" t="n">
-        <v>34.98017120361328</v>
+        <v>10.8760404586792</v>
       </c>
       <c r="C145" t="n">
-        <v>33.27233123779297</v>
+        <v>39.38079833984375</v>
       </c>
       <c r="D145" t="n">
-        <v>28.74814605712891</v>
+        <v>17.85113906860352</v>
       </c>
       <c r="E145" t="n">
-        <v>-9.099700927734375</v>
+        <v>2.743643999099731</v>
       </c>
       <c r="F145" t="n">
-        <v>-10.8903980255127</v>
+        <v>18.42940139770508</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>38.16139602661133</v>
+        <v>40.95753479003906</v>
       </c>
       <c r="B146" t="n">
-        <v>36.29051971435547</v>
+        <v>9.028325080871582</v>
       </c>
       <c r="C146" t="n">
-        <v>25.71713638305664</v>
+        <v>31.90505599975586</v>
       </c>
       <c r="D146" t="n">
-        <v>22.09126281738281</v>
+        <v>17.99359130859375</v>
       </c>
       <c r="E146" t="n">
-        <v>-12.37838459014893</v>
+        <v>0.9325785636901855</v>
       </c>
       <c r="F146" t="n">
-        <v>-13.89900588989258</v>
+        <v>20.85478591918945</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37.84695816040039</v>
+        <v>40.95753479003906</v>
       </c>
       <c r="B147" t="n">
-        <v>36.36127090454102</v>
+        <v>7.110409736633301</v>
       </c>
       <c r="C147" t="n">
-        <v>18.92252731323242</v>
+        <v>24.88243103027344</v>
       </c>
       <c r="D147" t="n">
-        <v>16.54930305480957</v>
+        <v>17.86276245117188</v>
       </c>
       <c r="E147" t="n">
-        <v>-12.37838459014893</v>
+        <v>-1.41055965423584</v>
       </c>
       <c r="F147" t="n">
-        <v>-13.89900588989258</v>
+        <v>23.12451553344727</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>36.65814971923828</v>
+        <v>42.02048110961914</v>
       </c>
       <c r="B148" t="n">
-        <v>35.99639892578125</v>
+        <v>5.118426322937012</v>
       </c>
       <c r="C148" t="n">
-        <v>12.51302528381348</v>
+        <v>18.70834922790527</v>
       </c>
       <c r="D148" t="n">
-        <v>11.1746768951416</v>
+        <v>17.56500434875488</v>
       </c>
       <c r="E148" t="n">
-        <v>-10.85722351074219</v>
+        <v>-4.149439811706543</v>
       </c>
       <c r="F148" t="n">
-        <v>-15.22329330444336</v>
+        <v>25.0994758605957</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37.31500244140625</v>
+        <v>41.92950820922852</v>
       </c>
       <c r="B149" t="n">
-        <v>36.67473220825195</v>
+        <v>3.316204071044922</v>
       </c>
       <c r="C149" t="n">
-        <v>8.514926910400391</v>
+        <v>13.62391662597656</v>
       </c>
       <c r="D149" t="n">
-        <v>7.956464290618896</v>
+        <v>17.4827766418457</v>
       </c>
       <c r="E149" t="n">
-        <v>-9.740224838256836</v>
+        <v>-7.065415382385254</v>
       </c>
       <c r="F149" t="n">
-        <v>-14.41692447662354</v>
+        <v>26.39627075195312</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>39.04792022705078</v>
+        <v>41.51416397094727</v>
       </c>
       <c r="B150" t="n">
-        <v>38.36228942871094</v>
+        <v>1.689450621604919</v>
       </c>
       <c r="C150" t="n">
-        <v>6.137630939483643</v>
+        <v>9.501001358032227</v>
       </c>
       <c r="D150" t="n">
-        <v>5.810175895690918</v>
+        <v>18.05384063720703</v>
       </c>
       <c r="E150" t="n">
-        <v>-9.740224838256836</v>
+        <v>-10.47912979125977</v>
       </c>
       <c r="F150" t="n">
-        <v>-14.41692447662354</v>
+        <v>26.39627075195312</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>39.04792022705078</v>
+        <v>38.15245819091797</v>
       </c>
       <c r="B151" t="n">
-        <v>38.36228942871094</v>
+        <v>1.689450621604919</v>
       </c>
       <c r="C151" t="n">
-        <v>7.207615852355957</v>
+        <v>7.033215999603271</v>
       </c>
       <c r="D151" t="n">
-        <v>5.810175895690918</v>
+        <v>19.35469627380371</v>
       </c>
       <c r="E151" t="n">
-        <v>-12.7829475402832</v>
+        <v>-11.98380661010742</v>
       </c>
       <c r="F151" t="n">
-        <v>-13.83399200439453</v>
+        <v>27.0543212890625</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>39.79241180419922</v>
+        <v>34.74525451660156</v>
       </c>
       <c r="B152" t="n">
-        <v>37.83676910400391</v>
+        <v>1.24614405632019</v>
       </c>
       <c r="C152" t="n">
-        <v>9.113853454589844</v>
+        <v>5.089665412902832</v>
       </c>
       <c r="D152" t="n">
-        <v>7.992550849914551</v>
+        <v>21.0941333770752</v>
       </c>
       <c r="E152" t="n">
-        <v>-17.01414108276367</v>
+        <v>-13.11563110351562</v>
       </c>
       <c r="F152" t="n">
-        <v>-13.83399200439453</v>
+        <v>27.0543212890625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>41.33196258544922</v>
+        <v>30.22593307495117</v>
       </c>
       <c r="B153" t="n">
-        <v>40.97175979614258</v>
+        <v>-0.5356246829032898</v>
       </c>
       <c r="C153" t="n">
-        <v>10.91677474975586</v>
+        <v>5.089665412902832</v>
       </c>
       <c r="D153" t="n">
-        <v>9.884806632995605</v>
+        <v>23.33804321289062</v>
       </c>
       <c r="E153" t="n">
-        <v>-15.97384166717529</v>
+        <v>-13.11563110351562</v>
       </c>
       <c r="F153" t="n">
-        <v>-14.39596652984619</v>
+        <v>20.77091979980469</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>41.33196258544922</v>
+        <v>34.94777679443359</v>
       </c>
       <c r="B154" t="n">
-        <v>40.97175979614258</v>
+        <v>1.118723630905151</v>
       </c>
       <c r="C154" t="n">
-        <v>12.3983325958252</v>
+        <v>9.73118782043457</v>
       </c>
       <c r="D154" t="n">
-        <v>12.1487512588501</v>
+        <v>23.33804321289062</v>
       </c>
       <c r="E154" t="n">
-        <v>-17.20260047912598</v>
+        <v>-14.94157409667969</v>
       </c>
       <c r="F154" t="n">
-        <v>-16.86848258972168</v>
+        <v>13.21120166778564</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>42.32245635986328</v>
+        <v>38.5087890625</v>
       </c>
       <c r="B155" t="n">
-        <v>41.16253280639648</v>
+        <v>-0.5578873157501221</v>
       </c>
       <c r="C155" t="n">
-        <v>14.57307052612305</v>
+        <v>9.73118782043457</v>
       </c>
       <c r="D155" t="n">
-        <v>14.48652839660645</v>
+        <v>26.02750778198242</v>
       </c>
       <c r="E155" t="n">
-        <v>-21.6472282409668</v>
+        <v>-17.95361328125</v>
       </c>
       <c r="F155" t="n">
-        <v>-22.07310104370117</v>
+        <v>5.524481773376465</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43.83174514770508</v>
+        <v>38.5087890625</v>
       </c>
       <c r="B156" t="n">
-        <v>42.39557647705078</v>
+        <v>-0.5578873157501221</v>
       </c>
       <c r="C156" t="n">
-        <v>18.23977279663086</v>
+        <v>10.61190223693848</v>
       </c>
       <c r="D156" t="n">
-        <v>18.83114242553711</v>
+        <v>28.65342712402344</v>
       </c>
       <c r="E156" t="n">
-        <v>-24.33061599731445</v>
+        <v>-19.85234451293945</v>
       </c>
       <c r="F156" t="n">
-        <v>-23.93456077575684</v>
+        <v>-3.363041877746582</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>42.7510986328125</v>
+        <v>36.63704681396484</v>
       </c>
       <c r="B157" t="n">
-        <v>42.64032363891602</v>
+        <v>2.263707876205444</v>
       </c>
       <c r="C157" t="n">
-        <v>21.58857536315918</v>
+        <v>7.68454647064209</v>
       </c>
       <c r="D157" t="n">
-        <v>22.91756439208984</v>
+        <v>31.96537017822266</v>
       </c>
       <c r="E157" t="n">
-        <v>-24.33061599731445</v>
+        <v>-21.99872970581055</v>
       </c>
       <c r="F157" t="n">
-        <v>-22.85786437988281</v>
+        <v>-12.64821243286133</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>42.81474304199219</v>
+        <v>34.64355850219727</v>
       </c>
       <c r="B158" t="n">
-        <v>42.08242797851562</v>
+        <v>4.780979633331299</v>
       </c>
       <c r="C158" t="n">
-        <v>24.1963996887207</v>
+        <v>5.874706268310547</v>
       </c>
       <c r="D158" t="n">
-        <v>25.5085334777832</v>
+        <v>36.29414367675781</v>
       </c>
       <c r="E158" t="n">
-        <v>-21.03175354003906</v>
+        <v>-24.07401275634766</v>
       </c>
       <c r="F158" t="n">
-        <v>-20.27949142456055</v>
+        <v>-20.88839340209961</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>41.7969856262207</v>
+        <v>32.81838607788086</v>
       </c>
       <c r="B159" t="n">
-        <v>40.45002746582031</v>
+        <v>8.15664005279541</v>
       </c>
       <c r="C159" t="n">
-        <v>25.83568382263184</v>
+        <v>4.8078293800354</v>
       </c>
       <c r="D159" t="n">
-        <v>26.93296241760254</v>
+        <v>41.56226348876953</v>
       </c>
       <c r="E159" t="n">
-        <v>-16.8551139831543</v>
+        <v>-24.07401275634766</v>
       </c>
       <c r="F159" t="n">
-        <v>-15.61726760864258</v>
+        <v>-26.8415470123291</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>40.28367233276367</v>
+        <v>31.20378112792969</v>
       </c>
       <c r="B160" t="n">
-        <v>38.32072830200195</v>
+        <v>11.96551322937012</v>
       </c>
       <c r="C160" t="n">
-        <v>25.83568382263184</v>
+        <v>4.8078293800354</v>
       </c>
       <c r="D160" t="n">
-        <v>26.93296241760254</v>
+        <v>47.39385223388672</v>
       </c>
       <c r="E160" t="n">
-        <v>-13.34692668914795</v>
+        <v>-24.84867858886719</v>
       </c>
       <c r="F160" t="n">
-        <v>-12.03460121154785</v>
+        <v>-29.89149856567383</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>37.50843811035156</v>
+        <v>29.5834846496582</v>
       </c>
       <c r="B161" t="n">
-        <v>36.16831588745117</v>
+        <v>15.89416694641113</v>
       </c>
       <c r="C161" t="n">
-        <v>27.74796485900879</v>
+        <v>4.605603218078613</v>
       </c>
       <c r="D161" t="n">
-        <v>27.83031845092773</v>
+        <v>53.26391983032227</v>
       </c>
       <c r="E161" t="n">
-        <v>-10.37669944763184</v>
+        <v>-22.56141471862793</v>
       </c>
       <c r="F161" t="n">
-        <v>-7.843070983886719</v>
+        <v>-29.89149856567383</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>35.60142135620117</v>
+        <v>27.66057968139648</v>
       </c>
       <c r="B162" t="n">
-        <v>33.76972198486328</v>
+        <v>19.94392967224121</v>
       </c>
       <c r="C162" t="n">
-        <v>27.2427978515625</v>
+        <v>5.465441703796387</v>
       </c>
       <c r="D162" t="n">
-        <v>27.40940284729004</v>
+        <v>58.619873046875</v>
       </c>
       <c r="E162" t="n">
-        <v>-7.255989074707031</v>
+        <v>-19.51433372497559</v>
       </c>
       <c r="F162" t="n">
-        <v>-4.360296249389648</v>
+        <v>-27.06889724731445</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>33.02155685424805</v>
+        <v>25.49456787109375</v>
       </c>
       <c r="B163" t="n">
-        <v>30.73804092407227</v>
+        <v>24.01542282104492</v>
       </c>
       <c r="C163" t="n">
-        <v>24.01481628417969</v>
+        <v>5.999518394470215</v>
       </c>
       <c r="D163" t="n">
-        <v>24.24100112915039</v>
+        <v>62.87769317626953</v>
       </c>
       <c r="E163" t="n">
-        <v>-5.156689643859863</v>
+        <v>-15.93781280517578</v>
       </c>
       <c r="F163" t="n">
-        <v>-2.365079402923584</v>
+        <v>-22.42323684692383</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>30.22908782958984</v>
+        <v>23.30297088623047</v>
       </c>
       <c r="B164" t="n">
-        <v>27.35533905029297</v>
+        <v>27.97572326660156</v>
       </c>
       <c r="C164" t="n">
-        <v>22.02444267272949</v>
+        <v>6.274483680725098</v>
       </c>
       <c r="D164" t="n">
-        <v>21.86727142333984</v>
+        <v>65.5784912109375</v>
       </c>
       <c r="E164" t="n">
-        <v>-4.004538536071777</v>
+        <v>-12.2004508972168</v>
       </c>
       <c r="F164" t="n">
-        <v>-2.365079402923584</v>
+        <v>-17.17229270935059</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>27.27195358276367</v>
+        <v>21.22511672973633</v>
       </c>
       <c r="B165" t="n">
-        <v>24.06231307983398</v>
+        <v>31.73913955688477</v>
       </c>
       <c r="C165" t="n">
-        <v>19.16617202758789</v>
+        <v>6.353625297546387</v>
       </c>
       <c r="D165" t="n">
-        <v>18.77731323242188</v>
+        <v>65.5784912109375</v>
       </c>
       <c r="E165" t="n">
-        <v>-2.487704753875732</v>
+        <v>-8.658603668212891</v>
       </c>
       <c r="F165" t="n">
-        <v>-2.265797853469849</v>
+        <v>-12.09584999084473</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>24.14912796020508</v>
+        <v>19.23041725158691</v>
       </c>
       <c r="B166" t="n">
-        <v>20.58654403686523</v>
+        <v>35.31082916259766</v>
       </c>
       <c r="C166" t="n">
-        <v>15.52122688293457</v>
+        <v>6.307040214538574</v>
       </c>
       <c r="D166" t="n">
-        <v>15.13679122924805</v>
+        <v>66.24781036376953</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.487704753875732</v>
+        <v>-5.079412937164307</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.3596747219562531</v>
+        <v>-7.806924819946289</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>20.95370292663574</v>
+        <v>17.30437088012695</v>
       </c>
       <c r="B167" t="n">
-        <v>17.39951515197754</v>
+        <v>38.63947677612305</v>
       </c>
       <c r="C167" t="n">
-        <v>12.45927238464355</v>
+        <v>6.562069892883301</v>
       </c>
       <c r="D167" t="n">
-        <v>12.16779708862305</v>
+        <v>63.95127868652344</v>
       </c>
       <c r="E167" t="n">
-        <v>-2.803912162780762</v>
+        <v>-1.53467059135437</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.4025123417377472</v>
+        <v>-4.336025714874268</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>18.31082534790039</v>
+        <v>15.45964050292969</v>
       </c>
       <c r="B168" t="n">
-        <v>14.74870109558105</v>
+        <v>41.63782501220703</v>
       </c>
       <c r="C168" t="n">
-        <v>10.55243301391602</v>
+        <v>6.887248039245605</v>
       </c>
       <c r="D168" t="n">
-        <v>10.23459815979004</v>
+        <v>60.83129501342773</v>
       </c>
       <c r="E168" t="n">
-        <v>-1.766203880310059</v>
+        <v>1.761047959327698</v>
       </c>
       <c r="F168" t="n">
-        <v>-1.622403860092163</v>
+        <v>-1.568916797637939</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.09444046020508</v>
+        <v>13.68110466003418</v>
       </c>
       <c r="B169" t="n">
-        <v>12.55383491516113</v>
+        <v>44.19476318359375</v>
       </c>
       <c r="C169" t="n">
-        <v>9.541515350341797</v>
+        <v>7.081089973449707</v>
       </c>
       <c r="D169" t="n">
-        <v>9.227258682250977</v>
+        <v>56.86042022705078</v>
       </c>
       <c r="E169" t="n">
-        <v>0.06730389595031738</v>
+        <v>4.950849533081055</v>
       </c>
       <c r="F169" t="n">
-        <v>2.016970872879028</v>
+        <v>0.4441015720367432</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>13.98797225952148</v>
+        <v>11.95505332946777</v>
       </c>
       <c r="B170" t="n">
-        <v>10.4051342010498</v>
+        <v>46.21087646484375</v>
       </c>
       <c r="C170" t="n">
-        <v>9.541515350341797</v>
+        <v>7.300530433654785</v>
       </c>
       <c r="D170" t="n">
-        <v>9.227258682250977</v>
+        <v>51.90921401977539</v>
       </c>
       <c r="E170" t="n">
-        <v>2.695234775543213</v>
+        <v>8.025796890258789</v>
       </c>
       <c r="F170" t="n">
-        <v>4.241084575653076</v>
+        <v>1.475711941719055</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>11.97626304626465</v>
+        <v>10.31030941009521</v>
       </c>
       <c r="B171" t="n">
-        <v>7.900627136230469</v>
+        <v>47.62383270263672</v>
       </c>
       <c r="C171" t="n">
-        <v>8.566439628601074</v>
+        <v>7.536614418029785</v>
       </c>
       <c r="D171" t="n">
-        <v>8.153666496276855</v>
+        <v>46.08262252807617</v>
       </c>
       <c r="E171" t="n">
-        <v>4.336158275604248</v>
+        <v>10.81008911132812</v>
       </c>
       <c r="F171" t="n">
-        <v>6.102500915527344</v>
+        <v>1.475711941719055</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.832529067993164</v>
+        <v>8.757402420043945</v>
       </c>
       <c r="B172" t="n">
-        <v>5.315524101257324</v>
+        <v>47.62383270263672</v>
       </c>
       <c r="C172" t="n">
-        <v>8.250042915344238</v>
+        <v>7.806565284729004</v>
       </c>
       <c r="D172" t="n">
-        <v>7.293557167053223</v>
+        <v>39.71942901611328</v>
       </c>
       <c r="E172" t="n">
-        <v>6.374035835266113</v>
+        <v>13.53879451751709</v>
       </c>
       <c r="F172" t="n">
-        <v>8.000591278076172</v>
+        <v>1.490979552268982</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7.581781387329102</v>
+        <v>7.296305656433105</v>
       </c>
       <c r="B173" t="n">
-        <v>2.68036675453186</v>
+        <v>49.16533279418945</v>
       </c>
       <c r="C173" t="n">
-        <v>7.617730140686035</v>
+        <v>8.364562034606934</v>
       </c>
       <c r="D173" t="n">
-        <v>6.330451011657715</v>
+        <v>33.28596115112305</v>
       </c>
       <c r="E173" t="n">
-        <v>8.318630218505859</v>
+        <v>15.98466491699219</v>
       </c>
       <c r="F173" t="n">
-        <v>9.716804504394531</v>
+        <v>0.07872717827558517</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5.328489780426025</v>
+        <v>5.91561222076416</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2075966596603394</v>
+        <v>48.75980758666992</v>
       </c>
       <c r="C174" t="n">
-        <v>7.111899375915527</v>
+        <v>9.041945457458496</v>
       </c>
       <c r="D174" t="n">
-        <v>5.523123741149902</v>
+        <v>27.20351028442383</v>
       </c>
       <c r="E174" t="n">
-        <v>10.79943180084229</v>
+        <v>18.06043243408203</v>
       </c>
       <c r="F174" t="n">
-        <v>11.62859916687012</v>
+        <v>-2.421678781509399</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3.282569408416748</v>
+        <v>4.60886287689209</v>
       </c>
       <c r="B175" t="n">
-        <v>-2.202131032943726</v>
+        <v>48.00889587402344</v>
       </c>
       <c r="C175" t="n">
-        <v>7.116868019104004</v>
+        <v>9.937307357788086</v>
       </c>
       <c r="D175" t="n">
-        <v>5.253540992736816</v>
+        <v>21.91954803466797</v>
       </c>
       <c r="E175" t="n">
-        <v>12.3624153137207</v>
+        <v>19.84981155395508</v>
       </c>
       <c r="F175" t="n">
-        <v>13.05537796020508</v>
+        <v>-4.387603759765625</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.548060536384583</v>
+        <v>3.361152410507202</v>
       </c>
       <c r="B176" t="n">
-        <v>-4.334629058837891</v>
+        <v>47.13277053833008</v>
       </c>
       <c r="C176" t="n">
-        <v>7.874176979064941</v>
+        <v>11.25258731842041</v>
       </c>
       <c r="D176" t="n">
-        <v>5.420998573303223</v>
+        <v>17.85221862792969</v>
       </c>
       <c r="E176" t="n">
-        <v>12.3624153137207</v>
+        <v>21.23932075500488</v>
       </c>
       <c r="F176" t="n">
-        <v>14.17566680908203</v>
+        <v>-6.726889610290527</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.2001952528953552</v>
+        <v>2.151783227920532</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.971125602722168</v>
+        <v>46.19408798217773</v>
       </c>
       <c r="C177" t="n">
-        <v>10.71079063415527</v>
+        <v>12.7906436920166</v>
       </c>
       <c r="D177" t="n">
-        <v>6.415774345397949</v>
+        <v>15.10420322418213</v>
       </c>
       <c r="E177" t="n">
-        <v>14.05260467529297</v>
+        <v>21.23932075500488</v>
       </c>
       <c r="F177" t="n">
-        <v>15.54807281494141</v>
+        <v>-8.74344539642334</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2001952528953552</v>
+        <v>1.002107977867126</v>
       </c>
       <c r="B178" t="n">
-        <v>-7.267233848571777</v>
+        <v>45.06255722045898</v>
       </c>
       <c r="C178" t="n">
-        <v>13.06103134155273</v>
+        <v>14.21155071258545</v>
       </c>
       <c r="D178" t="n">
-        <v>9.685131072998047</v>
+        <v>13.45423984527588</v>
       </c>
       <c r="E178" t="n">
-        <v>15.52075958251953</v>
+        <v>22.65962409973145</v>
       </c>
       <c r="F178" t="n">
-        <v>15.54807281494141</v>
+        <v>-10.41996002197266</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-1.538672685623169</v>
+        <v>-0.01520305871963501</v>
       </c>
       <c r="B179" t="n">
-        <v>-7.267233848571777</v>
+        <v>43.58502197265625</v>
       </c>
       <c r="C179" t="n">
-        <v>16.5084114074707</v>
+        <v>15.48132991790771</v>
       </c>
       <c r="D179" t="n">
-        <v>12.09223365783691</v>
+        <v>13.45423984527588</v>
       </c>
       <c r="E179" t="n">
-        <v>12.63917350769043</v>
+        <v>19.84661483764648</v>
       </c>
       <c r="F179" t="n">
-        <v>13.13588333129883</v>
+        <v>-12.41710472106934</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-1.024310350418091</v>
+        <v>-0.01520305871963501</v>
       </c>
       <c r="B180" t="n">
-        <v>-9.06226634979248</v>
+        <v>41.80948638916016</v>
       </c>
       <c r="C180" t="n">
-        <v>21.00835418701172</v>
+        <v>16.85066604614258</v>
       </c>
       <c r="D180" t="n">
-        <v>15.57252025604248</v>
+        <v>11.81830310821533</v>
       </c>
       <c r="E180" t="n">
-        <v>7.709010124206543</v>
+        <v>16.26234817504883</v>
       </c>
       <c r="F180" t="n">
-        <v>7.564249992370605</v>
+        <v>-15.08079624176025</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1524569690227509</v>
+        <v>-1.619616985321045</v>
       </c>
       <c r="B181" t="n">
-        <v>-8.659476280212402</v>
+        <v>38.83323669433594</v>
       </c>
       <c r="C181" t="n">
-        <v>26.4232234954834</v>
+        <v>19.8473014831543</v>
       </c>
       <c r="D181" t="n">
-        <v>20.06604385375977</v>
+        <v>12.46671962738037</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.425289154052734</v>
+        <v>10.14158248901367</v>
       </c>
       <c r="F181" t="n">
-        <v>-3.266448020935059</v>
+        <v>-17.74268531799316</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3.221811771392822</v>
+        <v>-1.839890956878662</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.553613185882568</v>
+        <v>37.14624786376953</v>
       </c>
       <c r="C182" t="n">
-        <v>32.1289176940918</v>
+        <v>22.11927795410156</v>
       </c>
       <c r="D182" t="n">
-        <v>25.37896728515625</v>
+        <v>13.70226192474365</v>
       </c>
       <c r="E182" t="n">
-        <v>-13.97655296325684</v>
+        <v>1.163920640945435</v>
       </c>
       <c r="F182" t="n">
-        <v>-15.66036415100098</v>
+        <v>-18.81015396118164</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4.992753505706787</v>
+        <v>-1.450948238372803</v>
       </c>
       <c r="B183" t="n">
-        <v>-3.139931678771973</v>
+        <v>35.04219818115234</v>
       </c>
       <c r="C183" t="n">
-        <v>37.6846923828125</v>
+        <v>25.73786926269531</v>
       </c>
       <c r="D183" t="n">
-        <v>30.85163497924805</v>
+        <v>15.17640399932861</v>
       </c>
       <c r="E183" t="n">
-        <v>-27.71826934814453</v>
+        <v>-9.426213264465332</v>
       </c>
       <c r="F183" t="n">
-        <v>-27.82898712158203</v>
+        <v>-18.81015396118164</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7.340717315673828</v>
+        <v>1.603085994720459</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05845475196838379</v>
+        <v>32.94770812988281</v>
       </c>
       <c r="C184" t="n">
-        <v>43.37350082397461</v>
+        <v>31.02293014526367</v>
       </c>
       <c r="D184" t="n">
-        <v>36.74825286865234</v>
+        <v>16.37885665893555</v>
       </c>
       <c r="E184" t="n">
-        <v>-37.18327331542969</v>
+        <v>-19.2064208984375</v>
       </c>
       <c r="F184" t="n">
-        <v>-34.35299682617188</v>
+        <v>-16.21931266784668</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.49053764343262</v>
+        <v>4.274832725524902</v>
       </c>
       <c r="B185" t="n">
-        <v>3.918461799621582</v>
+        <v>31.02737045288086</v>
       </c>
       <c r="C185" t="n">
-        <v>49.53873443603516</v>
+        <v>37.72476196289062</v>
       </c>
       <c r="D185" t="n">
-        <v>43.00656127929688</v>
+        <v>17.19724464416504</v>
       </c>
       <c r="E185" t="n">
-        <v>-39.46952819824219</v>
+        <v>-26.8546028137207</v>
       </c>
       <c r="F185" t="n">
-        <v>-34.35299682617188</v>
+        <v>-14.33778381347656</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>14.09473514556885</v>
+        <v>7.917866230010986</v>
       </c>
       <c r="B186" t="n">
-        <v>7.908102512359619</v>
+        <v>29.06453704833984</v>
       </c>
       <c r="C186" t="n">
-        <v>55.41385650634766</v>
+        <v>45.15476226806641</v>
       </c>
       <c r="D186" t="n">
-        <v>48.67633056640625</v>
+        <v>17.49912071228027</v>
       </c>
       <c r="E186" t="n">
-        <v>-37.00989151000977</v>
+        <v>-32.13311767578125</v>
       </c>
       <c r="F186" t="n">
-        <v>-29.74954605102539</v>
+        <v>-11.59620189666748</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>17.87320518493652</v>
+        <v>12.18301486968994</v>
       </c>
       <c r="B187" t="n">
-        <v>11.98399257659912</v>
+        <v>26.94800186157227</v>
       </c>
       <c r="C187" t="n">
-        <v>60.45475006103516</v>
+        <v>52.4495849609375</v>
       </c>
       <c r="D187" t="n">
-        <v>53.38909149169922</v>
+        <v>17.09406852722168</v>
       </c>
       <c r="E187" t="n">
-        <v>-32.63127136230469</v>
+        <v>-34.13929748535156</v>
       </c>
       <c r="F187" t="n">
-        <v>-24.6461353302002</v>
+        <v>-8.142831802368164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>21.66335296630859</v>
+        <v>16.62107467651367</v>
       </c>
       <c r="B188" t="n">
-        <v>15.97518539428711</v>
+        <v>24.80046081542969</v>
       </c>
       <c r="C188" t="n">
-        <v>64.48078918457031</v>
+        <v>58.58870315551758</v>
       </c>
       <c r="D188" t="n">
-        <v>56.85774993896484</v>
+        <v>16.3400764465332</v>
       </c>
       <c r="E188" t="n">
-        <v>-26.42461395263672</v>
+        <v>-32.56376647949219</v>
       </c>
       <c r="F188" t="n">
-        <v>-19.65178680419922</v>
+        <v>-4.457639217376709</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>25.33039093017578</v>
+        <v>20.84477424621582</v>
       </c>
       <c r="B189" t="n">
-        <v>19.99626159667969</v>
+        <v>22.80025291442871</v>
       </c>
       <c r="C189" t="n">
-        <v>67.23013305664062</v>
+        <v>62.81546783447266</v>
       </c>
       <c r="D189" t="n">
-        <v>59.21150970458984</v>
+        <v>15.72080039978027</v>
       </c>
       <c r="E189" t="n">
-        <v>-20.65417671203613</v>
+        <v>-28.01939392089844</v>
       </c>
       <c r="F189" t="n">
-        <v>-15.20480251312256</v>
+        <v>-0.9920084476470947</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>28.78563690185547</v>
+        <v>24.64621353149414</v>
       </c>
       <c r="B190" t="n">
-        <v>24.06471061706543</v>
+        <v>21.02242279052734</v>
       </c>
       <c r="C190" t="n">
-        <v>68.48863983154297</v>
+        <v>64.85031127929688</v>
       </c>
       <c r="D190" t="n">
-        <v>60.36347198486328</v>
+        <v>15.48723793029785</v>
       </c>
       <c r="E190" t="n">
-        <v>-14.77191352844238</v>
+        <v>-21.51840591430664</v>
       </c>
       <c r="F190" t="n">
-        <v>-10.49545669555664</v>
+        <v>2.10351037979126</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>31.74552154541016</v>
+        <v>27.97541809082031</v>
       </c>
       <c r="B191" t="n">
-        <v>27.60661506652832</v>
+        <v>19.43533134460449</v>
       </c>
       <c r="C191" t="n">
-        <v>68.48863983154297</v>
+        <v>64.85031127929688</v>
       </c>
       <c r="D191" t="n">
-        <v>60.36347198486328</v>
+        <v>15.63476657867432</v>
       </c>
       <c r="E191" t="n">
-        <v>-9.479459762573242</v>
+        <v>-14.29942512512207</v>
       </c>
       <c r="F191" t="n">
-        <v>-6.85149097442627</v>
+        <v>4.88301944732666</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>34.03627777099609</v>
+        <v>30.92256355285645</v>
       </c>
       <c r="B192" t="n">
-        <v>30.35446166992188</v>
+        <v>17.90103149414062</v>
       </c>
       <c r="C192" t="n">
-        <v>63.88113403320312</v>
+        <v>62.62001037597656</v>
       </c>
       <c r="D192" t="n">
-        <v>56.19567489624023</v>
+        <v>16.02295684814453</v>
       </c>
       <c r="E192" t="n">
-        <v>-5.66242790222168</v>
+        <v>-7.60599422454834</v>
       </c>
       <c r="F192" t="n">
-        <v>-5.095357894897461</v>
+        <v>7.558345317840576</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>35.72652053833008</v>
+        <v>33.6135139465332</v>
       </c>
       <c r="B193" t="n">
-        <v>32.41121673583984</v>
+        <v>16.27045822143555</v>
       </c>
       <c r="C193" t="n">
-        <v>58.15245819091797</v>
+        <v>58.78221130371094</v>
       </c>
       <c r="D193" t="n">
-        <v>50.9728889465332</v>
+        <v>16.50837898254395</v>
       </c>
       <c r="E193" t="n">
-        <v>-4.003323554992676</v>
+        <v>-2.30203104019165</v>
       </c>
       <c r="F193" t="n">
-        <v>-5.095357894897461</v>
+        <v>10.34294700622559</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>35.72652053833008</v>
+        <v>36.08547210693359</v>
       </c>
       <c r="B194" t="n">
-        <v>33.84275817871094</v>
+        <v>14.51577949523926</v>
       </c>
       <c r="C194" t="n">
-        <v>50.21054077148438</v>
+        <v>53.32889938354492</v>
       </c>
       <c r="D194" t="n">
-        <v>43.95213317871094</v>
+        <v>17.02189254760742</v>
       </c>
       <c r="E194" t="n">
-        <v>-2.917730093002319</v>
+        <v>1.172995328903198</v>
       </c>
       <c r="F194" t="n">
-        <v>-4.829368114471436</v>
+        <v>13.20633888244629</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>37.41817855834961</v>
+        <v>38.28404998779297</v>
       </c>
       <c r="B195" t="n">
-        <v>33.84275817871094</v>
+        <v>12.68662166595459</v>
       </c>
       <c r="C195" t="n">
-        <v>41.21047592163086</v>
+        <v>46.60308837890625</v>
       </c>
       <c r="D195" t="n">
-        <v>36.13250350952148</v>
+        <v>17.54612159729004</v>
       </c>
       <c r="E195" t="n">
-        <v>-5.88264799118042</v>
+        <v>2.697278499603271</v>
       </c>
       <c r="F195" t="n">
-        <v>-7.308185577392578</v>
+        <v>15.9665355682373</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>37.5898323059082</v>
+        <v>39.99578857421875</v>
       </c>
       <c r="B196" t="n">
-        <v>35.72231292724609</v>
+        <v>10.8975076675415</v>
       </c>
       <c r="C196" t="n">
-        <v>32.84914016723633</v>
+        <v>39.12610626220703</v>
       </c>
       <c r="D196" t="n">
-        <v>28.47140502929688</v>
+        <v>17.98709869384766</v>
       </c>
       <c r="E196" t="n">
-        <v>-9.867380142211914</v>
+        <v>2.697278499603271</v>
       </c>
       <c r="F196" t="n">
-        <v>-11.56748199462891</v>
+        <v>18.47620391845703</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>37.97886657714844</v>
+        <v>41.17084503173828</v>
       </c>
       <c r="B197" t="n">
-        <v>35.97992324829102</v>
+        <v>9.033487319946289</v>
       </c>
       <c r="C197" t="n">
-        <v>25.59582901000977</v>
+        <v>31.49698638916016</v>
       </c>
       <c r="D197" t="n">
-        <v>22.04520034790039</v>
+        <v>18.20992088317871</v>
       </c>
       <c r="E197" t="n">
-        <v>-12.86989593505859</v>
+        <v>0.7869603633880615</v>
       </c>
       <c r="F197" t="n">
-        <v>-14.14841842651367</v>
+        <v>20.93749618530273</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>37.66046905517578</v>
+        <v>41.17084503173828</v>
       </c>
       <c r="B198" t="n">
-        <v>36.18648529052734</v>
+        <v>7.078560352325439</v>
       </c>
       <c r="C198" t="n">
-        <v>19.09316253662109</v>
+        <v>24.39654159545898</v>
       </c>
       <c r="D198" t="n">
-        <v>16.77699851989746</v>
+        <v>18.05248069763184</v>
       </c>
       <c r="E198" t="n">
-        <v>-12.86989593505859</v>
+        <v>-1.60536527633667</v>
       </c>
       <c r="F198" t="n">
-        <v>-14.14841842651367</v>
+        <v>23.23930358886719</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>36.56678771972656</v>
+        <v>42.28834533691406</v>
       </c>
       <c r="B199" t="n">
-        <v>35.92433166503906</v>
+        <v>5.018374919891357</v>
       </c>
       <c r="C199" t="n">
-        <v>12.57622146606445</v>
+        <v>18.30943870544434</v>
       </c>
       <c r="D199" t="n">
-        <v>11.38032722473145</v>
+        <v>17.58370018005371</v>
       </c>
       <c r="E199" t="n">
-        <v>-10.47505760192871</v>
+        <v>-4.324676513671875</v>
       </c>
       <c r="F199" t="n">
-        <v>-14.56708526611328</v>
+        <v>25.1999397277832</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>37.35934066772461</v>
+        <v>42.1858024597168</v>
       </c>
       <c r="B200" t="n">
-        <v>36.69836044311523</v>
+        <v>3.140239715576172</v>
       </c>
       <c r="C200" t="n">
-        <v>8.390382766723633</v>
+        <v>13.4518871307373</v>
       </c>
       <c r="D200" t="n">
-        <v>8.224454879760742</v>
+        <v>17.34715461730957</v>
       </c>
       <c r="E200" t="n">
-        <v>-10.47505760192871</v>
+        <v>-7.171178817749023</v>
       </c>
       <c r="F200" t="n">
-        <v>-14.18260288238525</v>
+        <v>26.40106582641602</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>39.0960807800293</v>
+        <v>41.79207992553711</v>
       </c>
       <c r="B201" t="n">
-        <v>38.47800445556641</v>
+        <v>1.45500123500824</v>
       </c>
       <c r="C201" t="n">
-        <v>5.765722751617432</v>
+        <v>9.548040390014648</v>
       </c>
       <c r="D201" t="n">
-        <v>5.988461017608643</v>
+        <v>17.90814208984375</v>
       </c>
       <c r="E201" t="n">
-        <v>-10.00057029724121</v>
+        <v>-10.56787300109863</v>
       </c>
       <c r="F201" t="n">
-        <v>-14.18260288238525</v>
+        <v>26.40106582641602</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>39.0960807800293</v>
+        <v>38.3596076965332</v>
       </c>
       <c r="B202" t="n">
-        <v>38.47800445556641</v>
+        <v>1.45500123500824</v>
       </c>
       <c r="C202" t="n">
-        <v>7.074713706970215</v>
+        <v>7.421690464019775</v>
       </c>
       <c r="D202" t="n">
-        <v>5.988461017608643</v>
+        <v>20.47841453552246</v>
       </c>
       <c r="E202" t="n">
-        <v>-12.30413436889648</v>
+        <v>-11.76131343841553</v>
       </c>
       <c r="F202" t="n">
-        <v>-12.78927993774414</v>
+        <v>26.55609512329102</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>39.59894943237305</v>
+        <v>35.1968994140625</v>
       </c>
       <c r="B203" t="n">
-        <v>37.42320251464844</v>
+        <v>0.5611999034881592</v>
       </c>
       <c r="C203" t="n">
-        <v>8.980669021606445</v>
+        <v>5.428238391876221</v>
       </c>
       <c r="D203" t="n">
-        <v>8.513262748718262</v>
+        <v>21.6014461517334</v>
       </c>
       <c r="E203" t="n">
-        <v>-16.87624549865723</v>
+        <v>-12.97110176086426</v>
       </c>
       <c r="F203" t="n">
-        <v>-14.56124210357666</v>
+        <v>26.55609512329102</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>41.75473785400391</v>
+        <v>34.12235260009766</v>
       </c>
       <c r="B204" t="n">
-        <v>41.21662139892578</v>
+        <v>0.5611999034881592</v>
       </c>
       <c r="C204" t="n">
-        <v>10.76921367645264</v>
+        <v>6.732729911804199</v>
       </c>
       <c r="D204" t="n">
-        <v>11.2033166885376</v>
+        <v>22.780517578125</v>
       </c>
       <c r="E204" t="n">
-        <v>-16.87624549865723</v>
+        <v>-12.97110176086426</v>
       </c>
       <c r="F204" t="n">
-        <v>-15.95665836334229</v>
+        <v>18.28729057312012</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>41.75473785400391</v>
+        <v>34.12235260009766</v>
       </c>
       <c r="B205" t="n">
-        <v>41.21662139892578</v>
+        <v>0.02381402067840099</v>
       </c>
       <c r="C205" t="n">
-        <v>10.76921367645264</v>
+        <v>6.732729911804199</v>
       </c>
       <c r="D205" t="n">
-        <v>11.2033166885376</v>
+        <v>22.780517578125</v>
       </c>
       <c r="E205" t="n">
-        <v>-16.73422431945801</v>
+        <v>-14.922532081604</v>
       </c>
       <c r="F205" t="n">
-        <v>-15.95665836334229</v>
+        <v>18.28729057312012</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/timestamps_typical_lstm.xlsx
+++ b/Predictions/timestamps_typical_lstm.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.03894805908203</v>
+        <v>40.58745956420898</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6142757534980774</v>
+        <v>0.8867939114570618</v>
       </c>
       <c r="C2" t="n">
-        <v>8.037221908569336</v>
+        <v>12.08703899383545</v>
       </c>
       <c r="D2" t="n">
-        <v>23.58102798461914</v>
+        <v>23.75618553161621</v>
       </c>
       <c r="E2" t="n">
-        <v>-18.15736198425293</v>
+        <v>-18.31516456604004</v>
       </c>
       <c r="F2" t="n">
-        <v>2.997123241424561</v>
+        <v>2.761018753051758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36.03894805908203</v>
+        <v>40.06315994262695</v>
       </c>
       <c r="B3" t="n">
-        <v>1.714654684066772</v>
+        <v>0.03179627284407616</v>
       </c>
       <c r="C3" t="n">
-        <v>6.997380256652832</v>
+        <v>9.676122665405273</v>
       </c>
       <c r="D3" t="n">
-        <v>26.12835311889648</v>
+        <v>25.96328735351562</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.45382308959961</v>
+        <v>-20.99536895751953</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.958991050720215</v>
+        <v>-3.934054851531982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35.20375823974609</v>
+        <v>37.58836364746094</v>
       </c>
       <c r="B4" t="n">
-        <v>3.546465396881104</v>
+        <v>2.139946699142456</v>
       </c>
       <c r="C4" t="n">
-        <v>5.717835426330566</v>
+        <v>8.130587577819824</v>
       </c>
       <c r="D4" t="n">
-        <v>30.15257453918457</v>
+        <v>30.15251731872559</v>
       </c>
       <c r="E4" t="n">
-        <v>-24.44829177856445</v>
+        <v>-23.20020294189453</v>
       </c>
       <c r="F4" t="n">
-        <v>-15.00921249389648</v>
+        <v>-14.09964942932129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33.54740142822266</v>
+        <v>34.67665863037109</v>
       </c>
       <c r="B5" t="n">
-        <v>5.91053581237793</v>
+        <v>4.851325035095215</v>
       </c>
       <c r="C5" t="n">
-        <v>5.14775562286377</v>
+        <v>6.551449775695801</v>
       </c>
       <c r="D5" t="n">
-        <v>35.52682495117188</v>
+        <v>35.01558303833008</v>
       </c>
       <c r="E5" t="n">
-        <v>-26.15268325805664</v>
+        <v>-25.5729808807373</v>
       </c>
       <c r="F5" t="n">
-        <v>-22.87570953369141</v>
+        <v>-22.6218318939209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31.80204391479492</v>
+        <v>31.76029586791992</v>
       </c>
       <c r="B6" t="n">
-        <v>8.702297210693359</v>
+        <v>8.296825408935547</v>
       </c>
       <c r="C6" t="n">
-        <v>5.409798622131348</v>
+        <v>5.853751182556152</v>
       </c>
       <c r="D6" t="n">
-        <v>41.73285675048828</v>
+        <v>40.64281463623047</v>
       </c>
       <c r="E6" t="n">
-        <v>-26.15268325805664</v>
+        <v>-26.74900436401367</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.29871368408203</v>
+        <v>-29.5274600982666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.93843078613281</v>
+        <v>29.32933807373047</v>
       </c>
       <c r="B7" t="n">
-        <v>12.00015449523926</v>
+        <v>12.11007404327393</v>
       </c>
       <c r="C7" t="n">
-        <v>5.729128837585449</v>
+        <v>5.917643547058105</v>
       </c>
       <c r="D7" t="n">
-        <v>48.23101806640625</v>
+        <v>47.05568695068359</v>
       </c>
       <c r="E7" t="n">
-        <v>-25.56162643432617</v>
+        <v>-26.50351905822754</v>
       </c>
       <c r="F7" t="n">
-        <v>-30.95992279052734</v>
+        <v>-33.42221450805664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27.95167541503906</v>
+        <v>27.24218559265137</v>
       </c>
       <c r="B8" t="n">
-        <v>15.75363540649414</v>
+        <v>16.34908294677734</v>
       </c>
       <c r="C8" t="n">
-        <v>5.916924476623535</v>
+        <v>6.429293632507324</v>
       </c>
       <c r="D8" t="n">
-        <v>54.452392578125</v>
+        <v>53.83004379272461</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.54184341430664</v>
+        <v>-24.74226951599121</v>
       </c>
       <c r="F8" t="n">
-        <v>-30.95992279052734</v>
+        <v>-33.78396606445312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.86536407470703</v>
+        <v>25.37138366699219</v>
       </c>
       <c r="B9" t="n">
-        <v>19.86633682250977</v>
+        <v>20.716552734375</v>
       </c>
       <c r="C9" t="n">
-        <v>5.88090991973877</v>
+        <v>6.780753135681152</v>
       </c>
       <c r="D9" t="n">
-        <v>59.92965316772461</v>
+        <v>59.96232604980469</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.75468635559082</v>
+        <v>-21.73634338378906</v>
       </c>
       <c r="F9" t="n">
-        <v>-28.0081901550293</v>
+        <v>-30.83204650878906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23.75477409362793</v>
+        <v>23.52407264709473</v>
       </c>
       <c r="B10" t="n">
-        <v>24.14369964599609</v>
+        <v>25.10182762145996</v>
       </c>
       <c r="C10" t="n">
-        <v>5.947474479675293</v>
+        <v>6.893895149230957</v>
       </c>
       <c r="D10" t="n">
-        <v>64.19496154785156</v>
+        <v>64.60267639160156</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.34037780761719</v>
+        <v>-17.92211151123047</v>
       </c>
       <c r="F10" t="n">
-        <v>-23.43742752075195</v>
+        <v>-25.49506950378418</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.73808097839355</v>
+        <v>21.61934471130371</v>
       </c>
       <c r="B11" t="n">
-        <v>28.39494132995605</v>
+        <v>29.35572052001953</v>
       </c>
       <c r="C11" t="n">
-        <v>6.119256019592285</v>
+        <v>6.825636863708496</v>
       </c>
       <c r="D11" t="n">
-        <v>66.92414855957031</v>
+        <v>67.27052307128906</v>
       </c>
       <c r="E11" t="n">
-        <v>-13.70459365844727</v>
+        <v>-13.73471069335938</v>
       </c>
       <c r="F11" t="n">
-        <v>-18.07406234741211</v>
+        <v>-19.05659866333008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19.80633544921875</v>
+        <v>19.77355194091797</v>
       </c>
       <c r="B12" t="n">
-        <v>32.46023941040039</v>
+        <v>33.32263565063477</v>
       </c>
       <c r="C12" t="n">
-        <v>6.243670463562012</v>
+        <v>6.736445426940918</v>
       </c>
       <c r="D12" t="n">
-        <v>68.00417327880859</v>
+        <v>68.08232116699219</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.19233894348145</v>
+        <v>-9.708331108093262</v>
       </c>
       <c r="F12" t="n">
-        <v>-12.70380210876465</v>
+        <v>-13.02120113372803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17.95169067382812</v>
+        <v>18.00176429748535</v>
       </c>
       <c r="B13" t="n">
-        <v>36.32928085327148</v>
+        <v>36.93646621704102</v>
       </c>
       <c r="C13" t="n">
-        <v>6.336995124816895</v>
+        <v>6.73319149017334</v>
       </c>
       <c r="D13" t="n">
-        <v>68.00417327880859</v>
+        <v>67.3685302734375</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.489086151123047</v>
+        <v>-6.300175189971924</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.030544281005859</v>
+        <v>-7.820785045623779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16.15594291687012</v>
+        <v>16.2067928314209</v>
       </c>
       <c r="B14" t="n">
-        <v>39.8616943359375</v>
+        <v>40.43976593017578</v>
       </c>
       <c r="C14" t="n">
-        <v>6.601866722106934</v>
+        <v>7.081196784973145</v>
       </c>
       <c r="D14" t="n">
-        <v>65.27773284912109</v>
+        <v>65.28467559814453</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.80544900894165</v>
+        <v>-2.687369346618652</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.089874744415283</v>
+        <v>-3.901799201965332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.48120498657227</v>
+        <v>14.51883029937744</v>
       </c>
       <c r="B15" t="n">
-        <v>42.90612030029297</v>
+        <v>43.40882873535156</v>
       </c>
       <c r="C15" t="n">
-        <v>6.782666206359863</v>
+        <v>7.38295841217041</v>
       </c>
       <c r="D15" t="n">
-        <v>62.11005020141602</v>
+        <v>61.91131210327148</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6930758953094482</v>
+        <v>0.7659215927124023</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9942739009857178</v>
+        <v>-0.7154913544654846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.89150428771973</v>
+        <v>12.94384670257568</v>
       </c>
       <c r="B16" t="n">
-        <v>45.37401580810547</v>
+        <v>45.79115295410156</v>
       </c>
       <c r="C16" t="n">
-        <v>7.020255088806152</v>
+        <v>7.666611671447754</v>
       </c>
       <c r="D16" t="n">
-        <v>57.67936706542969</v>
+        <v>57.42268371582031</v>
       </c>
       <c r="E16" t="n">
-        <v>4.113767623901367</v>
+        <v>3.992936134338379</v>
       </c>
       <c r="F16" t="n">
-        <v>1.113238930702209</v>
+        <v>1.570327162742615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.33214473724365</v>
+        <v>11.41453552246094</v>
       </c>
       <c r="B17" t="n">
-        <v>47.26784515380859</v>
+        <v>47.61782073974609</v>
       </c>
       <c r="C17" t="n">
-        <v>7.474247932434082</v>
+        <v>8.092995643615723</v>
       </c>
       <c r="D17" t="n">
-        <v>52.18336486816406</v>
+        <v>51.99833297729492</v>
       </c>
       <c r="E17" t="n">
-        <v>7.282259464263916</v>
+        <v>7.212798118591309</v>
       </c>
       <c r="F17" t="n">
-        <v>1.113238930702209</v>
+        <v>2.742454528808594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.865818977355957</v>
+        <v>9.900879859924316</v>
       </c>
       <c r="B18" t="n">
-        <v>48.56900787353516</v>
+        <v>48.8668212890625</v>
       </c>
       <c r="C18" t="n">
-        <v>7.981310844421387</v>
+        <v>8.598849296569824</v>
       </c>
       <c r="D18" t="n">
-        <v>46.0108642578125</v>
+        <v>45.90219879150391</v>
       </c>
       <c r="E18" t="n">
-        <v>10.16807270050049</v>
+        <v>10.16407489776611</v>
       </c>
       <c r="F18" t="n">
-        <v>2.864996910095215</v>
+        <v>2.636423110961914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.455141067504883</v>
+        <v>8.488165855407715</v>
       </c>
       <c r="B19" t="n">
-        <v>48.56900787353516</v>
+        <v>49.50019073486328</v>
       </c>
       <c r="C19" t="n">
-        <v>8.585824012756348</v>
+        <v>9.23106861114502</v>
       </c>
       <c r="D19" t="n">
-        <v>39.49019622802734</v>
+        <v>39.48233032226562</v>
       </c>
       <c r="E19" t="n">
-        <v>13.11595916748047</v>
+        <v>12.73895168304443</v>
       </c>
       <c r="F19" t="n">
-        <v>1.858780741691589</v>
+        <v>1.823858141899109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.08048152923584</v>
+        <v>7.131960391998291</v>
       </c>
       <c r="B20" t="n">
-        <v>50.02639770507812</v>
+        <v>49.63572311401367</v>
       </c>
       <c r="C20" t="n">
-        <v>9.336857795715332</v>
+        <v>10.05772304534912</v>
       </c>
       <c r="D20" t="n">
-        <v>32.94969940185547</v>
+        <v>33.01689910888672</v>
       </c>
       <c r="E20" t="n">
-        <v>15.6789379119873</v>
+        <v>15.43740749359131</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7478241324424744</v>
+        <v>0.7839421629905701</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.769618988037109</v>
+        <v>5.843428134918213</v>
       </c>
       <c r="B21" t="n">
-        <v>49.70098114013672</v>
+        <v>49.23948669433594</v>
       </c>
       <c r="C21" t="n">
-        <v>10.01262760162354</v>
+        <v>10.82760334014893</v>
       </c>
       <c r="D21" t="n">
-        <v>26.88773727416992</v>
+        <v>26.82496643066406</v>
       </c>
       <c r="E21" t="n">
-        <v>17.92512702941895</v>
+        <v>17.6109676361084</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.10061240196228</v>
+        <v>-0.6708670258522034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.437374114990234</v>
+        <v>4.657169818878174</v>
       </c>
       <c r="B22" t="n">
-        <v>49.05825424194336</v>
+        <v>48.5578727722168</v>
       </c>
       <c r="C22" t="n">
-        <v>10.83799839019775</v>
+        <v>11.7452917098999</v>
       </c>
       <c r="D22" t="n">
-        <v>21.72886276245117</v>
+        <v>21.46671295166016</v>
       </c>
       <c r="E22" t="n">
-        <v>19.91787338256836</v>
+        <v>19.43150901794434</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.399372100830078</v>
+        <v>-2.923719644546509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.09443211555481</v>
+        <v>3.496273517608643</v>
       </c>
       <c r="B23" t="n">
-        <v>48.27727890014648</v>
+        <v>47.76018142700195</v>
       </c>
       <c r="C23" t="n">
-        <v>11.87949275970459</v>
+        <v>12.87051773071289</v>
       </c>
       <c r="D23" t="n">
-        <v>17.71634292602539</v>
+        <v>17.28787803649902</v>
       </c>
       <c r="E23" t="n">
-        <v>21.42509078979492</v>
+        <v>20.98664474487305</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.556490898132324</v>
+        <v>-6.050459384918213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.782447695732117</v>
+        <v>2.412699222564697</v>
       </c>
       <c r="B24" t="n">
-        <v>47.08718872070312</v>
+        <v>46.62874603271484</v>
       </c>
       <c r="C24" t="n">
-        <v>12.85127544403076</v>
+        <v>13.92613410949707</v>
       </c>
       <c r="D24" t="n">
-        <v>14.94254493713379</v>
+        <v>14.29296207427979</v>
       </c>
       <c r="E24" t="n">
-        <v>21.42509078979492</v>
+        <v>21.72187423706055</v>
       </c>
       <c r="F24" t="n">
-        <v>-8.393856048583984</v>
+        <v>-8.422444343566895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5386288166046143</v>
+        <v>1.384508609771729</v>
       </c>
       <c r="B25" t="n">
-        <v>45.59277725219727</v>
+        <v>45.32087707519531</v>
       </c>
       <c r="C25" t="n">
-        <v>13.91864395141602</v>
+        <v>15.01962471008301</v>
       </c>
       <c r="D25" t="n">
-        <v>13.27206897735596</v>
+        <v>12.49791812896729</v>
       </c>
       <c r="E25" t="n">
-        <v>22.74353218078613</v>
+        <v>21.44763946533203</v>
       </c>
       <c r="F25" t="n">
-        <v>-10.38177299499512</v>
+        <v>-10.2144775390625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5971089601516724</v>
+        <v>0.3977933526039124</v>
       </c>
       <c r="B26" t="n">
-        <v>43.88796234130859</v>
+        <v>43.87241744995117</v>
       </c>
       <c r="C26" t="n">
-        <v>15.25716876983643</v>
+        <v>16.2972526550293</v>
       </c>
       <c r="D26" t="n">
-        <v>13.27206897735596</v>
+        <v>11.70077705383301</v>
       </c>
       <c r="E26" t="n">
-        <v>19.27075958251953</v>
+        <v>19.90960311889648</v>
       </c>
       <c r="F26" t="n">
-        <v>-12.93849849700928</v>
+        <v>-12.18786907196045</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.5971089601516724</v>
+        <v>-0.5093702673912048</v>
       </c>
       <c r="B27" t="n">
-        <v>42.13195037841797</v>
+        <v>42.30523300170898</v>
       </c>
       <c r="C27" t="n">
-        <v>17.91800308227539</v>
+        <v>17.84890937805176</v>
       </c>
       <c r="D27" t="n">
-        <v>11.95859813690186</v>
+        <v>11.84491348266602</v>
       </c>
       <c r="E27" t="n">
-        <v>15.36045455932617</v>
+        <v>16.53402519226074</v>
       </c>
       <c r="F27" t="n">
-        <v>-15.64029312133789</v>
+        <v>-14.9124174118042</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2.494269847869873</v>
+        <v>-1.192855358123779</v>
       </c>
       <c r="B28" t="n">
-        <v>39.15771484375</v>
+        <v>40.53305816650391</v>
       </c>
       <c r="C28" t="n">
-        <v>19.98942375183105</v>
+        <v>19.97000694274902</v>
       </c>
       <c r="D28" t="n">
-        <v>13.00138378143311</v>
+        <v>12.73490333557129</v>
       </c>
       <c r="E28" t="n">
-        <v>9.00689697265625</v>
+        <v>10.63206577301025</v>
       </c>
       <c r="F28" t="n">
-        <v>-17.70508766174316</v>
+        <v>-17.72073936462402</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2.711242198944092</v>
+        <v>-1.431735515594482</v>
       </c>
       <c r="B29" t="n">
-        <v>37.47114562988281</v>
+        <v>38.45192718505859</v>
       </c>
       <c r="C29" t="n">
-        <v>23.07848358154297</v>
+        <v>22.91601371765137</v>
       </c>
       <c r="D29" t="n">
-        <v>14.17453670501709</v>
+        <v>13.92805290222168</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1791954040527344</v>
+        <v>1.84028148651123</v>
       </c>
       <c r="F29" t="n">
-        <v>-17.70508766174316</v>
+        <v>-19.46821975708008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2.14215612411499</v>
+        <v>-1.001405239105225</v>
       </c>
       <c r="B30" t="n">
-        <v>35.59181976318359</v>
+        <v>36.19764709472656</v>
       </c>
       <c r="C30" t="n">
-        <v>27.31316184997559</v>
+        <v>26.88250923156738</v>
       </c>
       <c r="D30" t="n">
-        <v>15.31420803070068</v>
+        <v>15.20409297943115</v>
       </c>
       <c r="E30" t="n">
-        <v>-10.02322483062744</v>
+        <v>-9.417689323425293</v>
       </c>
       <c r="F30" t="n">
-        <v>-18.65726852416992</v>
+        <v>-18.87002563476562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7421431541442871</v>
+        <v>0.1954274773597717</v>
       </c>
       <c r="B31" t="n">
-        <v>33.72786712646484</v>
+        <v>34.1579704284668</v>
       </c>
       <c r="C31" t="n">
-        <v>32.77052307128906</v>
+        <v>32.08404922485352</v>
       </c>
       <c r="D31" t="n">
-        <v>16.18461799621582</v>
+        <v>16.28517723083496</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.93718528747559</v>
+        <v>-20.82719039916992</v>
       </c>
       <c r="F31" t="n">
-        <v>-17.83665657043457</v>
+        <v>-17.8616886138916</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.118407249450684</v>
+        <v>2.344955921173096</v>
       </c>
       <c r="B32" t="n">
-        <v>31.81982421875</v>
+        <v>32.2210693359375</v>
       </c>
       <c r="C32" t="n">
-        <v>39.21832275390625</v>
+        <v>38.38966369628906</v>
       </c>
       <c r="D32" t="n">
-        <v>16.75424003601074</v>
+        <v>16.98542594909668</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.14924621582031</v>
+        <v>-30.44510650634766</v>
       </c>
       <c r="F32" t="n">
-        <v>-14.71398544311523</v>
+        <v>-16.15509986877441</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.454208374023438</v>
+        <v>5.516407489776611</v>
       </c>
       <c r="B33" t="n">
-        <v>29.72602462768555</v>
+        <v>30.17412567138672</v>
       </c>
       <c r="C33" t="n">
-        <v>46.1712760925293</v>
+        <v>45.36346817016602</v>
       </c>
       <c r="D33" t="n">
-        <v>17.12908935546875</v>
+        <v>17.37182235717773</v>
       </c>
       <c r="E33" t="n">
-        <v>-33.84451293945312</v>
+        <v>-36.85154724121094</v>
       </c>
       <c r="F33" t="n">
-        <v>-11.94758224487305</v>
+        <v>-13.25006866455078</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.46527671813965</v>
+        <v>9.624814033508301</v>
       </c>
       <c r="B34" t="n">
-        <v>27.53669929504395</v>
+        <v>27.76595687866211</v>
       </c>
       <c r="C34" t="n">
-        <v>52.91572570800781</v>
+        <v>52.32564544677734</v>
       </c>
       <c r="D34" t="n">
-        <v>17.11174011230469</v>
+        <v>17.29573822021484</v>
       </c>
       <c r="E34" t="n">
-        <v>-36.00296783447266</v>
+        <v>-39.74166107177734</v>
       </c>
       <c r="F34" t="n">
-        <v>-8.440975189208984</v>
+        <v>-9.297991752624512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14.76383781433105</v>
+        <v>14.26463985443115</v>
       </c>
       <c r="B35" t="n">
-        <v>25.39884757995605</v>
+        <v>25.44990158081055</v>
       </c>
       <c r="C35" t="n">
-        <v>58.6691780090332</v>
+        <v>58.6770133972168</v>
       </c>
       <c r="D35" t="n">
-        <v>16.99109268188477</v>
+        <v>17.09265327453613</v>
       </c>
       <c r="E35" t="n">
-        <v>-34.50022125244141</v>
+        <v>-38.21818542480469</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.721022129058838</v>
+        <v>-5.119259834289551</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.15446853637695</v>
+        <v>18.97448921203613</v>
       </c>
       <c r="B36" t="n">
-        <v>23.34489440917969</v>
+        <v>23.24752998352051</v>
       </c>
       <c r="C36" t="n">
-        <v>62.94577026367188</v>
+        <v>63.53732299804688</v>
       </c>
       <c r="D36" t="n">
-        <v>16.81653594970703</v>
+        <v>16.74874877929688</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.79604721069336</v>
+        <v>-33.06360244750977</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.251790285110474</v>
+        <v>-1.197786450386047</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23.42005348205566</v>
+        <v>23.49725532531738</v>
       </c>
       <c r="B37" t="n">
-        <v>21.38169097900391</v>
+        <v>21.18227767944336</v>
       </c>
       <c r="C37" t="n">
-        <v>65.34006500244141</v>
+        <v>66.42387390136719</v>
       </c>
       <c r="D37" t="n">
-        <v>16.68989372253418</v>
+        <v>16.36051368713379</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.75295066833496</v>
+        <v>-25.35874557495117</v>
       </c>
       <c r="F37" t="n">
-        <v>1.96791684627533</v>
+        <v>1.988709330558777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27.34512519836426</v>
+        <v>27.56880760192871</v>
       </c>
       <c r="B38" t="n">
-        <v>19.54312324523926</v>
+        <v>19.30747032165527</v>
       </c>
       <c r="C38" t="n">
-        <v>65.34006500244141</v>
+        <v>66.95178985595703</v>
       </c>
       <c r="D38" t="n">
-        <v>16.59810829162598</v>
+        <v>16.10310554504395</v>
       </c>
       <c r="E38" t="n">
-        <v>-14.81731796264648</v>
+        <v>-16.34339714050293</v>
       </c>
       <c r="F38" t="n">
-        <v>4.917727470397949</v>
+        <v>4.766964912414551</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>30.78981018066406</v>
+        <v>31.0212230682373</v>
       </c>
       <c r="B39" t="n">
-        <v>17.77256202697754</v>
+        <v>17.62799835205078</v>
       </c>
       <c r="C39" t="n">
-        <v>63.61927795410156</v>
+        <v>64.91223907470703</v>
       </c>
       <c r="D39" t="n">
-        <v>16.69516754150391</v>
+        <v>16.12385368347168</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.61473560333252</v>
+        <v>-7.790534973144531</v>
       </c>
       <c r="F39" t="n">
-        <v>7.795205593109131</v>
+        <v>7.286768913269043</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>33.71642303466797</v>
+        <v>33.84487533569336</v>
       </c>
       <c r="B40" t="n">
-        <v>16.02443885803223</v>
+        <v>15.98354816436768</v>
       </c>
       <c r="C40" t="n">
-        <v>59.55453109741211</v>
+        <v>60.54283142089844</v>
       </c>
       <c r="D40" t="n">
-        <v>16.90166091918945</v>
+        <v>16.35540962219238</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.09343433380127</v>
+        <v>-1.332598686218262</v>
       </c>
       <c r="F40" t="n">
-        <v>10.68288421630859</v>
+        <v>9.926812171936035</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36.16527557373047</v>
+        <v>36.11183166503906</v>
       </c>
       <c r="B41" t="n">
-        <v>14.28197288513184</v>
+        <v>14.37719249725342</v>
       </c>
       <c r="C41" t="n">
-        <v>53.97732543945312</v>
+        <v>54.52942276000977</v>
       </c>
       <c r="D41" t="n">
-        <v>17.1624813079834</v>
+        <v>16.70087432861328</v>
       </c>
       <c r="E41" t="n">
-        <v>1.3609299659729</v>
+        <v>2.57388973236084</v>
       </c>
       <c r="F41" t="n">
-        <v>13.43583965301514</v>
+        <v>12.66794013977051</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>38.1551513671875</v>
+        <v>37.94437408447266</v>
       </c>
       <c r="B42" t="n">
-        <v>12.48591804504395</v>
+        <v>12.73901271820068</v>
       </c>
       <c r="C42" t="n">
-        <v>47.34898376464844</v>
+        <v>47.49581146240234</v>
       </c>
       <c r="D42" t="n">
-        <v>17.33042144775391</v>
+        <v>16.97276496887207</v>
       </c>
       <c r="E42" t="n">
-        <v>2.823069334030151</v>
+        <v>4.079957962036133</v>
       </c>
       <c r="F42" t="n">
-        <v>16.02535820007324</v>
+        <v>15.25512313842773</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>39.57994079589844</v>
+        <v>39.41432952880859</v>
       </c>
       <c r="B43" t="n">
-        <v>10.72709083557129</v>
+        <v>10.96400165557861</v>
       </c>
       <c r="C43" t="n">
-        <v>40.15754318237305</v>
+        <v>39.91458511352539</v>
       </c>
       <c r="D43" t="n">
-        <v>17.44008636474609</v>
+        <v>17.15345573425293</v>
       </c>
       <c r="E43" t="n">
-        <v>2.823069334030151</v>
+        <v>3.61319637298584</v>
       </c>
       <c r="F43" t="n">
-        <v>18.46979141235352</v>
+        <v>17.68098449707031</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>39.57994079589844</v>
+        <v>40.28484725952148</v>
       </c>
       <c r="B44" t="n">
-        <v>8.932518005371094</v>
+        <v>9.361184120178223</v>
       </c>
       <c r="C44" t="n">
-        <v>32.77846145629883</v>
+        <v>32.35013961791992</v>
       </c>
       <c r="D44" t="n">
-        <v>17.54800033569336</v>
+        <v>17.34447479248047</v>
       </c>
       <c r="E44" t="n">
-        <v>1.220783948898315</v>
+        <v>1.90674877166748</v>
       </c>
       <c r="F44" t="n">
-        <v>20.77778625488281</v>
+        <v>19.91143798828125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>41.48111724853516</v>
+        <v>40.72898101806641</v>
       </c>
       <c r="B45" t="n">
-        <v>7.166913509368896</v>
+        <v>7.616332054138184</v>
       </c>
       <c r="C45" t="n">
-        <v>25.6973705291748</v>
+        <v>24.99442100524902</v>
       </c>
       <c r="D45" t="n">
-        <v>17.57895278930664</v>
+        <v>17.48666381835938</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.03148877620697</v>
+        <v>-0.7595391273498535</v>
       </c>
       <c r="F45" t="n">
-        <v>22.92355346679688</v>
+        <v>21.96056175231934</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>41.4832649230957</v>
+        <v>40.60283660888672</v>
       </c>
       <c r="B46" t="n">
-        <v>5.386115074157715</v>
+        <v>6.045483589172363</v>
       </c>
       <c r="C46" t="n">
-        <v>19.27291297912598</v>
+        <v>18.44611167907715</v>
       </c>
       <c r="D46" t="n">
-        <v>17.58085632324219</v>
+        <v>17.66586685180664</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.776122570037842</v>
+        <v>-3.846932649612427</v>
       </c>
       <c r="F46" t="n">
-        <v>24.84303665161133</v>
+        <v>23.70335578918457</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>41.44081497192383</v>
+        <v>40.31265640258789</v>
       </c>
       <c r="B47" t="n">
-        <v>3.735111236572266</v>
+        <v>4.340376853942871</v>
       </c>
       <c r="C47" t="n">
-        <v>13.82675170898438</v>
+        <v>12.91252517700195</v>
       </c>
       <c r="D47" t="n">
-        <v>17.67112922668457</v>
+        <v>17.85256958007812</v>
       </c>
       <c r="E47" t="n">
-        <v>-6.82591438293457</v>
+        <v>-7.1260666847229</v>
       </c>
       <c r="F47" t="n">
-        <v>26.28242874145508</v>
+        <v>25.15239906311035</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>41.00300216674805</v>
+        <v>39.85752868652344</v>
       </c>
       <c r="B48" t="n">
-        <v>2.168074131011963</v>
+        <v>2.853882551193237</v>
       </c>
       <c r="C48" t="n">
-        <v>9.419933319091797</v>
+        <v>8.728196144104004</v>
       </c>
       <c r="D48" t="n">
-        <v>18.18652534484863</v>
+        <v>18.25897598266602</v>
       </c>
       <c r="E48" t="n">
-        <v>-10.32463932037354</v>
+        <v>-10.48021697998047</v>
       </c>
       <c r="F48" t="n">
-        <v>27.28976821899414</v>
+        <v>26.20602989196777</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>37.67274475097656</v>
+        <v>39.32722473144531</v>
       </c>
       <c r="B49" t="n">
-        <v>2.168074131011963</v>
+        <v>1.449377775192261</v>
       </c>
       <c r="C49" t="n">
-        <v>6.443475246429443</v>
+        <v>5.718581199645996</v>
       </c>
       <c r="D49" t="n">
-        <v>19.1325569152832</v>
+        <v>18.91689491271973</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.32303237915039</v>
+        <v>-14.1433744430542</v>
       </c>
       <c r="F49" t="n">
-        <v>27.28976821899414</v>
+        <v>26.97771263122559</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34.02322387695312</v>
+        <v>36.23051452636719</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3382022976875305</v>
+        <v>2.361735105514526</v>
       </c>
       <c r="C50" t="n">
-        <v>4.458624839782715</v>
+        <v>4.799372673034668</v>
       </c>
       <c r="D50" t="n">
-        <v>20.38516426086426</v>
+        <v>19.93947982788086</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.5597038269043</v>
+        <v>-14.87781143188477</v>
       </c>
       <c r="F50" t="n">
-        <v>27.42975044250488</v>
+        <v>25.99186515808105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29.72359466552734</v>
+        <v>32.92019653320312</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.037501573562622</v>
+        <v>1.325983762741089</v>
       </c>
       <c r="C51" t="n">
-        <v>4.458624839782715</v>
+        <v>3.315829038619995</v>
       </c>
       <c r="D51" t="n">
-        <v>23.76231384277344</v>
+        <v>20.61335182189941</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.5597038269043</v>
+        <v>-15.42813587188721</v>
       </c>
       <c r="F51" t="n">
-        <v>21.14334869384766</v>
+        <v>24.13013076782227</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>34.96250152587891</v>
+        <v>28.11312484741211</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1240207850933075</v>
+        <v>1.120484113693237</v>
       </c>
       <c r="C52" t="n">
-        <v>8.806541442871094</v>
+        <v>2.931515455245972</v>
       </c>
       <c r="D52" t="n">
-        <v>23.76231384277344</v>
+        <v>22.25536346435547</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.26510238647461</v>
+        <v>-15.57353019714355</v>
       </c>
       <c r="F52" t="n">
-        <v>13.52364540100098</v>
+        <v>19.24798011779785</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>37.43642425537109</v>
+        <v>40.37047958374023</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1240207850933075</v>
+        <v>1.774418592453003</v>
       </c>
       <c r="C53" t="n">
-        <v>8.806541442871094</v>
+        <v>13.84134101867676</v>
       </c>
       <c r="D53" t="n">
-        <v>24.78974914550781</v>
+        <v>24.65886878967285</v>
       </c>
       <c r="E53" t="n">
-        <v>-18.57987022399902</v>
+        <v>-17.96604919433594</v>
       </c>
       <c r="F53" t="n">
-        <v>4.957842826843262</v>
+        <v>1.430508017539978</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>37.43642425537109</v>
+        <v>41.56392669677734</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7159850597381592</v>
+        <v>-0.8442184329032898</v>
       </c>
       <c r="C54" t="n">
-        <v>7.518085479736328</v>
+        <v>11.99004554748535</v>
       </c>
       <c r="D54" t="n">
-        <v>27.14251708984375</v>
+        <v>27.36964225769043</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.9980354309082</v>
+        <v>-20.82498931884766</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.546494007110596</v>
+        <v>-3.804120779037476</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>35.61196136474609</v>
+        <v>39.03680419921875</v>
       </c>
       <c r="B55" t="n">
-        <v>2.876611709594727</v>
+        <v>1.736714124679565</v>
       </c>
       <c r="C55" t="n">
-        <v>6.23913049697876</v>
+        <v>11.36834335327148</v>
       </c>
       <c r="D55" t="n">
-        <v>30.68902206420898</v>
+        <v>32.07106781005859</v>
       </c>
       <c r="E55" t="n">
-        <v>-23.65421485900879</v>
+        <v>-21.50915718078613</v>
       </c>
       <c r="F55" t="n">
-        <v>-13.99083518981934</v>
+        <v>-13.41727638244629</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>33.91867828369141</v>
+        <v>36.26369857788086</v>
       </c>
       <c r="B56" t="n">
-        <v>5.625127792358398</v>
+        <v>4.056010246276855</v>
       </c>
       <c r="C56" t="n">
-        <v>6.23913049697876</v>
+        <v>9.017170906066895</v>
       </c>
       <c r="D56" t="n">
-        <v>35.61018371582031</v>
+        <v>36.59834671020508</v>
       </c>
       <c r="E56" t="n">
-        <v>-25.56204795837402</v>
+        <v>-23.09383201599121</v>
       </c>
       <c r="F56" t="n">
-        <v>-22.16424179077148</v>
+        <v>-20.94543647766113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>32.23036956787109</v>
+        <v>32.6954231262207</v>
       </c>
       <c r="B57" t="n">
-        <v>8.692778587341309</v>
+        <v>7.533093452453613</v>
       </c>
       <c r="C57" t="n">
-        <v>4.748011589050293</v>
+        <v>6.863528251647949</v>
       </c>
       <c r="D57" t="n">
-        <v>41.55104064941406</v>
+        <v>41.22902297973633</v>
       </c>
       <c r="E57" t="n">
-        <v>-25.56204795837402</v>
+        <v>-24.47281837463379</v>
       </c>
       <c r="F57" t="n">
-        <v>-27.81521415710449</v>
+        <v>-27.43568992614746</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30.47502899169922</v>
+        <v>29.37117195129395</v>
       </c>
       <c r="B58" t="n">
-        <v>12.07111740112305</v>
+        <v>11.78446483612061</v>
       </c>
       <c r="C58" t="n">
-        <v>5.174193382263184</v>
+        <v>5.754216194152832</v>
       </c>
       <c r="D58" t="n">
-        <v>47.90970611572266</v>
+        <v>46.49223709106445</v>
       </c>
       <c r="E58" t="n">
-        <v>-25.35607528686523</v>
+        <v>-25.12701034545898</v>
       </c>
       <c r="F58" t="n">
-        <v>-30.56743621826172</v>
+        <v>-32.08758544921875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28.56722640991211</v>
+        <v>26.68335151672363</v>
       </c>
       <c r="B59" t="n">
-        <v>15.77267169952393</v>
+        <v>16.67579650878906</v>
       </c>
       <c r="C59" t="n">
-        <v>5.657816886901855</v>
+        <v>6.00798511505127</v>
       </c>
       <c r="D59" t="n">
-        <v>54.06697082519531</v>
+        <v>52.4604377746582</v>
       </c>
       <c r="E59" t="n">
-        <v>-23.22616577148438</v>
+        <v>-24.31789207458496</v>
       </c>
       <c r="F59" t="n">
-        <v>-30.56743621826172</v>
+        <v>-33.31478500366211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26.47723960876465</v>
+        <v>24.78633499145508</v>
       </c>
       <c r="B60" t="n">
-        <v>19.81221771240234</v>
+        <v>21.5143985748291</v>
       </c>
       <c r="C60" t="n">
-        <v>5.815703392028809</v>
+        <v>6.886273384094238</v>
       </c>
       <c r="D60" t="n">
-        <v>59.51182174682617</v>
+        <v>58.36118316650391</v>
       </c>
       <c r="E60" t="n">
-        <v>-20.3418025970459</v>
+        <v>-21.80107498168945</v>
       </c>
       <c r="F60" t="n">
-        <v>-27.64575004577637</v>
+        <v>-30.75969505310059</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>24.31581115722656</v>
+        <v>23.3088493347168</v>
       </c>
       <c r="B61" t="n">
-        <v>24.02511596679688</v>
+        <v>26.00382041931152</v>
       </c>
       <c r="C61" t="n">
-        <v>5.902775764465332</v>
+        <v>7.627083778381348</v>
       </c>
       <c r="D61" t="n">
-        <v>63.76287078857422</v>
+        <v>63.08363342285156</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.85659408569336</v>
+        <v>-17.8602237701416</v>
       </c>
       <c r="F61" t="n">
-        <v>-23.09933090209961</v>
+        <v>-25.47918319702148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22.24066543579102</v>
+        <v>21.82825088500977</v>
       </c>
       <c r="B62" t="n">
-        <v>28.19577980041504</v>
+        <v>30.06548118591309</v>
       </c>
       <c r="C62" t="n">
-        <v>6.08689022064209</v>
+        <v>7.797091484069824</v>
       </c>
       <c r="D62" t="n">
-        <v>66.45931243896484</v>
+        <v>65.78337097167969</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.17405891418457</v>
+        <v>-13.29943943023682</v>
       </c>
       <c r="F62" t="n">
-        <v>-17.80467414855957</v>
+        <v>-19.06512069702148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20.2789306640625</v>
+        <v>20.20665168762207</v>
       </c>
       <c r="B63" t="n">
-        <v>32.18481063842773</v>
+        <v>33.72339630126953</v>
       </c>
       <c r="C63" t="n">
-        <v>6.23684024810791</v>
+        <v>7.533293724060059</v>
       </c>
       <c r="D63" t="n">
-        <v>67.46984100341797</v>
+        <v>66.37294769287109</v>
       </c>
       <c r="E63" t="n">
-        <v>-9.648710250854492</v>
+        <v>-8.903271675109863</v>
       </c>
       <c r="F63" t="n">
-        <v>-12.54338359832764</v>
+        <v>-13.14398384094238</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18.3839111328125</v>
+        <v>18.50774574279785</v>
       </c>
       <c r="B64" t="n">
-        <v>35.96638488769531</v>
+        <v>37.03983688354492</v>
       </c>
       <c r="C64" t="n">
-        <v>6.316910743713379</v>
+        <v>7.19589900970459</v>
       </c>
       <c r="D64" t="n">
-        <v>67.46984100341797</v>
+        <v>65.33760833740234</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.000851631164551</v>
+        <v>-5.298277854919434</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.995863914489746</v>
+        <v>-8.216142654418945</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>16.54423332214355</v>
+        <v>16.70839691162109</v>
       </c>
       <c r="B65" t="n">
-        <v>39.43624877929688</v>
+        <v>40.27764129638672</v>
       </c>
       <c r="C65" t="n">
-        <v>6.637515068054199</v>
+        <v>7.328248023986816</v>
       </c>
       <c r="D65" t="n">
-        <v>64.61004638671875</v>
+        <v>63.03110885620117</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.36775541305542</v>
+        <v>-1.958515644073486</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.202003955841064</v>
+        <v>-4.502830028533936</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14.79922008514404</v>
+        <v>15.0124683380127</v>
       </c>
       <c r="B66" t="n">
-        <v>42.47203063964844</v>
+        <v>43.09670257568359</v>
       </c>
       <c r="C66" t="n">
-        <v>6.877503395080566</v>
+        <v>7.694563865661621</v>
       </c>
       <c r="D66" t="n">
-        <v>61.59388732910156</v>
+        <v>59.70520782470703</v>
       </c>
       <c r="E66" t="n">
-        <v>1.071355581283569</v>
+        <v>1.15174388885498</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.200257301330566</v>
+        <v>-1.501225113868713</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13.13625907897949</v>
+        <v>13.41014099121094</v>
       </c>
       <c r="B67" t="n">
-        <v>44.97311401367188</v>
+        <v>45.39787292480469</v>
       </c>
       <c r="C67" t="n">
-        <v>7.03787899017334</v>
+        <v>8.097485542297363</v>
       </c>
       <c r="D67" t="n">
-        <v>57.36469650268555</v>
+        <v>55.49232864379883</v>
       </c>
       <c r="E67" t="n">
-        <v>4.428857326507568</v>
+        <v>4.116363525390625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8824028968811035</v>
+        <v>0.7511586546897888</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11.52588081359863</v>
+        <v>11.84255409240723</v>
       </c>
       <c r="B68" t="n">
-        <v>46.90484237670898</v>
+        <v>47.17958831787109</v>
       </c>
       <c r="C68" t="n">
-        <v>7.360089302062988</v>
+        <v>8.542712211608887</v>
       </c>
       <c r="D68" t="n">
-        <v>52.04563140869141</v>
+        <v>50.49386596679688</v>
       </c>
       <c r="E68" t="n">
-        <v>7.565296173095703</v>
+        <v>7.118467330932617</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8824028968811035</v>
+        <v>2.04607105255127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.00188255310059</v>
+        <v>10.30007076263428</v>
       </c>
       <c r="B69" t="n">
-        <v>48.24234771728516</v>
+        <v>48.39812088012695</v>
       </c>
       <c r="C69" t="n">
-        <v>7.772610664367676</v>
+        <v>9.012425422668457</v>
       </c>
       <c r="D69" t="n">
-        <v>45.98204040527344</v>
+        <v>44.90079498291016</v>
       </c>
       <c r="E69" t="n">
-        <v>10.38984489440918</v>
+        <v>10.00726795196533</v>
       </c>
       <c r="F69" t="n">
-        <v>2.73575496673584</v>
+        <v>2.240818023681641</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.547159194946289</v>
+        <v>8.825751304626465</v>
       </c>
       <c r="B70" t="n">
-        <v>48.24234771728516</v>
+        <v>49.00678253173828</v>
       </c>
       <c r="C70" t="n">
-        <v>8.294070243835449</v>
+        <v>9.546967506408691</v>
       </c>
       <c r="D70" t="n">
-        <v>39.53864288330078</v>
+        <v>38.97861480712891</v>
       </c>
       <c r="E70" t="n">
-        <v>13.23904323577881</v>
+        <v>12.53170680999756</v>
       </c>
       <c r="F70" t="n">
-        <v>1.687830328941345</v>
+        <v>1.621174693107605</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.144046783447266</v>
+        <v>7.426887989044189</v>
       </c>
       <c r="B71" t="n">
-        <v>49.7016716003418</v>
+        <v>49.08034896850586</v>
       </c>
       <c r="C71" t="n">
-        <v>9.043271064758301</v>
+        <v>10.30612468719482</v>
       </c>
       <c r="D71" t="n">
-        <v>33.06739044189453</v>
+        <v>32.98920440673828</v>
       </c>
       <c r="E71" t="n">
-        <v>15.76226615905762</v>
+        <v>14.9208517074585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4896067976951599</v>
+        <v>0.6086277365684509</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.800149917602539</v>
+        <v>6.119677066802979</v>
       </c>
       <c r="B72" t="n">
-        <v>49.34687423706055</v>
+        <v>48.64042663574219</v>
       </c>
       <c r="C72" t="n">
-        <v>9.7418212890625</v>
+        <v>11.15483474731445</v>
       </c>
       <c r="D72" t="n">
-        <v>26.99264717102051</v>
+        <v>27.21777725219727</v>
       </c>
       <c r="E72" t="n">
-        <v>17.95038604736328</v>
+        <v>16.94795036315918</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.177268266677856</v>
+        <v>-0.6999655365943909</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.483734130859375</v>
+        <v>4.92252779006958</v>
       </c>
       <c r="B73" t="n">
-        <v>48.67768096923828</v>
+        <v>47.88414001464844</v>
       </c>
       <c r="C73" t="n">
-        <v>10.59152030944824</v>
+        <v>12.18389225006104</v>
       </c>
       <c r="D73" t="n">
-        <v>21.7801685333252</v>
+        <v>22.06945610046387</v>
       </c>
       <c r="E73" t="n">
-        <v>19.8802604675293</v>
+        <v>18.61346244812012</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.367631435394287</v>
+        <v>-2.642812252044678</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.173574686050415</v>
+        <v>3.840424060821533</v>
       </c>
       <c r="B74" t="n">
-        <v>47.87771987915039</v>
+        <v>47.00740432739258</v>
       </c>
       <c r="C74" t="n">
-        <v>11.73991775512695</v>
+        <v>13.49381065368652</v>
       </c>
       <c r="D74" t="n">
-        <v>17.76119995117188</v>
+        <v>17.93899726867676</v>
       </c>
       <c r="E74" t="n">
-        <v>21.37071990966797</v>
+        <v>19.95702362060547</v>
       </c>
       <c r="F74" t="n">
-        <v>-6.637558937072754</v>
+        <v>-5.412759304046631</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.891979575157166</v>
+        <v>2.905720233917236</v>
       </c>
       <c r="B75" t="n">
-        <v>46.81541061401367</v>
+        <v>45.93529510498047</v>
       </c>
       <c r="C75" t="n">
-        <v>12.88291549682617</v>
+        <v>14.8582592010498</v>
       </c>
       <c r="D75" t="n">
-        <v>14.99477195739746</v>
+        <v>14.95086002349854</v>
       </c>
       <c r="E75" t="n">
-        <v>21.37071990966797</v>
+        <v>20.5577392578125</v>
       </c>
       <c r="F75" t="n">
-        <v>-8.515439987182617</v>
+        <v>-8.089200973510742</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6903185844421387</v>
+        <v>2.084616184234619</v>
       </c>
       <c r="B76" t="n">
-        <v>45.43759155273438</v>
+        <v>44.73402404785156</v>
       </c>
       <c r="C76" t="n">
-        <v>13.96463203430176</v>
+        <v>16.1666202545166</v>
       </c>
       <c r="D76" t="n">
-        <v>13.32449913024902</v>
+        <v>13.0795783996582</v>
       </c>
       <c r="E76" t="n">
-        <v>22.76534461975098</v>
+        <v>20.23525428771973</v>
       </c>
       <c r="F76" t="n">
-        <v>-10.36161613464355</v>
+        <v>-10.15357494354248</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.3808326721191406</v>
+        <v>1.330954074859619</v>
       </c>
       <c r="B77" t="n">
-        <v>43.78339385986328</v>
+        <v>43.45821762084961</v>
       </c>
       <c r="C77" t="n">
-        <v>15.21902751922607</v>
+        <v>17.47097969055176</v>
       </c>
       <c r="D77" t="n">
-        <v>13.32449913024902</v>
+        <v>12.15001773834229</v>
       </c>
       <c r="E77" t="n">
-        <v>19.47023391723633</v>
+        <v>18.86565971374512</v>
       </c>
       <c r="F77" t="n">
-        <v>-12.74412822723389</v>
+        <v>-11.93057346343994</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.3808326721191406</v>
+        <v>0.6504121422767639</v>
       </c>
       <c r="B78" t="n">
-        <v>42.00251007080078</v>
+        <v>42.08306503295898</v>
       </c>
       <c r="C78" t="n">
-        <v>17.81409645080566</v>
+        <v>18.93269157409668</v>
       </c>
       <c r="D78" t="n">
-        <v>11.88832664489746</v>
+        <v>12.00849914550781</v>
       </c>
       <c r="E78" t="n">
-        <v>15.65770721435547</v>
+        <v>15.93759250640869</v>
       </c>
       <c r="F78" t="n">
-        <v>-15.48114776611328</v>
+        <v>-14.13942623138428</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-2.147658824920654</v>
+        <v>0.1454339623451233</v>
       </c>
       <c r="B79" t="n">
-        <v>39.05186462402344</v>
+        <v>40.50037384033203</v>
       </c>
       <c r="C79" t="n">
-        <v>19.73484420776367</v>
+        <v>20.80036544799805</v>
       </c>
       <c r="D79" t="n">
-        <v>12.86149501800537</v>
+        <v>12.55184841156006</v>
       </c>
       <c r="E79" t="n">
-        <v>9.385744094848633</v>
+        <v>10.52534961700439</v>
       </c>
       <c r="F79" t="n">
-        <v>-17.74000930786133</v>
+        <v>-16.84425354003906</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-2.394145488739014</v>
+        <v>0.0001874559093266726</v>
       </c>
       <c r="B80" t="n">
-        <v>37.34246826171875</v>
+        <v>38.59738922119141</v>
       </c>
       <c r="C80" t="n">
-        <v>22.62500381469727</v>
+        <v>23.36977767944336</v>
       </c>
       <c r="D80" t="n">
-        <v>14.14398002624512</v>
+        <v>13.58036327362061</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5218548774719238</v>
+        <v>1.893401145935059</v>
       </c>
       <c r="F80" t="n">
-        <v>-17.74000930786133</v>
+        <v>-19.11428260803223</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.878169536590576</v>
+        <v>0.4327073693275452</v>
       </c>
       <c r="B81" t="n">
-        <v>35.36635971069336</v>
+        <v>36.44065475463867</v>
       </c>
       <c r="C81" t="n">
-        <v>26.72721672058105</v>
+        <v>26.9671516418457</v>
       </c>
       <c r="D81" t="n">
-        <v>15.40339756011963</v>
+        <v>14.88570117950439</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.776620864868164</v>
+        <v>-9.629820823669434</v>
       </c>
       <c r="F81" t="n">
-        <v>-18.98210334777832</v>
+        <v>-19.28464126586914</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.102863788604736</v>
+        <v>1.528492450714111</v>
       </c>
       <c r="B82" t="n">
-        <v>33.45431137084961</v>
+        <v>34.44321060180664</v>
       </c>
       <c r="C82" t="n">
-        <v>32.17070007324219</v>
+        <v>31.90744018554688</v>
       </c>
       <c r="D82" t="n">
-        <v>16.32272338867188</v>
+        <v>16.20392990112305</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.63950157165527</v>
+        <v>-21.2770824432373</v>
       </c>
       <c r="F82" t="n">
-        <v>-17.57377433776855</v>
+        <v>-17.98362922668457</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.554977893829346</v>
+        <v>3.418285846710205</v>
       </c>
       <c r="B83" t="n">
-        <v>31.59311485290527</v>
+        <v>32.54788208007812</v>
       </c>
       <c r="C83" t="n">
-        <v>38.70807647705078</v>
+        <v>37.95514297485352</v>
       </c>
       <c r="D83" t="n">
-        <v>16.9333438873291</v>
+        <v>17.17612648010254</v>
       </c>
       <c r="E83" t="n">
-        <v>-27.69424057006836</v>
+        <v>-30.68052101135254</v>
       </c>
       <c r="F83" t="n">
-        <v>-14.47111511230469</v>
+        <v>-15.96417713165283</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6.963865280151367</v>
+        <v>6.26432466506958</v>
       </c>
       <c r="B84" t="n">
-        <v>29.56785774230957</v>
+        <v>30.45388793945312</v>
       </c>
       <c r="C84" t="n">
-        <v>45.80896377563477</v>
+        <v>44.58850860595703</v>
       </c>
       <c r="D84" t="n">
-        <v>17.2138729095459</v>
+        <v>17.60430526733398</v>
       </c>
       <c r="E84" t="n">
-        <v>-33.26915740966797</v>
+        <v>-36.72431945800781</v>
       </c>
       <c r="F84" t="n">
-        <v>-11.79143619537354</v>
+        <v>-13.10610485076904</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.03986167907715</v>
+        <v>10.087477684021</v>
       </c>
       <c r="B85" t="n">
-        <v>27.388671875</v>
+        <v>27.90590476989746</v>
       </c>
       <c r="C85" t="n">
-        <v>52.73306274414062</v>
+        <v>51.22499084472656</v>
       </c>
       <c r="D85" t="n">
-        <v>17.03458976745605</v>
+        <v>17.40142059326172</v>
       </c>
       <c r="E85" t="n">
-        <v>-35.3687744140625</v>
+        <v>-39.32781982421875</v>
       </c>
       <c r="F85" t="n">
-        <v>-8.325547218322754</v>
+        <v>-9.32542610168457</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15.37591361999512</v>
+        <v>14.56088829040527</v>
       </c>
       <c r="B86" t="n">
-        <v>25.21841430664062</v>
+        <v>25.42243003845215</v>
       </c>
       <c r="C86" t="n">
-        <v>58.60518264770508</v>
+        <v>57.46239471435547</v>
       </c>
       <c r="D86" t="n">
-        <v>16.70759773254395</v>
+        <v>16.98062896728516</v>
       </c>
       <c r="E86" t="n">
-        <v>-33.83007049560547</v>
+        <v>-37.6812629699707</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.63064432144165</v>
+        <v>-5.271087169647217</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>19.68595123291016</v>
+        <v>19.28595924377441</v>
       </c>
       <c r="B87" t="n">
-        <v>23.16418647766113</v>
+        <v>23.03140068054199</v>
       </c>
       <c r="C87" t="n">
-        <v>62.85858917236328</v>
+        <v>62.43862152099609</v>
       </c>
       <c r="D87" t="n">
-        <v>16.45586776733398</v>
+        <v>16.4435977935791</v>
       </c>
       <c r="E87" t="n">
-        <v>-29.18831062316895</v>
+        <v>-32.52772521972656</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.170259237289429</v>
+        <v>-1.404982686042786</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>23.77568435668945</v>
+        <v>23.79272651672363</v>
       </c>
       <c r="B88" t="n">
-        <v>21.24973678588867</v>
+        <v>20.85990715026855</v>
       </c>
       <c r="C88" t="n">
-        <v>65.16407775878906</v>
+        <v>65.43735504150391</v>
       </c>
       <c r="D88" t="n">
-        <v>16.34430694580078</v>
+        <v>15.88885498046875</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.35043525695801</v>
+        <v>-25.07754135131836</v>
       </c>
       <c r="F88" t="n">
-        <v>1.993762135505676</v>
+        <v>1.809094309806824</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>27.49720573425293</v>
+        <v>27.73087120056152</v>
       </c>
       <c r="B89" t="n">
-        <v>19.48314666748047</v>
+        <v>19.01005363464355</v>
       </c>
       <c r="C89" t="n">
-        <v>65.16407775878906</v>
+        <v>66.03338623046875</v>
       </c>
       <c r="D89" t="n">
-        <v>16.35699844360352</v>
+        <v>15.5133752822876</v>
       </c>
       <c r="E89" t="n">
-        <v>-14.67052841186523</v>
+        <v>-16.63206100463867</v>
       </c>
       <c r="F89" t="n">
-        <v>4.89289665222168</v>
+        <v>4.455935478210449</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>30.79903030395508</v>
+        <v>30.95875930786133</v>
       </c>
       <c r="B90" t="n">
-        <v>17.78626251220703</v>
+        <v>17.45637512207031</v>
       </c>
       <c r="C90" t="n">
-        <v>63.40570449829102</v>
+        <v>64.07670593261719</v>
       </c>
       <c r="D90" t="n">
-        <v>16.50981712341309</v>
+        <v>15.44108867645264</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.630850315093994</v>
+        <v>-8.64365291595459</v>
       </c>
       <c r="F90" t="n">
-        <v>7.713259696960449</v>
+        <v>6.80681037902832</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>33.67803192138672</v>
+        <v>33.55706024169922</v>
       </c>
       <c r="B91" t="n">
-        <v>16.08423805236816</v>
+        <v>15.99460506439209</v>
       </c>
       <c r="C91" t="n">
-        <v>59.35720062255859</v>
+        <v>59.78475189208984</v>
       </c>
       <c r="D91" t="n">
-        <v>16.78073501586914</v>
+        <v>15.6573429107666</v>
       </c>
       <c r="E91" t="n">
-        <v>-2.169487237930298</v>
+        <v>-2.379444599151611</v>
       </c>
       <c r="F91" t="n">
-        <v>10.5698356628418</v>
+        <v>9.202874183654785</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>36.14670944213867</v>
+        <v>35.64531326293945</v>
       </c>
       <c r="B92" t="n">
-        <v>14.35716724395752</v>
+        <v>14.54728412628174</v>
       </c>
       <c r="C92" t="n">
-        <v>53.72882461547852</v>
+        <v>53.72451782226562</v>
       </c>
       <c r="D92" t="n">
-        <v>17.13466835021973</v>
+        <v>16.09146499633789</v>
       </c>
       <c r="E92" t="n">
-        <v>1.30232560634613</v>
+        <v>1.603630065917969</v>
       </c>
       <c r="F92" t="n">
-        <v>13.35014247894287</v>
+        <v>11.73106575012207</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>38.20742034912109</v>
+        <v>37.34883117675781</v>
       </c>
       <c r="B93" t="n">
-        <v>12.57607078552246</v>
+        <v>13.02693367004395</v>
       </c>
       <c r="C93" t="n">
-        <v>47.01265716552734</v>
+        <v>46.54885101318359</v>
       </c>
       <c r="D93" t="n">
-        <v>17.46278953552246</v>
+        <v>16.57254981994629</v>
       </c>
       <c r="E93" t="n">
-        <v>2.782502889633179</v>
+        <v>3.306991577148438</v>
       </c>
       <c r="F93" t="n">
-        <v>15.97531509399414</v>
+        <v>14.27562713623047</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>39.72435760498047</v>
+        <v>38.75978088378906</v>
       </c>
       <c r="B94" t="n">
-        <v>10.81765747070312</v>
+        <v>11.32782554626465</v>
       </c>
       <c r="C94" t="n">
-        <v>39.73640441894531</v>
+        <v>38.82680511474609</v>
       </c>
       <c r="D94" t="n">
-        <v>17.66439437866211</v>
+        <v>16.96435737609863</v>
       </c>
       <c r="E94" t="n">
-        <v>2.782502889633179</v>
+        <v>2.988781929016113</v>
       </c>
       <c r="F94" t="n">
-        <v>18.42975616455078</v>
+        <v>16.74697303771973</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>40.74366760253906</v>
+        <v>39.66294860839844</v>
       </c>
       <c r="B95" t="n">
-        <v>8.98974609375</v>
+        <v>9.76097297668457</v>
       </c>
       <c r="C95" t="n">
-        <v>32.34958648681641</v>
+        <v>31.22854042053223</v>
       </c>
       <c r="D95" t="n">
-        <v>17.76383972167969</v>
+        <v>17.32047271728516</v>
       </c>
       <c r="E95" t="n">
-        <v>1.074833154678345</v>
+        <v>1.28944206237793</v>
       </c>
       <c r="F95" t="n">
-        <v>20.80658721923828</v>
+        <v>18.95519256591797</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>40.74366760253906</v>
+        <v>40.16811752319336</v>
       </c>
       <c r="B96" t="n">
-        <v>7.135350704193115</v>
+        <v>8.065601348876953</v>
       </c>
       <c r="C96" t="n">
-        <v>25.32156753540039</v>
+        <v>24.06671524047852</v>
       </c>
       <c r="D96" t="n">
-        <v>17.70295906066895</v>
+        <v>17.56630516052246</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.219070434570312</v>
+        <v>-1.416840553283691</v>
       </c>
       <c r="F96" t="n">
-        <v>23.01984977722168</v>
+        <v>20.99247550964355</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>41.74348449707031</v>
+        <v>40.05535125732422</v>
       </c>
       <c r="B97" t="n">
-        <v>5.239343643188477</v>
+        <v>6.565699577331543</v>
       </c>
       <c r="C97" t="n">
-        <v>19.02398490905762</v>
+        <v>17.85953712463379</v>
       </c>
       <c r="D97" t="n">
-        <v>17.57458305358887</v>
+        <v>17.79857063293457</v>
       </c>
       <c r="E97" t="n">
-        <v>-3.962999820709229</v>
+        <v>-4.49960470199585</v>
       </c>
       <c r="F97" t="n">
-        <v>24.97745704650879</v>
+        <v>22.58524131774902</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>41.67557525634766</v>
+        <v>39.68885040283203</v>
       </c>
       <c r="B98" t="n">
-        <v>3.516367435455322</v>
+        <v>4.881884574890137</v>
       </c>
       <c r="C98" t="n">
-        <v>13.73824310302734</v>
+        <v>12.71070957183838</v>
       </c>
       <c r="D98" t="n">
-        <v>17.5985279083252</v>
+        <v>17.97146034240723</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.946037292480469</v>
+        <v>-7.797494888305664</v>
       </c>
       <c r="F98" t="n">
-        <v>26.35318374633789</v>
+        <v>23.83584213256836</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>41.25472640991211</v>
+        <v>39.16922760009766</v>
       </c>
       <c r="B99" t="n">
-        <v>1.929930329322815</v>
+        <v>3.359989881515503</v>
       </c>
       <c r="C99" t="n">
-        <v>9.451799392700195</v>
+        <v>8.921645164489746</v>
       </c>
       <c r="D99" t="n">
-        <v>18.14286994934082</v>
+        <v>18.30409812927246</v>
       </c>
       <c r="E99" t="n">
-        <v>-10.39687728881836</v>
+        <v>-11.11235237121582</v>
       </c>
       <c r="F99" t="n">
-        <v>26.35318374633789</v>
+        <v>24.82140159606934</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>37.92892074584961</v>
+        <v>38.75740051269531</v>
       </c>
       <c r="B100" t="n">
-        <v>1.929930329322815</v>
+        <v>1.944411039352417</v>
       </c>
       <c r="C100" t="n">
-        <v>6.70844030380249</v>
+        <v>6.374081611633301</v>
       </c>
       <c r="D100" t="n">
-        <v>19.24899482727051</v>
+        <v>18.86893844604492</v>
       </c>
       <c r="E100" t="n">
-        <v>-12.17130661010742</v>
+        <v>-14.55891799926758</v>
       </c>
       <c r="F100" t="n">
-        <v>28.23496055603027</v>
+        <v>25.7088451385498</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>34.35811996459961</v>
+        <v>36.06364822387695</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8202522397041321</v>
+        <v>3.976309537887573</v>
       </c>
       <c r="C101" t="n">
-        <v>4.77109432220459</v>
+        <v>6.52811336517334</v>
       </c>
       <c r="D101" t="n">
-        <v>20.69623756408691</v>
+        <v>20.08976173400879</v>
       </c>
       <c r="E101" t="n">
-        <v>-13.32124900817871</v>
+        <v>-14.8118839263916</v>
       </c>
       <c r="F101" t="n">
-        <v>26.74682426452637</v>
+        <v>24.2622127532959</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>29.96310043334961</v>
+        <v>34.4976806640625</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.7175437808036804</v>
+        <v>2.588803052902222</v>
       </c>
       <c r="C102" t="n">
-        <v>4.77109432220459</v>
+        <v>4.890250205993652</v>
       </c>
       <c r="D102" t="n">
-        <v>23.48801040649414</v>
+        <v>20.19699859619141</v>
       </c>
       <c r="E102" t="n">
-        <v>-13.32124900817871</v>
+        <v>-15.71052837371826</v>
       </c>
       <c r="F102" t="n">
-        <v>20.8888111114502</v>
+        <v>23.37811088562012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>34.98986053466797</v>
+        <v>30.23018074035645</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4791105091571808</v>
+        <v>3.289299726486206</v>
       </c>
       <c r="C103" t="n">
-        <v>9.32158088684082</v>
+        <v>4.435120582580566</v>
       </c>
       <c r="D103" t="n">
-        <v>23.48801040649414</v>
+        <v>20.92996406555176</v>
       </c>
       <c r="E103" t="n">
-        <v>-15.63601970672607</v>
+        <v>-15.23453044891357</v>
       </c>
       <c r="F103" t="n">
-        <v>13.39920520782471</v>
+        <v>18.2319507598877</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>37.97621917724609</v>
+        <v>39.82675170898438</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.5337846279144287</v>
+        <v>2.797398328781128</v>
       </c>
       <c r="C104" t="n">
-        <v>9.32158088684082</v>
+        <v>14.69232559204102</v>
       </c>
       <c r="D104" t="n">
-        <v>25.54489135742188</v>
+        <v>24.96016502380371</v>
       </c>
       <c r="E104" t="n">
-        <v>-18.22815322875977</v>
+        <v>-17.4475212097168</v>
       </c>
       <c r="F104" t="n">
-        <v>5.293516635894775</v>
+        <v>0.5036939978599548</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>37.97621917724609</v>
+        <v>42.57321548461914</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.5337846279144287</v>
+        <v>-1.438594102859497</v>
       </c>
       <c r="C105" t="n">
-        <v>9.790512084960938</v>
+        <v>12.83372974395752</v>
       </c>
       <c r="D105" t="n">
-        <v>27.99622344970703</v>
+        <v>27.83638954162598</v>
       </c>
       <c r="E105" t="n">
-        <v>-20.33593368530273</v>
+        <v>-20.97580528259277</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.923072099685669</v>
+        <v>-4.112212657928467</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>36.06639099121094</v>
+        <v>39.94501876831055</v>
       </c>
       <c r="B106" t="n">
-        <v>2.846355438232422</v>
+        <v>2.095913648605347</v>
       </c>
       <c r="C106" t="n">
-        <v>6.571310997009277</v>
+        <v>13.8039722442627</v>
       </c>
       <c r="D106" t="n">
-        <v>31.34703636169434</v>
+        <v>33.28921508789062</v>
       </c>
       <c r="E106" t="n">
-        <v>-22.74987030029297</v>
+        <v>-20.64651107788086</v>
       </c>
       <c r="F106" t="n">
-        <v>-13.30622577667236</v>
+        <v>-13.44492816925049</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>34.25595092773438</v>
+        <v>37.98346710205078</v>
       </c>
       <c r="B107" t="n">
-        <v>5.424885749816895</v>
+        <v>3.735789060592651</v>
       </c>
       <c r="C107" t="n">
-        <v>5.409308433532715</v>
+        <v>11.74814510345459</v>
       </c>
       <c r="D107" t="n">
-        <v>35.89553451538086</v>
+        <v>38.07941055297852</v>
       </c>
       <c r="E107" t="n">
-        <v>-24.80614471435547</v>
+        <v>-21.50885581970215</v>
       </c>
       <c r="F107" t="n">
-        <v>-21.55237579345703</v>
+        <v>-19.85049247741699</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>32.55288696289062</v>
+        <v>34.3407096862793</v>
       </c>
       <c r="B108" t="n">
-        <v>8.623968124389648</v>
+        <v>6.798213005065918</v>
       </c>
       <c r="C108" t="n">
-        <v>5.409308433532715</v>
+        <v>8.951315879821777</v>
       </c>
       <c r="D108" t="n">
-        <v>41.48123550415039</v>
+        <v>42.36355209350586</v>
       </c>
       <c r="E108" t="n">
-        <v>-24.80614471435547</v>
+        <v>-22.35610961914062</v>
       </c>
       <c r="F108" t="n">
-        <v>-27.37198638916016</v>
+        <v>-25.46699333190918</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>30.9001579284668</v>
+        <v>30.24450492858887</v>
       </c>
       <c r="B109" t="n">
-        <v>12.15372848510742</v>
+        <v>10.89850616455078</v>
       </c>
       <c r="C109" t="n">
-        <v>4.454367637634277</v>
+        <v>6.471697807312012</v>
       </c>
       <c r="D109" t="n">
-        <v>47.60795211791992</v>
+        <v>46.71367645263672</v>
       </c>
       <c r="E109" t="n">
-        <v>-25.13032341003418</v>
+        <v>-23.14802551269531</v>
       </c>
       <c r="F109" t="n">
-        <v>-30.24379539489746</v>
+        <v>-30.32752799987793</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>29.12663650512695</v>
+        <v>26.45757675170898</v>
       </c>
       <c r="B110" t="n">
-        <v>15.88360214233398</v>
+        <v>16.18190956115723</v>
       </c>
       <c r="C110" t="n">
-        <v>5.21593189239502</v>
+        <v>5.588419914245605</v>
       </c>
       <c r="D110" t="n">
-        <v>53.66117095947266</v>
+        <v>51.62375640869141</v>
       </c>
       <c r="E110" t="n">
-        <v>-22.9079704284668</v>
+        <v>-23.13127708435059</v>
       </c>
       <c r="F110" t="n">
-        <v>-30.24379539489746</v>
+        <v>-32.37322998046875</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>27.08738708496094</v>
+        <v>23.82964706420898</v>
       </c>
       <c r="B111" t="n">
-        <v>19.86511421203613</v>
+        <v>21.65395927429199</v>
       </c>
       <c r="C111" t="n">
-        <v>5.701106071472168</v>
+        <v>6.222691535949707</v>
       </c>
       <c r="D111" t="n">
-        <v>59.07943344116211</v>
+        <v>56.77124404907227</v>
       </c>
       <c r="E111" t="n">
-        <v>-19.93528747558594</v>
+        <v>-21.58680152893066</v>
       </c>
       <c r="F111" t="n">
-        <v>-27.31547927856445</v>
+        <v>-30.50622177124023</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>24.89713096618652</v>
+        <v>22.3203010559082</v>
       </c>
       <c r="B112" t="n">
-        <v>23.98430252075195</v>
+        <v>26.60248947143555</v>
       </c>
       <c r="C112" t="n">
-        <v>5.941195487976074</v>
+        <v>7.586236000061035</v>
       </c>
       <c r="D112" t="n">
-        <v>63.33121490478516</v>
+        <v>61.24956512451172</v>
       </c>
       <c r="E112" t="n">
-        <v>-16.39278030395508</v>
+        <v>-18.11296463012695</v>
       </c>
       <c r="F112" t="n">
-        <v>-22.74819946289062</v>
+        <v>-25.55648994445801</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22.75751495361328</v>
+        <v>21.34183883666992</v>
       </c>
       <c r="B113" t="n">
-        <v>28.05010032653809</v>
+        <v>30.73611450195312</v>
       </c>
       <c r="C113" t="n">
-        <v>6.138014793395996</v>
+        <v>8.592671394348145</v>
       </c>
       <c r="D113" t="n">
-        <v>66.01637268066406</v>
+        <v>64.07722473144531</v>
       </c>
       <c r="E113" t="n">
-        <v>-12.6722354888916</v>
+        <v>-13.3831615447998</v>
       </c>
       <c r="F113" t="n">
-        <v>-17.49966239929199</v>
+        <v>-19.2347297668457</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>20.74618148803711</v>
+        <v>20.28830718994141</v>
       </c>
       <c r="B114" t="n">
-        <v>31.93717193603516</v>
+        <v>34.18682098388672</v>
       </c>
       <c r="C114" t="n">
-        <v>6.260777473449707</v>
+        <v>8.731026649475098</v>
       </c>
       <c r="D114" t="n">
-        <v>66.01637268066406</v>
+        <v>64.79941558837891</v>
       </c>
       <c r="E114" t="n">
-        <v>-9.135993003845215</v>
+        <v>-8.494041442871094</v>
       </c>
       <c r="F114" t="n">
-        <v>-12.34197902679443</v>
+        <v>-13.31538200378418</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>18.80860710144043</v>
+        <v>18.9394702911377</v>
       </c>
       <c r="B115" t="n">
-        <v>35.62471389770508</v>
+        <v>37.18944549560547</v>
       </c>
       <c r="C115" t="n">
-        <v>6.299376487731934</v>
+        <v>8.224688529968262</v>
       </c>
       <c r="D115" t="n">
-        <v>66.78106689453125</v>
+        <v>63.68067932128906</v>
       </c>
       <c r="E115" t="n">
-        <v>-5.528971672058105</v>
+        <v>-4.405882835388184</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.924115180969238</v>
+        <v>-8.528103828430176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>16.92821311950684</v>
+        <v>17.24530601501465</v>
       </c>
       <c r="B116" t="n">
-        <v>39.03159332275391</v>
+        <v>40.11868286132812</v>
       </c>
       <c r="C116" t="n">
-        <v>6.614823341369629</v>
+        <v>7.83676815032959</v>
       </c>
       <c r="D116" t="n">
-        <v>64.53750610351562</v>
+        <v>61.16135787963867</v>
       </c>
       <c r="E116" t="n">
-        <v>-1.945206642150879</v>
+        <v>-1.041451930999756</v>
       </c>
       <c r="F116" t="n">
-        <v>-4.286194324493408</v>
+        <v>-4.986464023590088</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>15.12800979614258</v>
+        <v>15.500319480896</v>
       </c>
       <c r="B117" t="n">
-        <v>42.05278778076172</v>
+        <v>42.79949951171875</v>
       </c>
       <c r="C117" t="n">
-        <v>6.912714958190918</v>
+        <v>7.835299491882324</v>
       </c>
       <c r="D117" t="n">
-        <v>61.35309600830078</v>
+        <v>57.68676376342773</v>
       </c>
       <c r="E117" t="n">
-        <v>1.423672676086426</v>
+        <v>1.779541015625</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.391801595687866</v>
+        <v>-2.198053598403931</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>13.39995765686035</v>
+        <v>13.84532451629639</v>
       </c>
       <c r="B118" t="n">
-        <v>44.58208847045898</v>
+        <v>45.07942199707031</v>
       </c>
       <c r="C118" t="n">
-        <v>7.072592735290527</v>
+        <v>8.176877021789551</v>
       </c>
       <c r="D118" t="n">
-        <v>57.18928909301758</v>
+        <v>53.54213714599609</v>
       </c>
       <c r="E118" t="n">
-        <v>4.705204963684082</v>
+        <v>4.362144470214844</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6616922616958618</v>
+        <v>-0.05924326926469803</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.73084831237793</v>
+        <v>12.28372573852539</v>
       </c>
       <c r="B119" t="n">
-        <v>46.55280685424805</v>
+        <v>46.863525390625</v>
       </c>
       <c r="C119" t="n">
-        <v>7.312893867492676</v>
+        <v>8.725811958312988</v>
       </c>
       <c r="D119" t="n">
-        <v>52.00627136230469</v>
+        <v>48.84704208374023</v>
       </c>
       <c r="E119" t="n">
-        <v>7.813961982727051</v>
+        <v>7.015604019165039</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6616922616958618</v>
+        <v>1.329792857170105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.14856624603271</v>
+        <v>10.77385139465332</v>
       </c>
       <c r="B120" t="n">
-        <v>47.92677307128906</v>
+        <v>48.08154678344727</v>
       </c>
       <c r="C120" t="n">
-        <v>7.620064735412598</v>
+        <v>9.316278457641602</v>
       </c>
       <c r="D120" t="n">
-        <v>46.02934265136719</v>
+        <v>43.70387268066406</v>
       </c>
       <c r="E120" t="n">
-        <v>10.60637855529785</v>
+        <v>9.72971248626709</v>
       </c>
       <c r="F120" t="n">
-        <v>2.617891311645508</v>
+        <v>1.795499682426453</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.648438453674316</v>
+        <v>9.307246208190918</v>
       </c>
       <c r="B121" t="n">
-        <v>47.92677307128906</v>
+        <v>48.67943954467773</v>
       </c>
       <c r="C121" t="n">
-        <v>8.021498680114746</v>
+        <v>9.871135711669922</v>
       </c>
       <c r="D121" t="n">
-        <v>39.62132263183594</v>
+        <v>38.27244567871094</v>
       </c>
       <c r="E121" t="n">
-        <v>13.38124656677246</v>
+        <v>12.21946811676025</v>
       </c>
       <c r="F121" t="n">
-        <v>1.5643070936203</v>
+        <v>1.428168654441833</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.218480110168457</v>
+        <v>7.88853120803833</v>
       </c>
       <c r="B122" t="n">
-        <v>49.42332458496094</v>
+        <v>48.71220397949219</v>
       </c>
       <c r="C122" t="n">
-        <v>8.705100059509277</v>
+        <v>10.53286457061768</v>
       </c>
       <c r="D122" t="n">
-        <v>33.18175506591797</v>
+        <v>32.75302505493164</v>
       </c>
       <c r="E122" t="n">
-        <v>15.86282730102539</v>
+        <v>14.45040416717529</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2618960738182068</v>
+        <v>0.514406144618988</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5.853108406066895</v>
+        <v>6.547867298126221</v>
       </c>
       <c r="B123" t="n">
-        <v>49.03808975219727</v>
+        <v>48.23392105102539</v>
       </c>
       <c r="C123" t="n">
-        <v>9.418081283569336</v>
+        <v>11.33930206298828</v>
       </c>
       <c r="D123" t="n">
-        <v>27.10550689697266</v>
+        <v>27.39297294616699</v>
       </c>
       <c r="E123" t="n">
-        <v>17.99445724487305</v>
+        <v>16.30988502502441</v>
       </c>
       <c r="F123" t="n">
-        <v>-2.284135580062866</v>
+        <v>-0.7273064255714417</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.541657447814941</v>
+        <v>5.321341037750244</v>
       </c>
       <c r="B124" t="n">
-        <v>48.32497406005859</v>
+        <v>47.410400390625</v>
       </c>
       <c r="C124" t="n">
-        <v>10.29727268218994</v>
+        <v>12.40179824829102</v>
       </c>
       <c r="D124" t="n">
-        <v>21.85085678100586</v>
+        <v>22.52035522460938</v>
       </c>
       <c r="E124" t="n">
-        <v>19.85678863525391</v>
+        <v>17.80507469177246</v>
       </c>
       <c r="F124" t="n">
-        <v>-4.362235069274902</v>
+        <v>-2.471497774124146</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.262896299362183</v>
+        <v>4.23777437210083</v>
       </c>
       <c r="B125" t="n">
-        <v>47.49021148681641</v>
+        <v>46.44550704956055</v>
       </c>
       <c r="C125" t="n">
-        <v>11.53335189819336</v>
+        <v>13.82773017883301</v>
       </c>
       <c r="D125" t="n">
-        <v>17.80749130249023</v>
+        <v>18.50181579589844</v>
       </c>
       <c r="E125" t="n">
-        <v>21.3064022064209</v>
+        <v>18.9449291229248</v>
       </c>
       <c r="F125" t="n">
-        <v>-6.688694477081299</v>
+        <v>-4.933841705322266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.013892889022827</v>
+        <v>3.349148273468018</v>
       </c>
       <c r="B126" t="n">
-        <v>46.50984954833984</v>
+        <v>45.35491180419922</v>
       </c>
       <c r="C126" t="n">
-        <v>12.87194156646729</v>
+        <v>15.47863006591797</v>
       </c>
       <c r="D126" t="n">
-        <v>15.04877662658691</v>
+        <v>15.53410053253174</v>
       </c>
       <c r="E126" t="n">
-        <v>21.3064022064209</v>
+        <v>19.41510009765625</v>
       </c>
       <c r="F126" t="n">
-        <v>-8.634142875671387</v>
+        <v>-7.642087936401367</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8385077714920044</v>
+        <v>2.645098209381104</v>
       </c>
       <c r="B127" t="n">
-        <v>45.26089096069336</v>
+        <v>44.17501831054688</v>
       </c>
       <c r="C127" t="n">
-        <v>14.08187198638916</v>
+        <v>17.15145111083984</v>
       </c>
       <c r="D127" t="n">
-        <v>13.38333511352539</v>
+        <v>13.6383752822876</v>
       </c>
       <c r="E127" t="n">
-        <v>22.73816871643066</v>
+        <v>19.0200366973877</v>
       </c>
       <c r="F127" t="n">
-        <v>-10.37714958190918</v>
+        <v>-9.945578575134277</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.195326030254364</v>
+        <v>2.060890674591064</v>
       </c>
       <c r="B128" t="n">
-        <v>43.68502807617188</v>
+        <v>42.96279907226562</v>
       </c>
       <c r="C128" t="n">
-        <v>15.29690742492676</v>
+        <v>18.72294998168945</v>
       </c>
       <c r="D128" t="n">
-        <v>13.38333511352539</v>
+        <v>12.66511631011963</v>
       </c>
       <c r="E128" t="n">
-        <v>19.66776275634766</v>
+        <v>17.7431697845459</v>
       </c>
       <c r="F128" t="n">
-        <v>-12.57003784179688</v>
+        <v>-11.72549915313721</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.195326030254364</v>
+        <v>1.556213855743408</v>
       </c>
       <c r="B129" t="n">
-        <v>41.89749145507812</v>
+        <v>41.69630813598633</v>
       </c>
       <c r="C129" t="n">
-        <v>16.76719856262207</v>
+        <v>20.22291946411133</v>
       </c>
       <c r="D129" t="n">
-        <v>11.83809280395508</v>
+        <v>12.38464450836182</v>
       </c>
       <c r="E129" t="n">
-        <v>15.95924758911133</v>
+        <v>15.24825954437256</v>
       </c>
       <c r="F129" t="n">
-        <v>-15.29500961303711</v>
+        <v>-13.53555679321289</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.856553554534912</v>
+        <v>1.188179492950439</v>
       </c>
       <c r="B130" t="n">
-        <v>38.94755554199219</v>
+        <v>40.25335693359375</v>
       </c>
       <c r="C130" t="n">
-        <v>20.02633285522461</v>
+        <v>21.86287117004395</v>
       </c>
       <c r="D130" t="n">
-        <v>12.6747350692749</v>
+        <v>12.63114547729492</v>
       </c>
       <c r="E130" t="n">
-        <v>9.762594223022461</v>
+        <v>10.51552677154541</v>
       </c>
       <c r="F130" t="n">
-        <v>-17.75683212280273</v>
+        <v>-15.896315574646</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.100072383880615</v>
+        <v>1.130632877349854</v>
       </c>
       <c r="B131" t="n">
-        <v>37.24021911621094</v>
+        <v>38.49832153320312</v>
       </c>
       <c r="C131" t="n">
-        <v>22.47590255737305</v>
+        <v>24.00174903869629</v>
       </c>
       <c r="D131" t="n">
-        <v>13.97737598419189</v>
+        <v>13.31875991821289</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8489518165588379</v>
+        <v>2.308484077453613</v>
       </c>
       <c r="F131" t="n">
-        <v>-17.75683212280273</v>
+        <v>-18.44549751281738</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-1.650887966156006</v>
+        <v>1.612040042877197</v>
       </c>
       <c r="B132" t="n">
-        <v>35.18407821655273</v>
+        <v>36.49016571044922</v>
       </c>
       <c r="C132" t="n">
-        <v>26.28425979614258</v>
+        <v>27.13110160827637</v>
       </c>
       <c r="D132" t="n">
-        <v>15.35818481445312</v>
+        <v>14.42059516906738</v>
       </c>
       <c r="E132" t="n">
-        <v>-9.578226089477539</v>
+        <v>-9.489195823669434</v>
       </c>
       <c r="F132" t="n">
-        <v>-19.3896484375</v>
+        <v>-19.49679756164551</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.389079570770264</v>
+        <v>2.715786457061768</v>
       </c>
       <c r="B133" t="n">
-        <v>33.18671417236328</v>
+        <v>34.70118713378906</v>
       </c>
       <c r="C133" t="n">
-        <v>31.63075065612793</v>
+        <v>31.77729606628418</v>
       </c>
       <c r="D133" t="n">
-        <v>16.39734268188477</v>
+        <v>15.8544807434082</v>
       </c>
       <c r="E133" t="n">
-        <v>-19.39650726318359</v>
+        <v>-21.72064781188965</v>
       </c>
       <c r="F133" t="n">
-        <v>-17.42136383056641</v>
+        <v>-18.41548347473145</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.941860198974609</v>
+        <v>4.528191089630127</v>
       </c>
       <c r="B134" t="n">
-        <v>31.31946182250977</v>
+        <v>33.02972412109375</v>
       </c>
       <c r="C134" t="n">
-        <v>38.23410797119141</v>
+        <v>37.647216796875</v>
       </c>
       <c r="D134" t="n">
-        <v>17.08673667907715</v>
+        <v>17.15360260009766</v>
       </c>
       <c r="E134" t="n">
-        <v>-27.26425933837891</v>
+        <v>-31.06725692749023</v>
       </c>
       <c r="F134" t="n">
-        <v>-14.14705657958984</v>
+        <v>-16.04754066467285</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7.45197582244873</v>
+        <v>7.202030658721924</v>
       </c>
       <c r="B135" t="n">
-        <v>29.34388160705566</v>
+        <v>30.91794586181641</v>
       </c>
       <c r="C135" t="n">
-        <v>45.48129272460938</v>
+        <v>43.93572235107422</v>
       </c>
       <c r="D135" t="n">
-        <v>17.34975242614746</v>
+        <v>17.76520538330078</v>
       </c>
       <c r="E135" t="n">
-        <v>-32.70111846923828</v>
+        <v>-36.62522125244141</v>
       </c>
       <c r="F135" t="n">
-        <v>-11.57832527160645</v>
+        <v>-12.970046043396</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>11.61131477355957</v>
+        <v>10.7607889175415</v>
       </c>
       <c r="B136" t="n">
-        <v>27.19681549072266</v>
+        <v>28.17166519165039</v>
       </c>
       <c r="C136" t="n">
-        <v>52.57977294921875</v>
+        <v>50.10858154296875</v>
       </c>
       <c r="D136" t="n">
-        <v>17.03421974182129</v>
+        <v>17.51634788513184</v>
       </c>
       <c r="E136" t="n">
-        <v>-34.74935913085938</v>
+        <v>-38.85953903198242</v>
       </c>
       <c r="F136" t="n">
-        <v>-8.179872512817383</v>
+        <v>-9.277403831481934</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>15.99405288696289</v>
+        <v>14.95168018341064</v>
       </c>
       <c r="B137" t="n">
-        <v>25.02727508544922</v>
+        <v>25.47146224975586</v>
       </c>
       <c r="C137" t="n">
-        <v>58.58037567138672</v>
+        <v>56.02848052978516</v>
       </c>
       <c r="D137" t="n">
-        <v>16.48408889770508</v>
+        <v>16.89865875244141</v>
       </c>
       <c r="E137" t="n">
-        <v>-33.18462371826172</v>
+        <v>-37.14126205444336</v>
       </c>
       <c r="F137" t="n">
-        <v>-4.518838405609131</v>
+        <v>-5.414994716644287</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>20.25290679931641</v>
+        <v>19.52182769775391</v>
       </c>
       <c r="B138" t="n">
-        <v>22.99016189575195</v>
+        <v>22.89804458618164</v>
       </c>
       <c r="C138" t="n">
-        <v>62.81613922119141</v>
+        <v>61.0151481628418</v>
       </c>
       <c r="D138" t="n">
-        <v>16.06894874572754</v>
+        <v>16.15240478515625</v>
       </c>
       <c r="E138" t="n">
-        <v>-28.59335136413574</v>
+        <v>-32.07261657714844</v>
       </c>
       <c r="F138" t="n">
-        <v>-1.070804834365845</v>
+        <v>-1.675746560096741</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>24.18950080871582</v>
+        <v>23.99359893798828</v>
       </c>
       <c r="B139" t="n">
-        <v>21.13639450073242</v>
+        <v>20.58796310424805</v>
       </c>
       <c r="C139" t="n">
-        <v>64.99557495117188</v>
+        <v>64.22476959228516</v>
       </c>
       <c r="D139" t="n">
-        <v>15.92852783203125</v>
+        <v>15.45629978179932</v>
       </c>
       <c r="E139" t="n">
-        <v>-21.93530082702637</v>
+        <v>-24.85687637329102</v>
       </c>
       <c r="F139" t="n">
-        <v>2.046253681182861</v>
+        <v>1.556945204734802</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>27.71115303039551</v>
+        <v>27.90672874450684</v>
       </c>
       <c r="B140" t="n">
-        <v>19.45066261291504</v>
+        <v>18.68938255310059</v>
       </c>
       <c r="C140" t="n">
-        <v>64.99557495117188</v>
+        <v>65.06273651123047</v>
       </c>
       <c r="D140" t="n">
-        <v>16.03210258483887</v>
+        <v>14.99695587158203</v>
       </c>
       <c r="E140" t="n">
-        <v>-14.49678611755371</v>
+        <v>-16.84758186340332</v>
       </c>
       <c r="F140" t="n">
-        <v>4.882785797119141</v>
+        <v>4.203763961791992</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>30.84261322021484</v>
+        <v>31.0478630065918</v>
       </c>
       <c r="B141" t="n">
-        <v>17.82669639587402</v>
+        <v>17.20029067993164</v>
       </c>
       <c r="C141" t="n">
-        <v>63.06858062744141</v>
+        <v>63.32205200195312</v>
       </c>
       <c r="D141" t="n">
-        <v>16.29914283752441</v>
+        <v>14.87051963806152</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.630604267120361</v>
+        <v>-9.338396072387695</v>
       </c>
       <c r="F141" t="n">
-        <v>7.63499641418457</v>
+        <v>6.473541259765625</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>33.64070129394531</v>
+        <v>33.48389434814453</v>
       </c>
       <c r="B142" t="n">
-        <v>16.15778350830078</v>
+        <v>15.90991497039795</v>
       </c>
       <c r="C142" t="n">
-        <v>59.11481857299805</v>
+        <v>59.2135009765625</v>
       </c>
       <c r="D142" t="n">
-        <v>16.66075325012207</v>
+        <v>15.05282020568848</v>
       </c>
       <c r="E142" t="n">
-        <v>-2.241991758346558</v>
+        <v>-3.320872783660889</v>
       </c>
       <c r="F142" t="n">
-        <v>10.46092987060547</v>
+        <v>8.669313430786133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>36.11750030517578</v>
+        <v>35.37664794921875</v>
       </c>
       <c r="B143" t="n">
-        <v>14.42677593231201</v>
+        <v>14.64913463592529</v>
       </c>
       <c r="C143" t="n">
-        <v>53.53169250488281</v>
+        <v>53.23959350585938</v>
       </c>
       <c r="D143" t="n">
-        <v>17.08634948730469</v>
+        <v>15.48147964477539</v>
       </c>
       <c r="E143" t="n">
-        <v>1.239407181739807</v>
+        <v>0.6771554946899414</v>
       </c>
       <c r="F143" t="n">
-        <v>13.27931594848633</v>
+        <v>10.96570587158203</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>38.24696350097656</v>
+        <v>36.89277267456055</v>
       </c>
       <c r="B144" t="n">
-        <v>12.6391019821167</v>
+        <v>13.27810573577881</v>
       </c>
       <c r="C144" t="n">
-        <v>46.76811981201172</v>
+        <v>46.002197265625</v>
       </c>
       <c r="D144" t="n">
-        <v>17.52510643005371</v>
+        <v>16.03451156616211</v>
       </c>
       <c r="E144" t="n">
-        <v>2.743643999099731</v>
+        <v>2.545714378356934</v>
       </c>
       <c r="F144" t="n">
-        <v>15.95776271820068</v>
+        <v>13.38590621948242</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>39.86019897460938</v>
+        <v>38.16396713256836</v>
       </c>
       <c r="B145" t="n">
-        <v>10.8760404586792</v>
+        <v>11.66281414031982</v>
       </c>
       <c r="C145" t="n">
-        <v>39.38079833984375</v>
+        <v>38.08905792236328</v>
       </c>
       <c r="D145" t="n">
-        <v>17.85113906860352</v>
+        <v>16.57576942443848</v>
       </c>
       <c r="E145" t="n">
-        <v>2.743643999099731</v>
+        <v>2.400501251220703</v>
       </c>
       <c r="F145" t="n">
-        <v>18.42940139770508</v>
+        <v>15.86651039123535</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>40.95753479003906</v>
+        <v>39.01062774658203</v>
       </c>
       <c r="B146" t="n">
-        <v>9.028325080871582</v>
+        <v>10.11371231079102</v>
       </c>
       <c r="C146" t="n">
-        <v>31.90505599975586</v>
+        <v>30.27802848815918</v>
       </c>
       <c r="D146" t="n">
-        <v>17.99359130859375</v>
+        <v>17.12102699279785</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9325785636901855</v>
+        <v>0.7723960876464844</v>
       </c>
       <c r="F146" t="n">
-        <v>20.85478591918945</v>
+        <v>18.08924865722656</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>40.95753479003906</v>
+        <v>39.51650619506836</v>
       </c>
       <c r="B147" t="n">
-        <v>7.110409736633301</v>
+        <v>8.462903022766113</v>
       </c>
       <c r="C147" t="n">
-        <v>24.88243103027344</v>
+        <v>23.07317352294922</v>
       </c>
       <c r="D147" t="n">
-        <v>17.86276245117188</v>
+        <v>17.56901550292969</v>
       </c>
       <c r="E147" t="n">
-        <v>-1.41055965423584</v>
+        <v>-1.949239253997803</v>
       </c>
       <c r="F147" t="n">
-        <v>23.12451553344727</v>
+        <v>20.08325576782227</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>42.02048110961914</v>
+        <v>39.43420028686523</v>
       </c>
       <c r="B148" t="n">
-        <v>5.118426322937012</v>
+        <v>7.06923770904541</v>
       </c>
       <c r="C148" t="n">
-        <v>18.70834922790527</v>
+        <v>17.08763122558594</v>
       </c>
       <c r="D148" t="n">
-        <v>17.56500434875488</v>
+        <v>17.95702171325684</v>
       </c>
       <c r="E148" t="n">
-        <v>-4.149439811706543</v>
+        <v>-5.035192012786865</v>
       </c>
       <c r="F148" t="n">
-        <v>25.0994758605957</v>
+        <v>21.51562118530273</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>41.92950820922852</v>
+        <v>39.12332916259766</v>
       </c>
       <c r="B149" t="n">
-        <v>3.316204071044922</v>
+        <v>5.434504508972168</v>
       </c>
       <c r="C149" t="n">
-        <v>13.62391662597656</v>
+        <v>12.29412746429443</v>
       </c>
       <c r="D149" t="n">
-        <v>17.4827766418457</v>
+        <v>18.16748428344727</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.065415382385254</v>
+        <v>-8.369023323059082</v>
       </c>
       <c r="F149" t="n">
-        <v>26.39627075195312</v>
+        <v>22.58576774597168</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>41.51416397094727</v>
+        <v>38.639404296875</v>
       </c>
       <c r="B150" t="n">
-        <v>1.689450621604919</v>
+        <v>3.88440203666687</v>
       </c>
       <c r="C150" t="n">
-        <v>9.501001358032227</v>
+        <v>8.908751487731934</v>
       </c>
       <c r="D150" t="n">
-        <v>18.05384063720703</v>
+        <v>18.42053985595703</v>
       </c>
       <c r="E150" t="n">
-        <v>-10.47912979125977</v>
+        <v>-11.69357299804688</v>
       </c>
       <c r="F150" t="n">
-        <v>26.39627075195312</v>
+        <v>23.50845909118652</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>38.15245819091797</v>
+        <v>38.2920036315918</v>
       </c>
       <c r="B151" t="n">
-        <v>1.689450621604919</v>
+        <v>2.438000440597534</v>
       </c>
       <c r="C151" t="n">
-        <v>7.033215999603271</v>
+        <v>6.824776649475098</v>
       </c>
       <c r="D151" t="n">
-        <v>19.35469627380371</v>
+        <v>18.85966491699219</v>
       </c>
       <c r="E151" t="n">
-        <v>-11.98380661010742</v>
+        <v>-15.00840663909912</v>
       </c>
       <c r="F151" t="n">
-        <v>27.0543212890625</v>
+        <v>24.52009201049805</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>34.74525451660156</v>
+        <v>35.48466491699219</v>
       </c>
       <c r="B152" t="n">
-        <v>1.24614405632019</v>
+        <v>5.373406410217285</v>
       </c>
       <c r="C152" t="n">
-        <v>5.089665412902832</v>
+        <v>8.054221153259277</v>
       </c>
       <c r="D152" t="n">
-        <v>21.0941333770752</v>
+        <v>20.28458786010742</v>
       </c>
       <c r="E152" t="n">
-        <v>-13.11563110351562</v>
+        <v>-14.55115985870361</v>
       </c>
       <c r="F152" t="n">
-        <v>27.0543212890625</v>
+        <v>22.62576484680176</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>30.22593307495117</v>
+        <v>35.49954223632812</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.5356246829032898</v>
+        <v>2.852747678756714</v>
       </c>
       <c r="C153" t="n">
-        <v>5.089665412902832</v>
+        <v>6.261395454406738</v>
       </c>
       <c r="D153" t="n">
-        <v>23.33804321289062</v>
+        <v>20.06997108459473</v>
       </c>
       <c r="E153" t="n">
-        <v>-13.11563110351562</v>
+        <v>-16.17466735839844</v>
       </c>
       <c r="F153" t="n">
-        <v>20.77091979980469</v>
+        <v>23.10565757751465</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>34.94777679443359</v>
+        <v>31.38312721252441</v>
       </c>
       <c r="B154" t="n">
-        <v>1.118723630905151</v>
+        <v>4.922652244567871</v>
       </c>
       <c r="C154" t="n">
-        <v>9.73118782043457</v>
+        <v>6.559563636779785</v>
       </c>
       <c r="D154" t="n">
-        <v>23.33804321289062</v>
+        <v>20.52524185180664</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.94157409667969</v>
+        <v>-14.71175956726074</v>
       </c>
       <c r="F154" t="n">
-        <v>13.21120166778564</v>
+        <v>17.51174354553223</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>38.5087890625</v>
+        <v>39.17019653320312</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.5578873157501221</v>
+        <v>3.832443952560425</v>
       </c>
       <c r="C155" t="n">
-        <v>9.73118782043457</v>
+        <v>15.3104305267334</v>
       </c>
       <c r="D155" t="n">
-        <v>26.02750778198242</v>
+        <v>25.12307167053223</v>
       </c>
       <c r="E155" t="n">
-        <v>-17.95361328125</v>
+        <v>-16.87471771240234</v>
       </c>
       <c r="F155" t="n">
-        <v>5.524481773376465</v>
+        <v>-0.1626525521278381</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>38.5087890625</v>
+        <v>43.29642105102539</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5578873157501221</v>
+        <v>-2.091151475906372</v>
       </c>
       <c r="C156" t="n">
-        <v>10.61190223693848</v>
+        <v>12.93284511566162</v>
       </c>
       <c r="D156" t="n">
-        <v>28.65342712402344</v>
+        <v>27.88044166564941</v>
       </c>
       <c r="E156" t="n">
-        <v>-19.85234451293945</v>
+        <v>-21.1937427520752</v>
       </c>
       <c r="F156" t="n">
-        <v>-3.363041877746582</v>
+        <v>-4.437328338623047</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>36.63704681396484</v>
+        <v>40.19049835205078</v>
       </c>
       <c r="B157" t="n">
-        <v>2.263707876205444</v>
+        <v>2.789030790328979</v>
       </c>
       <c r="C157" t="n">
-        <v>7.68454647064209</v>
+        <v>15.31873893737793</v>
       </c>
       <c r="D157" t="n">
-        <v>31.96537017822266</v>
+        <v>33.94880676269531</v>
       </c>
       <c r="E157" t="n">
-        <v>-21.99872970581055</v>
+        <v>-20.08182525634766</v>
       </c>
       <c r="F157" t="n">
-        <v>-12.64821243286133</v>
+        <v>-13.84028625488281</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>34.64355850219727</v>
+        <v>39.27917861938477</v>
       </c>
       <c r="B158" t="n">
-        <v>4.780979633331299</v>
+        <v>3.820566892623901</v>
       </c>
       <c r="C158" t="n">
-        <v>5.874706268310547</v>
+        <v>13.88199806213379</v>
       </c>
       <c r="D158" t="n">
-        <v>36.29414367675781</v>
+        <v>39.09946441650391</v>
       </c>
       <c r="E158" t="n">
-        <v>-24.07401275634766</v>
+        <v>-20.57866096496582</v>
       </c>
       <c r="F158" t="n">
-        <v>-20.88839340209961</v>
+        <v>-19.27437782287598</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>32.81838607788086</v>
+        <v>36.10320663452148</v>
       </c>
       <c r="B159" t="n">
-        <v>8.15664005279541</v>
+        <v>6.522965431213379</v>
       </c>
       <c r="C159" t="n">
-        <v>4.8078293800354</v>
+        <v>11.35226535797119</v>
       </c>
       <c r="D159" t="n">
-        <v>41.56226348876953</v>
+        <v>43.4713249206543</v>
       </c>
       <c r="E159" t="n">
-        <v>-24.07401275634766</v>
+        <v>-20.78437042236328</v>
       </c>
       <c r="F159" t="n">
-        <v>-26.8415470123291</v>
+        <v>-23.86083793640137</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>31.20378112792969</v>
+        <v>31.89243125915527</v>
       </c>
       <c r="B160" t="n">
-        <v>11.96551322937012</v>
+        <v>10.09640216827393</v>
       </c>
       <c r="C160" t="n">
-        <v>4.8078293800354</v>
+        <v>8.093167304992676</v>
       </c>
       <c r="D160" t="n">
-        <v>47.39385223388672</v>
+        <v>47.34214019775391</v>
       </c>
       <c r="E160" t="n">
-        <v>-24.84867858886719</v>
+        <v>-21.22788619995117</v>
       </c>
       <c r="F160" t="n">
-        <v>-29.89149856567383</v>
+        <v>-28.49047660827637</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>29.5834846496582</v>
+        <v>27.15992164611816</v>
       </c>
       <c r="B161" t="n">
-        <v>15.89416694641113</v>
+        <v>15.29707622528076</v>
       </c>
       <c r="C161" t="n">
-        <v>4.605603218078613</v>
+        <v>5.881621360778809</v>
       </c>
       <c r="D161" t="n">
-        <v>53.26391983032227</v>
+        <v>51.34034729003906</v>
       </c>
       <c r="E161" t="n">
-        <v>-22.56141471862793</v>
+        <v>-21.44516944885254</v>
       </c>
       <c r="F161" t="n">
-        <v>-29.89149856567383</v>
+        <v>-31.06765747070312</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>27.66057968139648</v>
+        <v>23.33715057373047</v>
       </c>
       <c r="B162" t="n">
-        <v>19.94392967224121</v>
+        <v>21.16017723083496</v>
       </c>
       <c r="C162" t="n">
-        <v>5.465441703796387</v>
+        <v>5.450009346008301</v>
       </c>
       <c r="D162" t="n">
-        <v>58.619873046875</v>
+        <v>55.51548385620117</v>
       </c>
       <c r="E162" t="n">
-        <v>-19.51433372497559</v>
+        <v>-20.78014373779297</v>
       </c>
       <c r="F162" t="n">
-        <v>-27.06889724731445</v>
+        <v>-29.90426254272461</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>25.49456787109375</v>
+        <v>21.05238151550293</v>
       </c>
       <c r="B163" t="n">
-        <v>24.01542282104492</v>
+        <v>26.69347190856934</v>
       </c>
       <c r="C163" t="n">
-        <v>5.999518394470215</v>
+        <v>6.692194938659668</v>
       </c>
       <c r="D163" t="n">
-        <v>62.87769317626953</v>
+        <v>59.33594131469727</v>
       </c>
       <c r="E163" t="n">
-        <v>-15.93781280517578</v>
+        <v>-18.22875785827637</v>
       </c>
       <c r="F163" t="n">
-        <v>-22.42323684692383</v>
+        <v>-25.5247917175293</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>23.30297088623047</v>
+        <v>20.0733699798584</v>
       </c>
       <c r="B164" t="n">
-        <v>27.97572326660156</v>
+        <v>31.21024322509766</v>
       </c>
       <c r="C164" t="n">
-        <v>6.274483680725098</v>
+        <v>8.502215385437012</v>
       </c>
       <c r="D164" t="n">
-        <v>65.5784912109375</v>
+        <v>62.02927017211914</v>
       </c>
       <c r="E164" t="n">
-        <v>-12.2004508972168</v>
+        <v>-13.8477897644043</v>
       </c>
       <c r="F164" t="n">
-        <v>-17.17229270935059</v>
+        <v>-19.53326034545898</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>21.22511672973633</v>
+        <v>19.60504722595215</v>
       </c>
       <c r="B165" t="n">
-        <v>31.73913955688477</v>
+        <v>34.69112396240234</v>
       </c>
       <c r="C165" t="n">
-        <v>6.353625297546387</v>
+        <v>9.696333885192871</v>
       </c>
       <c r="D165" t="n">
-        <v>65.5784912109375</v>
+        <v>63.00615310668945</v>
       </c>
       <c r="E165" t="n">
-        <v>-8.658603668212891</v>
+        <v>-8.65046215057373</v>
       </c>
       <c r="F165" t="n">
-        <v>-12.09584999084473</v>
+        <v>-13.66131782531738</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>19.23041725158691</v>
+        <v>18.95769119262695</v>
       </c>
       <c r="B166" t="n">
-        <v>35.31082916259766</v>
+        <v>37.44889450073242</v>
       </c>
       <c r="C166" t="n">
-        <v>6.307040214538574</v>
+        <v>9.747994422912598</v>
       </c>
       <c r="D166" t="n">
-        <v>66.24781036376953</v>
+        <v>62.16542053222656</v>
       </c>
       <c r="E166" t="n">
-        <v>-5.079412937164307</v>
+        <v>-3.925700187683105</v>
       </c>
       <c r="F166" t="n">
-        <v>-7.806924819946289</v>
+        <v>-8.854950904846191</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>17.30437088012695</v>
+        <v>17.73077774047852</v>
       </c>
       <c r="B167" t="n">
-        <v>38.63947677612305</v>
+        <v>40.0024299621582</v>
       </c>
       <c r="C167" t="n">
-        <v>6.562069892883301</v>
+        <v>9.117429733276367</v>
       </c>
       <c r="D167" t="n">
-        <v>63.95127868652344</v>
+        <v>59.71782684326172</v>
       </c>
       <c r="E167" t="n">
-        <v>-1.53467059135437</v>
+        <v>-0.1520047187805176</v>
       </c>
       <c r="F167" t="n">
-        <v>-4.336025714874268</v>
+        <v>-5.351900577545166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>15.45964050292969</v>
+        <v>16.07980918884277</v>
       </c>
       <c r="B168" t="n">
-        <v>41.63782501220703</v>
+        <v>42.44307708740234</v>
       </c>
       <c r="C168" t="n">
-        <v>6.887248039245605</v>
+        <v>8.456143379211426</v>
       </c>
       <c r="D168" t="n">
-        <v>60.83129501342773</v>
+        <v>56.10860824584961</v>
       </c>
       <c r="E168" t="n">
-        <v>1.761047959327698</v>
+        <v>2.665460586547852</v>
       </c>
       <c r="F168" t="n">
-        <v>-1.568916797637939</v>
+        <v>-2.738133668899536</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>13.68110466003418</v>
+        <v>14.31687831878662</v>
       </c>
       <c r="B169" t="n">
-        <v>44.19476318359375</v>
+        <v>44.67208099365234</v>
       </c>
       <c r="C169" t="n">
-        <v>7.081089973449707</v>
+        <v>8.233355522155762</v>
       </c>
       <c r="D169" t="n">
-        <v>56.86042022705078</v>
+        <v>51.81128311157227</v>
       </c>
       <c r="E169" t="n">
-        <v>4.950849533081055</v>
+        <v>4.922479629516602</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4441015720367432</v>
+        <v>-0.7536850571632385</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>11.95505332946777</v>
+        <v>12.65668201446533</v>
       </c>
       <c r="B170" t="n">
-        <v>46.21087646484375</v>
+        <v>46.52111434936523</v>
       </c>
       <c r="C170" t="n">
-        <v>7.300530433654785</v>
+        <v>8.559426307678223</v>
       </c>
       <c r="D170" t="n">
-        <v>51.90921401977539</v>
+        <v>47.15182113647461</v>
       </c>
       <c r="E170" t="n">
-        <v>8.025796890258789</v>
+        <v>7.114355087280273</v>
       </c>
       <c r="F170" t="n">
-        <v>1.475711941719055</v>
+        <v>0.6241306662559509</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.31030941009521</v>
+        <v>11.15092754364014</v>
       </c>
       <c r="B171" t="n">
-        <v>47.62383270263672</v>
+        <v>47.83171463012695</v>
       </c>
       <c r="C171" t="n">
-        <v>7.536614418029785</v>
+        <v>9.23516845703125</v>
       </c>
       <c r="D171" t="n">
-        <v>46.08262252807617</v>
+        <v>42.29281997680664</v>
       </c>
       <c r="E171" t="n">
-        <v>10.81008911132812</v>
+        <v>9.459807395935059</v>
       </c>
       <c r="F171" t="n">
-        <v>1.475711941719055</v>
+        <v>1.263882040977478</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8.757402420043945</v>
+        <v>9.761241912841797</v>
       </c>
       <c r="B172" t="n">
-        <v>47.62383270263672</v>
+        <v>48.49244689941406</v>
       </c>
       <c r="C172" t="n">
-        <v>7.806565284729004</v>
+        <v>9.98009204864502</v>
       </c>
       <c r="D172" t="n">
-        <v>39.71942901611328</v>
+        <v>37.31366348266602</v>
       </c>
       <c r="E172" t="n">
-        <v>13.53879451751709</v>
+        <v>11.78821659088135</v>
       </c>
       <c r="F172" t="n">
-        <v>1.490979552268982</v>
+        <v>1.151999354362488</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7.296305656433105</v>
+        <v>8.425339698791504</v>
       </c>
       <c r="B173" t="n">
-        <v>49.16533279418945</v>
+        <v>48.52399444580078</v>
       </c>
       <c r="C173" t="n">
-        <v>8.364562034606934</v>
+        <v>10.72665882110596</v>
       </c>
       <c r="D173" t="n">
-        <v>33.28596115112305</v>
+        <v>32.29196929931641</v>
       </c>
       <c r="E173" t="n">
-        <v>15.98466491699219</v>
+        <v>13.91182613372803</v>
       </c>
       <c r="F173" t="n">
-        <v>0.07872717827558517</v>
+        <v>0.4259313941001892</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5.91561222076416</v>
+        <v>7.125736713409424</v>
       </c>
       <c r="B174" t="n">
-        <v>48.75980758666992</v>
+        <v>48.00590133666992</v>
       </c>
       <c r="C174" t="n">
-        <v>9.041945457458496</v>
+        <v>11.52584457397461</v>
       </c>
       <c r="D174" t="n">
-        <v>27.20351028442383</v>
+        <v>27.37526512145996</v>
       </c>
       <c r="E174" t="n">
-        <v>18.06043243408203</v>
+        <v>15.67091464996338</v>
       </c>
       <c r="F174" t="n">
-        <v>-2.421678781509399</v>
+        <v>-0.7199302315711975</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4.60886287689209</v>
+        <v>5.889753818511963</v>
       </c>
       <c r="B175" t="n">
-        <v>48.00889587402344</v>
+        <v>47.10948944091797</v>
       </c>
       <c r="C175" t="n">
-        <v>9.937307357788086</v>
+        <v>12.54691886901855</v>
       </c>
       <c r="D175" t="n">
-        <v>21.91954803466797</v>
+        <v>22.81820869445801</v>
       </c>
       <c r="E175" t="n">
-        <v>19.84981155395508</v>
+        <v>17.02939605712891</v>
       </c>
       <c r="F175" t="n">
-        <v>-4.387603759765625</v>
+        <v>-2.326680183410645</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3.361152410507202</v>
+        <v>4.770575046539307</v>
       </c>
       <c r="B176" t="n">
-        <v>47.13277053833008</v>
+        <v>46.05065155029297</v>
       </c>
       <c r="C176" t="n">
-        <v>11.25258731842041</v>
+        <v>13.97285175323486</v>
       </c>
       <c r="D176" t="n">
-        <v>17.85221862792969</v>
+        <v>18.95393562316895</v>
       </c>
       <c r="E176" t="n">
-        <v>21.23932075500488</v>
+        <v>17.98678016662598</v>
       </c>
       <c r="F176" t="n">
-        <v>-6.726889610290527</v>
+        <v>-4.555419921875</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.151783227920532</v>
+        <v>3.856100559234619</v>
       </c>
       <c r="B177" t="n">
-        <v>46.19408798217773</v>
+        <v>44.90757751464844</v>
       </c>
       <c r="C177" t="n">
-        <v>12.7906436920166</v>
+        <v>15.78981304168701</v>
       </c>
       <c r="D177" t="n">
-        <v>15.10420322418213</v>
+        <v>16.02393341064453</v>
       </c>
       <c r="E177" t="n">
-        <v>21.23932075500488</v>
+        <v>18.31722450256348</v>
       </c>
       <c r="F177" t="n">
-        <v>-8.74344539642334</v>
+        <v>-7.183191299438477</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.002107977867126</v>
+        <v>3.18651819229126</v>
       </c>
       <c r="B178" t="n">
-        <v>45.06255722045898</v>
+        <v>43.71147155761719</v>
       </c>
       <c r="C178" t="n">
-        <v>14.21155071258545</v>
+        <v>17.81491279602051</v>
       </c>
       <c r="D178" t="n">
-        <v>13.45423984527588</v>
+        <v>14.11071872711182</v>
       </c>
       <c r="E178" t="n">
-        <v>22.65962409973145</v>
+        <v>17.82207107543945</v>
       </c>
       <c r="F178" t="n">
-        <v>-10.41996002197266</v>
+        <v>-9.636351585388184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.01520305871963501</v>
+        <v>2.7139573097229</v>
       </c>
       <c r="B179" t="n">
-        <v>43.58502197265625</v>
+        <v>42.50870895385742</v>
       </c>
       <c r="C179" t="n">
-        <v>15.48132991790771</v>
+        <v>19.8079891204834</v>
       </c>
       <c r="D179" t="n">
-        <v>13.45423984527588</v>
+        <v>13.11902141571045</v>
       </c>
       <c r="E179" t="n">
-        <v>19.84661483764648</v>
+        <v>16.54640007019043</v>
       </c>
       <c r="F179" t="n">
-        <v>-12.41710472106934</v>
+        <v>-11.52004718780518</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-0.01520305871963501</v>
+        <v>2.358263492584229</v>
       </c>
       <c r="B180" t="n">
-        <v>41.80948638916016</v>
+        <v>41.28258895874023</v>
       </c>
       <c r="C180" t="n">
-        <v>16.85066604614258</v>
+        <v>21.5906810760498</v>
       </c>
       <c r="D180" t="n">
-        <v>11.81830310821533</v>
+        <v>12.79663944244385</v>
       </c>
       <c r="E180" t="n">
-        <v>16.26234817504883</v>
+        <v>14.37638568878174</v>
       </c>
       <c r="F180" t="n">
-        <v>-15.08079624176025</v>
+        <v>-13.08404350280762</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-1.619616985321045</v>
+        <v>2.105217456817627</v>
       </c>
       <c r="B181" t="n">
-        <v>38.83323669433594</v>
+        <v>39.90290069580078</v>
       </c>
       <c r="C181" t="n">
-        <v>19.8473014831543</v>
+        <v>23.18828582763672</v>
       </c>
       <c r="D181" t="n">
-        <v>12.46671962738037</v>
+        <v>12.87082195281982</v>
       </c>
       <c r="E181" t="n">
-        <v>10.14158248901367</v>
+        <v>10.39583873748779</v>
       </c>
       <c r="F181" t="n">
-        <v>-17.74268531799316</v>
+        <v>-15.00146675109863</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-1.839890956878662</v>
+        <v>2.088598728179932</v>
       </c>
       <c r="B182" t="n">
-        <v>37.14624786376953</v>
+        <v>38.20316314697266</v>
       </c>
       <c r="C182" t="n">
-        <v>22.11927795410156</v>
+        <v>24.92193984985352</v>
       </c>
       <c r="D182" t="n">
-        <v>13.70226192474365</v>
+        <v>13.219313621521</v>
       </c>
       <c r="E182" t="n">
-        <v>1.163920640945435</v>
+        <v>2.934718132019043</v>
       </c>
       <c r="F182" t="n">
-        <v>-18.81015396118164</v>
+        <v>-17.51710510253906</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1.450948238372803</v>
+        <v>2.559694766998291</v>
       </c>
       <c r="B183" t="n">
-        <v>35.04219818115234</v>
+        <v>36.25614166259766</v>
       </c>
       <c r="C183" t="n">
-        <v>25.73786926269531</v>
+        <v>27.44519233703613</v>
       </c>
       <c r="D183" t="n">
-        <v>15.17640399932861</v>
+        <v>13.96699237823486</v>
       </c>
       <c r="E183" t="n">
-        <v>-9.426213264465332</v>
+        <v>-8.926203727722168</v>
       </c>
       <c r="F183" t="n">
-        <v>-18.81015396118164</v>
+        <v>-19.3642578125</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.603085994720459</v>
+        <v>3.629942417144775</v>
       </c>
       <c r="B184" t="n">
-        <v>32.94770812988281</v>
+        <v>34.72171401977539</v>
       </c>
       <c r="C184" t="n">
-        <v>31.02293014526367</v>
+        <v>31.67174911499023</v>
       </c>
       <c r="D184" t="n">
-        <v>16.37885665893555</v>
+        <v>15.35248565673828</v>
       </c>
       <c r="E184" t="n">
-        <v>-19.2064208984375</v>
+        <v>-22.00589370727539</v>
       </c>
       <c r="F184" t="n">
-        <v>-16.21931266784668</v>
+        <v>-18.94629859924316</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>4.274832725524902</v>
+        <v>5.407284259796143</v>
       </c>
       <c r="B185" t="n">
-        <v>31.02737045288086</v>
+        <v>33.5037841796875</v>
       </c>
       <c r="C185" t="n">
-        <v>37.72476196289062</v>
+        <v>37.43883514404297</v>
       </c>
       <c r="D185" t="n">
-        <v>17.19724464416504</v>
+        <v>16.96954727172852</v>
       </c>
       <c r="E185" t="n">
-        <v>-26.8546028137207</v>
+        <v>-31.63280487060547</v>
       </c>
       <c r="F185" t="n">
-        <v>-14.33778381347656</v>
+        <v>-16.46150970458984</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>7.917866230010986</v>
+        <v>8.077921867370605</v>
       </c>
       <c r="B186" t="n">
-        <v>29.06453704833984</v>
+        <v>31.55400276184082</v>
       </c>
       <c r="C186" t="n">
-        <v>45.15476226806641</v>
+        <v>43.5194091796875</v>
       </c>
       <c r="D186" t="n">
-        <v>17.49912071228027</v>
+        <v>17.8795280456543</v>
       </c>
       <c r="E186" t="n">
-        <v>-32.13311767578125</v>
+        <v>-36.69619750976562</v>
       </c>
       <c r="F186" t="n">
-        <v>-11.59620189666748</v>
+        <v>-12.98307704925537</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12.18301486968994</v>
+        <v>11.55580902099609</v>
       </c>
       <c r="B187" t="n">
-        <v>26.94800186157227</v>
+        <v>28.59885597229004</v>
       </c>
       <c r="C187" t="n">
-        <v>52.4495849609375</v>
+        <v>49.18162155151367</v>
       </c>
       <c r="D187" t="n">
-        <v>17.09406852722168</v>
+        <v>17.66689491271973</v>
       </c>
       <c r="E187" t="n">
-        <v>-34.13929748535156</v>
+        <v>-38.3632926940918</v>
       </c>
       <c r="F187" t="n">
-        <v>-8.142831802368164</v>
+        <v>-9.170855522155762</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>16.62107467651367</v>
+        <v>15.51027774810791</v>
       </c>
       <c r="B188" t="n">
-        <v>24.80046081542969</v>
+        <v>25.6021900177002</v>
       </c>
       <c r="C188" t="n">
-        <v>58.58870315551758</v>
+        <v>54.53755950927734</v>
       </c>
       <c r="D188" t="n">
-        <v>16.3400764465332</v>
+        <v>16.85918807983398</v>
       </c>
       <c r="E188" t="n">
-        <v>-32.56376647949219</v>
+        <v>-36.47414398193359</v>
       </c>
       <c r="F188" t="n">
-        <v>-4.457639217376709</v>
+        <v>-5.488224029541016</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>20.84477424621582</v>
+        <v>19.8170166015625</v>
       </c>
       <c r="B189" t="n">
-        <v>22.80025291442871</v>
+        <v>22.83155632019043</v>
       </c>
       <c r="C189" t="n">
-        <v>62.81546783447266</v>
+        <v>59.26836395263672</v>
       </c>
       <c r="D189" t="n">
-        <v>15.72080039978027</v>
+        <v>15.87355804443359</v>
       </c>
       <c r="E189" t="n">
-        <v>-28.01939392089844</v>
+        <v>-31.54545211791992</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.9920084476470947</v>
+        <v>-1.976189732551575</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>24.64621353149414</v>
+        <v>24.14563369750977</v>
       </c>
       <c r="B190" t="n">
-        <v>21.02242279052734</v>
+        <v>20.39514923095703</v>
       </c>
       <c r="C190" t="n">
-        <v>64.85031127929688</v>
+        <v>62.60942077636719</v>
       </c>
       <c r="D190" t="n">
-        <v>15.48723793029785</v>
+        <v>15.01422882080078</v>
       </c>
       <c r="E190" t="n">
-        <v>-21.51840591430664</v>
+        <v>-24.64520263671875</v>
       </c>
       <c r="F190" t="n">
-        <v>2.10351037979126</v>
+        <v>1.19700038433075</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27.97541809082031</v>
+        <v>28.03348731994629</v>
       </c>
       <c r="B191" t="n">
-        <v>19.43533134460449</v>
+        <v>18.42209434509277</v>
       </c>
       <c r="C191" t="n">
-        <v>64.85031127929688</v>
+        <v>63.81643676757812</v>
       </c>
       <c r="D191" t="n">
-        <v>15.63476657867432</v>
+        <v>14.48797225952148</v>
       </c>
       <c r="E191" t="n">
-        <v>-14.29942512512207</v>
+        <v>-17.05827903747559</v>
       </c>
       <c r="F191" t="n">
-        <v>4.88301944732666</v>
+        <v>3.897158622741699</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>30.92256355285645</v>
+        <v>31.17981338500977</v>
       </c>
       <c r="B192" t="n">
-        <v>17.90103149414062</v>
+        <v>16.93660736083984</v>
       </c>
       <c r="C192" t="n">
-        <v>62.62001037597656</v>
+        <v>62.50110244750977</v>
       </c>
       <c r="D192" t="n">
-        <v>16.02295684814453</v>
+        <v>14.35217094421387</v>
       </c>
       <c r="E192" t="n">
-        <v>-7.60599422454834</v>
+        <v>-9.965510368347168</v>
       </c>
       <c r="F192" t="n">
-        <v>7.558345317840576</v>
+        <v>6.201364517211914</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>33.6135139465332</v>
+        <v>33.56254577636719</v>
       </c>
       <c r="B193" t="n">
-        <v>16.27045822143555</v>
+        <v>15.76085567474365</v>
       </c>
       <c r="C193" t="n">
-        <v>58.78221130371094</v>
+        <v>58.75937271118164</v>
       </c>
       <c r="D193" t="n">
-        <v>16.50837898254395</v>
+        <v>14.54164600372314</v>
       </c>
       <c r="E193" t="n">
-        <v>-2.30203104019165</v>
+        <v>-4.181859016418457</v>
       </c>
       <c r="F193" t="n">
-        <v>10.34294700622559</v>
+        <v>8.30302619934082</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>36.08547210693359</v>
+        <v>35.32104110717773</v>
       </c>
       <c r="B194" t="n">
-        <v>14.51577949523926</v>
+        <v>14.67457008361816</v>
       </c>
       <c r="C194" t="n">
-        <v>53.32889938354492</v>
+        <v>53.01563262939453</v>
       </c>
       <c r="D194" t="n">
-        <v>17.02189254760742</v>
+        <v>14.96413421630859</v>
       </c>
       <c r="E194" t="n">
-        <v>1.172995328903198</v>
+        <v>-0.1879796981811523</v>
       </c>
       <c r="F194" t="n">
-        <v>13.20633888244629</v>
+        <v>10.40009689331055</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>38.28404998779297</v>
+        <v>36.64617156982422</v>
       </c>
       <c r="B195" t="n">
-        <v>12.68662166595459</v>
+        <v>13.47036266326904</v>
       </c>
       <c r="C195" t="n">
-        <v>46.60308837890625</v>
+        <v>45.81906509399414</v>
       </c>
       <c r="D195" t="n">
-        <v>17.54612159729004</v>
+        <v>15.51586532592773</v>
       </c>
       <c r="E195" t="n">
-        <v>2.697278499603271</v>
+        <v>1.826471328735352</v>
       </c>
       <c r="F195" t="n">
-        <v>15.9665355682373</v>
+        <v>12.63955688476562</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>39.99578857421875</v>
+        <v>37.7210807800293</v>
       </c>
       <c r="B196" t="n">
-        <v>10.8975076675415</v>
+        <v>11.9578914642334</v>
       </c>
       <c r="C196" t="n">
-        <v>39.12610626220703</v>
+        <v>37.74102401733398</v>
       </c>
       <c r="D196" t="n">
-        <v>17.98709869384766</v>
+        <v>16.09407997131348</v>
       </c>
       <c r="E196" t="n">
-        <v>2.697278499603271</v>
+        <v>1.853655815124512</v>
       </c>
       <c r="F196" t="n">
-        <v>18.47620391845703</v>
+        <v>15.06344985961914</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>41.17084503173828</v>
+        <v>38.42266845703125</v>
       </c>
       <c r="B197" t="n">
-        <v>9.033487319946289</v>
+        <v>10.42755699157715</v>
       </c>
       <c r="C197" t="n">
-        <v>31.49698638916016</v>
+        <v>29.6220531463623</v>
       </c>
       <c r="D197" t="n">
-        <v>18.20992088317871</v>
+        <v>16.73698043823242</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7869603633880615</v>
+        <v>0.3211627006530762</v>
       </c>
       <c r="F197" t="n">
-        <v>20.93749618530273</v>
+        <v>17.30537033081055</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>41.17084503173828</v>
+        <v>38.82953643798828</v>
       </c>
       <c r="B198" t="n">
-        <v>7.078560352325439</v>
+        <v>8.818196296691895</v>
       </c>
       <c r="C198" t="n">
-        <v>24.39654159545898</v>
+        <v>22.1705493927002</v>
       </c>
       <c r="D198" t="n">
-        <v>18.05248069763184</v>
+        <v>17.37171936035156</v>
       </c>
       <c r="E198" t="n">
-        <v>-1.60536527633667</v>
+        <v>-2.38438081741333</v>
       </c>
       <c r="F198" t="n">
-        <v>23.23930358886719</v>
+        <v>19.24758911132812</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>42.28834533691406</v>
+        <v>38.70341491699219</v>
       </c>
       <c r="B199" t="n">
-        <v>5.018374919891357</v>
+        <v>7.555085182189941</v>
       </c>
       <c r="C199" t="n">
-        <v>18.30943870544434</v>
+        <v>16.20459175109863</v>
       </c>
       <c r="D199" t="n">
-        <v>17.58370018005371</v>
+        <v>18.00086212158203</v>
       </c>
       <c r="E199" t="n">
-        <v>-4.324676513671875</v>
+        <v>-5.462278366088867</v>
       </c>
       <c r="F199" t="n">
-        <v>25.1999397277832</v>
+        <v>20.48188972473145</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>42.1858024597168</v>
+        <v>38.47819519042969</v>
       </c>
       <c r="B200" t="n">
-        <v>3.140239715576172</v>
+        <v>5.976916313171387</v>
       </c>
       <c r="C200" t="n">
-        <v>13.4518871307373</v>
+        <v>11.64634609222412</v>
       </c>
       <c r="D200" t="n">
-        <v>17.34715461730957</v>
+        <v>18.37717056274414</v>
       </c>
       <c r="E200" t="n">
-        <v>-7.171178817749023</v>
+        <v>-8.856560707092285</v>
       </c>
       <c r="F200" t="n">
-        <v>26.40106582641602</v>
+        <v>21.35454177856445</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>41.79207992553711</v>
+        <v>38.12601089477539</v>
       </c>
       <c r="B201" t="n">
-        <v>1.45500123500824</v>
+        <v>4.408371925354004</v>
       </c>
       <c r="C201" t="n">
-        <v>9.548040390014648</v>
+        <v>8.649733543395996</v>
       </c>
       <c r="D201" t="n">
-        <v>17.90814208984375</v>
+        <v>18.64787673950195</v>
       </c>
       <c r="E201" t="n">
-        <v>-10.56787300109863</v>
+        <v>-12.23268508911133</v>
       </c>
       <c r="F201" t="n">
-        <v>26.40106582641602</v>
+        <v>22.216796875</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>38.3596076965332</v>
+        <v>37.90476608276367</v>
       </c>
       <c r="B202" t="n">
-        <v>1.45500123500824</v>
+        <v>2.937763929367065</v>
       </c>
       <c r="C202" t="n">
-        <v>7.421690464019775</v>
+        <v>7.049775123596191</v>
       </c>
       <c r="D202" t="n">
-        <v>20.47841453552246</v>
+        <v>18.97990989685059</v>
       </c>
       <c r="E202" t="n">
-        <v>-11.76131343841553</v>
+        <v>-15.47589015960693</v>
       </c>
       <c r="F202" t="n">
-        <v>26.55609512329102</v>
+        <v>23.38444519042969</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>35.1968994140625</v>
+        <v>34.80487823486328</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5611999034881592</v>
+        <v>6.789433479309082</v>
       </c>
       <c r="C203" t="n">
-        <v>5.428238391876221</v>
+        <v>9.376618385314941</v>
       </c>
       <c r="D203" t="n">
-        <v>21.6014461517334</v>
+        <v>20.54293441772461</v>
       </c>
       <c r="E203" t="n">
-        <v>-12.97110176086426</v>
+        <v>-14.1393461227417</v>
       </c>
       <c r="F203" t="n">
-        <v>26.55609512329102</v>
+        <v>21.02784538269043</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>34.12235260009766</v>
+        <v>36.49026870727539</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5611999034881592</v>
+        <v>2.365271329879761</v>
       </c>
       <c r="C204" t="n">
-        <v>6.732729911804199</v>
+        <v>7.14836597442627</v>
       </c>
       <c r="D204" t="n">
-        <v>22.780517578125</v>
+        <v>19.91157341003418</v>
       </c>
       <c r="E204" t="n">
-        <v>-12.97110176086426</v>
+        <v>-16.91707611083984</v>
       </c>
       <c r="F204" t="n">
-        <v>18.28729057312012</v>
+        <v>23.30060958862305</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>34.12235260009766</v>
+        <v>31.80038452148438</v>
       </c>
       <c r="B205" t="n">
-        <v>0.02381402067840099</v>
+        <v>6.585881233215332</v>
       </c>
       <c r="C205" t="n">
-        <v>6.732729911804199</v>
+        <v>9.091179847717285</v>
       </c>
       <c r="D205" t="n">
-        <v>22.780517578125</v>
+        <v>20.67033958435059</v>
       </c>
       <c r="E205" t="n">
-        <v>-14.922532081604</v>
+        <v>-13.93101692199707</v>
       </c>
       <c r="F205" t="n">
-        <v>18.28729057312012</v>
+        <v>16.73583984375</v>
       </c>
     </row>
   </sheetData>
